--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8362DCA6-2CD0-45FF-B251-8B4CAAD8DD6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7AB482-EA4D-4C71-8728-1E1AAFF8AFA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="GeoScenario" sheetId="1" r:id="rId1"/>
+    <sheet name="Bus 57 Random-No Limits" sheetId="2" r:id="rId2"/>
+    <sheet name="Bus57--With Limits" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>timestep</t>
   </si>
@@ -52,6 +54,12 @@
   </si>
   <si>
     <t>Summed</t>
+  </si>
+  <si>
+    <t>Nominal Roads</t>
+  </si>
+  <si>
+    <t>No Travel Times</t>
   </si>
 </sst>
 </file>
@@ -1391,6 +1399,503 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Shift by Shift losses</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on IEEE Bus 57 without line limits</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bus 57 Random-No Limits'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RoadFirst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus 57 Random-No Limits'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>543.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.29999999999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5884-451B-83C5-F609D034D194}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bus 57 Random-No Limits'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nominal Roads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus 57 Random-No Limits'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>543.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>543.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.29999999999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5884-451B-83C5-F609D034D194}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bus 57 Random-No Limits'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Travel Times</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus 57 Random-No Limits'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>543.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.29999999999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.299999999999898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5884-451B-83C5-F609D034D194}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="557275888"/>
+        <c:axId val="557276544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="557275888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557276544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="557276544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557275888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1471,6 +1976,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1975,6 +2520,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2546,6 +3594,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0D1377-8810-481F-B0EC-9B9F7F93A916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2853,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FEBF82-81C8-4A41-8184-BAB1DED90955}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3187,4 +4276,451 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8676E6-EE69-4DEF-ADC7-ED125A051ED3}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>543.1</v>
+      </c>
+      <c r="C2">
+        <v>543.1</v>
+      </c>
+      <c r="D2">
+        <v>543.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>159.29999999999899</v>
+      </c>
+      <c r="C3">
+        <v>543.1</v>
+      </c>
+      <c r="D3">
+        <v>159.29999999999899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>113.299999999999</v>
+      </c>
+      <c r="C4">
+        <v>159.29999999999899</v>
+      </c>
+      <c r="D4">
+        <v>113.299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>91.3</v>
+      </c>
+      <c r="C5">
+        <v>113.299999999999</v>
+      </c>
+      <c r="D5">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>88.6</v>
+      </c>
+      <c r="C6">
+        <v>91.3</v>
+      </c>
+      <c r="D6">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>88.6</v>
+      </c>
+      <c r="C7">
+        <v>88.3</v>
+      </c>
+      <c r="D7">
+        <v>87.299999999999898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B2)</f>
+        <v>543.1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D11" si="0">SUM(C2)</f>
+        <v>543.1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>543.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B3)</f>
+        <v>702.39999999999895</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="1">SUM(C2:C3)</f>
+        <v>1086.2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>702.39999999999895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B4)</f>
+        <v>815.699999999998</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="2">SUM(C2:C4)</f>
+        <v>1245.4999999999991</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>815.699999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B5)</f>
+        <v>906.99999999999795</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:D14" si="3">SUM(C2:C5)</f>
+        <v>1358.7999999999981</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>906.99999999999795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B6)</f>
+        <v>995.59999999999798</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:D15" si="4">SUM(C2:C6)</f>
+        <v>1450.0999999999981</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>998.29999999999791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B2:B7)</f>
+        <v>1084.199999999998</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:D16" si="5">SUM(C2:C7)</f>
+        <v>1538.399999999998</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>1085.5999999999979</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8219BB0E-3807-45E0-A80F-E0B818C19BC8}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>517.1</v>
+      </c>
+      <c r="C2">
+        <v>517.1</v>
+      </c>
+      <c r="D2">
+        <v>517.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>133.29999999999899</v>
+      </c>
+      <c r="C3">
+        <v>133.29999999999899</v>
+      </c>
+      <c r="D3">
+        <v>133.29999999999899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>87.299999999999898</v>
+      </c>
+      <c r="C4">
+        <v>87.299999999999898</v>
+      </c>
+      <c r="D4">
+        <v>87.299999999999898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>84.299999999999898</v>
+      </c>
+      <c r="C5">
+        <v>83.699999999999903</v>
+      </c>
+      <c r="D5">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>83.699999999999903</v>
+      </c>
+      <c r="C6">
+        <v>83.699999999999903</v>
+      </c>
+      <c r="D6">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>83.8</v>
+      </c>
+      <c r="C7">
+        <v>83.6</v>
+      </c>
+      <c r="D7">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B2)</f>
+        <v>517.1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D11" si="0">SUM(C2)</f>
+        <v>517.1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>517.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B3)</f>
+        <v>650.39999999999895</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="1">SUM(C2:C3)</f>
+        <v>650.39999999999895</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>650.39999999999895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B4)</f>
+        <v>737.69999999999891</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="2">SUM(C2:C4)</f>
+        <v>737.69999999999891</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>737.69999999999891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B5)</f>
+        <v>821.99999999999886</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:D14" si="3">SUM(C2:C5)</f>
+        <v>821.39999999999884</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>802.99999999999886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B6)</f>
+        <v>905.69999999999879</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:D15" si="4">SUM(C2:C6)</f>
+        <v>905.09999999999877</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>855.29999999999882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B2:B7)</f>
+        <v>989.49999999999875</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:D16" si="5">SUM(C2:C7)</f>
+        <v>988.69999999999879</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>902.59999999999877</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7AB482-EA4D-4C71-8728-1E1AAFF8AFA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE9536-99DE-4CF2-8671-0464E6E01C6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="GeoScenario" sheetId="1" r:id="rId1"/>
-    <sheet name="Bus 57 Random-No Limits" sheetId="2" r:id="rId2"/>
-    <sheet name="Bus57--With Limits" sheetId="3" r:id="rId3"/>
+    <sheet name="Bus57--With Limits" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>timestep</t>
   </si>
@@ -60,6 +59,12 @@
   </si>
   <si>
     <t>No Travel Times</t>
+  </si>
+  <si>
+    <t>Post Processed Nominal</t>
+  </si>
+  <si>
+    <t>Post Processed Damaged</t>
   </si>
 </sst>
 </file>
@@ -1399,503 +1404,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Shift by Shift losses</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> on IEEE Bus 57 without line limits</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Bus 57 Random-No Limits'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RoadFirst</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Bus 57 Random-No Limits'!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>543.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>159.29999999999899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>113.299999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5884-451B-83C5-F609D034D194}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Bus 57 Random-No Limits'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nominal Roads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Bus 57 Random-No Limits'!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>543.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>543.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>159.29999999999899</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113.299999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5884-451B-83C5-F609D034D194}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Bus 57 Random-No Limits'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No Travel Times</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Bus 57 Random-No Limits'!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>543.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>159.29999999999899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>113.299999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.299999999999898</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5884-451B-83C5-F609D034D194}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="557275888"/>
-        <c:axId val="557276544"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="557275888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="557276544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="557276544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="557275888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1976,46 +1484,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2520,509 +1988,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3594,47 +2559,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0D1377-8810-481F-B0EC-9B9F7F93A916}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4279,19 +3203,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8676E6-EE69-4DEF-ADC7-ED125A051ED3}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8219BB0E-3807-45E0-A80F-E0B818C19BC8}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4304,420 +3230,41 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>543.1</v>
-      </c>
-      <c r="C2">
-        <v>543.1</v>
-      </c>
-      <c r="D2">
-        <v>543.1</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>159.29999999999899</v>
-      </c>
-      <c r="C3">
-        <v>543.1</v>
-      </c>
-      <c r="D3">
-        <v>159.29999999999899</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>113.299999999999</v>
-      </c>
-      <c r="C4">
-        <v>159.29999999999899</v>
-      </c>
-      <c r="D4">
-        <v>113.299999999999</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>91.3</v>
-      </c>
-      <c r="C5">
-        <v>113.299999999999</v>
-      </c>
-      <c r="D5">
-        <v>91.3</v>
-      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>88.6</v>
-      </c>
-      <c r="C6">
-        <v>91.3</v>
-      </c>
-      <c r="D6">
-        <v>91.3</v>
-      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
-      </c>
-      <c r="B7">
-        <v>88.6</v>
-      </c>
-      <c r="C7">
-        <v>88.3</v>
-      </c>
-      <c r="D7">
-        <v>87.299999999999898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B2)</f>
-        <v>543.1</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:D11" si="0">SUM(C2)</f>
-        <v>543.1</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>543.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <f>SUM(B2:B3)</f>
-        <v>702.39999999999895</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:D12" si="1">SUM(C2:C3)</f>
-        <v>1086.2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>702.39999999999895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <f>SUM(B2:B4)</f>
-        <v>815.699999999998</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:D13" si="2">SUM(C2:C4)</f>
-        <v>1245.4999999999991</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>815.699999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B2:B5)</f>
-        <v>906.99999999999795</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:D14" si="3">SUM(C2:C5)</f>
-        <v>1358.7999999999981</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
-        <v>906.99999999999795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <f>SUM(B2:B6)</f>
-        <v>995.59999999999798</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:D15" si="4">SUM(C2:C6)</f>
-        <v>1450.0999999999981</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="4"/>
-        <v>998.29999999999791</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <f>SUM(B2:B7)</f>
-        <v>1084.199999999998</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ref="C16:D16" si="5">SUM(C2:C7)</f>
-        <v>1538.399999999998</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="5"/>
-        <v>1085.5999999999979</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8219BB0E-3807-45E0-A80F-E0B818C19BC8}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>517.1</v>
-      </c>
-      <c r="C2">
-        <v>517.1</v>
-      </c>
-      <c r="D2">
-        <v>517.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>133.29999999999899</v>
-      </c>
-      <c r="C3">
-        <v>133.29999999999899</v>
-      </c>
-      <c r="D3">
-        <v>133.29999999999899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>87.299999999999898</v>
-      </c>
-      <c r="C4">
-        <v>87.299999999999898</v>
-      </c>
-      <c r="D4">
-        <v>87.299999999999898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>84.299999999999898</v>
-      </c>
-      <c r="C5">
-        <v>83.699999999999903</v>
-      </c>
-      <c r="D5">
-        <v>65.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>83.699999999999903</v>
-      </c>
-      <c r="C6">
-        <v>83.699999999999903</v>
-      </c>
-      <c r="D6">
-        <v>52.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>83.8</v>
-      </c>
-      <c r="C7">
-        <v>83.6</v>
-      </c>
-      <c r="D7">
-        <v>47.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B2)</f>
-        <v>517.1</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:D11" si="0">SUM(C2)</f>
-        <v>517.1</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>517.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <f>SUM(B2:B3)</f>
-        <v>650.39999999999895</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:D12" si="1">SUM(C2:C3)</f>
-        <v>650.39999999999895</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>650.39999999999895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <f>SUM(B2:B4)</f>
-        <v>737.69999999999891</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:D13" si="2">SUM(C2:C4)</f>
-        <v>737.69999999999891</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>737.69999999999891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B2:B5)</f>
-        <v>821.99999999999886</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:D14" si="3">SUM(C2:C5)</f>
-        <v>821.39999999999884</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
-        <v>802.99999999999886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <f>SUM(B2:B6)</f>
-        <v>905.69999999999879</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:D15" si="4">SUM(C2:C6)</f>
-        <v>905.09999999999877</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="4"/>
-        <v>855.29999999999882</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <f>SUM(B2:B7)</f>
-        <v>989.49999999999875</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ref="C16:D16" si="5">SUM(C2:C7)</f>
-        <v>988.69999999999879</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="5"/>
-        <v>902.59999999999877</v>
       </c>
     </row>
   </sheetData>

--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE9536-99DE-4CF2-8671-0464E6E01C6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72FA9FD-BA5E-42DC-814B-9515DEE05296}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
@@ -3204,10 +3204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8219BB0E-3807-45E0-A80F-E0B818C19BC8}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,30 +3241,72 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>517.1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>133.29999999999899</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>87.299999999999898</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="D7">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>25.799999999999901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>

--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72FA9FD-BA5E-42DC-814B-9515DEE05296}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36355AC7-2576-40A2-8133-0FC307096F3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
@@ -3207,7 +3207,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,6 +3244,9 @@
       <c r="D2">
         <v>517.1</v>
       </c>
+      <c r="E2">
+        <v>517.1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3252,6 +3255,9 @@
       <c r="D3">
         <v>133.29999999999899</v>
       </c>
+      <c r="E3">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3260,6 +3266,9 @@
       <c r="D4">
         <v>87.299999999999898</v>
       </c>
+      <c r="E4">
+        <v>133.30000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3268,6 +3277,9 @@
       <c r="D5">
         <v>65.3</v>
       </c>
+      <c r="E5">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3276,6 +3288,9 @@
       <c r="D6">
         <v>65.3</v>
       </c>
+      <c r="E6">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3284,6 +3299,9 @@
       <c r="D7">
         <v>38.799999999999997</v>
       </c>
+      <c r="E7">
+        <v>65.3</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3292,6 +3310,9 @@
       <c r="D8">
         <v>25.799999999999901</v>
       </c>
+      <c r="E8">
+        <v>38.799999999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3300,6 +3321,9 @@
       <c r="D9">
         <v>20.5</v>
       </c>
+      <c r="E9">
+        <v>29.4</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3307,6 +3331,9 @@
       </c>
       <c r="D10">
         <v>15.5</v>
+      </c>
+      <c r="E10">
+        <v>24.4</v>
       </c>
     </row>
   </sheetData>

--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36355AC7-2576-40A2-8133-0FC307096F3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1B5C1F-66C4-4E04-AAC8-AA6F1503A1B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
-    <sheet name="GeoScenario" sheetId="1" r:id="rId1"/>
+    <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
     <sheet name="Bus57--With Limits" sheetId="3" r:id="rId2"/>
+    <sheet name="Bus 30 Scenario 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,24 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>timestep</t>
-  </si>
-  <si>
-    <t>RoadFirst</t>
-  </si>
-  <si>
-    <t>Damaged Roads</t>
-  </si>
-  <si>
-    <t>Repaired Roads</t>
-  </si>
-  <si>
-    <t>Pure Schedule</t>
-  </si>
-  <si>
-    <t>PostProcessed Schedule</t>
   </si>
   <si>
     <t>Summed</t>
@@ -58,13 +45,43 @@
     <t>Nominal Roads</t>
   </si>
   <si>
-    <t>No Travel Times</t>
+    <t>Post Processed with Nominal Roads</t>
   </si>
   <si>
-    <t>Post Processed Nominal</t>
+    <t>No Travel Times Pure Scheduling</t>
   </si>
   <si>
-    <t>Post Processed Damaged</t>
+    <t>Power Repair Conditioned on Road Repair</t>
+  </si>
+  <si>
+    <t>Statically Samaged Roads</t>
+  </si>
+  <si>
+    <t>Power Repair with Nominal Roads</t>
+  </si>
+  <si>
+    <t>No Travel Time Pure Schedule</t>
+  </si>
+  <si>
+    <t>PostProcessed Schedule with Nominal Roads</t>
+  </si>
+  <si>
+    <t>damaged Roads</t>
+  </si>
+  <si>
+    <t>Power Repair Conditional on Road Repair</t>
+  </si>
+  <si>
+    <t>Discrete</t>
+  </si>
+  <si>
+    <t>Continuous w/o node flow</t>
+  </si>
+  <si>
+    <t>Continuous w/ node flow limits</t>
+  </si>
+  <si>
+    <t>tightened line limits</t>
   </si>
 </sst>
 </file>
@@ -156,6 +173,11 @@
               <a:rPr lang="en-US"/>
               <a:t>Load Shed by Step</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in the 30 Bus Case</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -199,11 +221,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>GeoScenario!$B$1</c:f>
+              <c:f>'Bus 30'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RoadFirst</c:v>
+                  <c:v>Power Repair Conditioned on Road Repair</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -234,7 +256,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GeoScenario!$B$2:$B$8</c:f>
+              <c:f>'Bus 30'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -271,11 +293,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>GeoScenario!$C$1</c:f>
+              <c:f>'Bus 30'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Damaged Roads</c:v>
+                  <c:v>Statically Samaged Roads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -306,7 +328,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GeoScenario!$C$2:$C$8</c:f>
+              <c:f>'Bus 30'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -343,11 +365,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>GeoScenario!$D$1</c:f>
+              <c:f>'Bus 30'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Repaired Roads</c:v>
+                  <c:v>Power Repair with Nominal Roads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -378,7 +400,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GeoScenario!$D$2:$D$8</c:f>
+              <c:f>'Bus 30'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -418,11 +440,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>GeoScenario!$E$1</c:f>
+              <c:f>'Bus 30'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pure Schedule</c:v>
+                  <c:v>No Travel Time Pure Schedule</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -453,7 +475,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GeoScenario!$E$2:$E$8</c:f>
+              <c:f>'Bus 30'!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -490,11 +512,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>GeoScenario!$F$1</c:f>
+              <c:f>'Bus 30'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PostProcessed Schedule</c:v>
+                  <c:v>PostProcessed Schedule with Nominal Roads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -525,7 +547,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GeoScenario!$F$2:$F$8</c:f>
+              <c:f>'Bus 30'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -580,6 +602,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shift Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -644,6 +721,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MW of Load Shed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -847,11 +979,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>GeoScenario!$B$1</c:f>
+              <c:f>'Bus 30'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RoadFirst</c:v>
+                  <c:v>Power Repair Conditioned on Road Repair</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -882,7 +1014,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GeoScenario!$B$11:$B$16</c:f>
+              <c:f>'Bus 30'!$B$11:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -919,11 +1051,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>GeoScenario!$C$1</c:f>
+              <c:f>'Bus 30'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Damaged Roads</c:v>
+                  <c:v>Statically Samaged Roads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -954,7 +1086,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GeoScenario!$C$11:$C$16</c:f>
+              <c:f>'Bus 30'!$C$11:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -991,11 +1123,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>GeoScenario!$D$1</c:f>
+              <c:f>'Bus 30'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Repaired Roads</c:v>
+                  <c:v>Power Repair with Nominal Roads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1026,7 +1158,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GeoScenario!$D$11:$D$16</c:f>
+              <c:f>'Bus 30'!$D$11:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1063,11 +1195,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>GeoScenario!$E$1</c:f>
+              <c:f>'Bus 30'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pure Schedule</c:v>
+                  <c:v>No Travel Time Pure Schedule</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1098,7 +1230,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GeoScenario!$E$11:$E$16</c:f>
+              <c:f>'Bus 30'!$E$11:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1135,11 +1267,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>GeoScenario!$F$1</c:f>
+              <c:f>'Bus 30'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PostProcessed Schedule</c:v>
+                  <c:v>PostProcessed Schedule with Nominal Roads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1170,7 +1302,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>GeoScenario!$F$11:$F$16</c:f>
+              <c:f>'Bus 30'!$F$11:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1404,6 +1536,1854 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bus57--With Limits'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power Repair Conditional on Road Repair</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>517.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADEE-4F11-BD5F-B460814AC71F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bus57--With Limits'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Travel Times Pure Scheduling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>517.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133.29999999999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.299999999999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADEE-4F11-BD5F-B460814AC71F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bus57--With Limits'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Post Processed with Nominal Roads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>517.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-ADEE-4F11-BD5F-B460814AC71F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="554326544"/>
+        <c:axId val="562441752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="554326544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562441752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562441752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554326544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Loss</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> over time on the 57 Bus Case</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bus57--With Limits'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power Repair Conditional on Road Repair</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>517.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADEE-4F11-BD5F-B460814AC71F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bus57--With Limits'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nominal Roads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>517.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133.29999999999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.299999999999898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADEE-4F11-BD5F-B460814AC71F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bus57--With Limits'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Travel Times Pure Scheduling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>517.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133.29999999999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.299999999999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.799999999999901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-ADEE-4F11-BD5F-B460814AC71F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bus57--With Limits'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Post Processed with Nominal Roads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>517.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4D3-4CBC-B9D1-89456EABB673}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bus57--With Limits'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>damaged Roads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>517.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.19999999999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.299999999999898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6019-48EF-BDBA-654E0B11B337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="554326544"/>
+        <c:axId val="562441752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="554326544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shift</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562441752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562441752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MW</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Demand Shed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554326544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2D2-43EB-BE49-8473906F9A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>118.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2D2-43EB-BE49-8473906F9A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>111.399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.299999999999898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D2D2-43EB-BE49-8473906F9A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87.299999999999898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D2D2-43EB-BE49-8473906F9A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>133.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D2D2-43EB-BE49-8473906F9A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bus57--With Limits'!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>118.19999999999899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.299999999999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D2D2-43EB-BE49-8473906F9A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="549520152"/>
+        <c:axId val="549520808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="549520152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549520808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="549520808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549520152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1484,6 +3464,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2490,20 +4590,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2530,16 +6139,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2559,6 +6168,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDD6C88-B638-4A81-B577-8A9E68604FD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>436562</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7196844-2444-4C21-8267-1EBC764F765F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1956CACA-1FFD-4A71-9079-83CE8F772D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2864,18 +6586,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FEBF82-81C8-4A41-8184-BAB1DED90955}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2883,19 +6606,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3028,12 +6751,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9">
-        <v>0</v>
+        <f>SUM(F2:F8)</f>
+        <v>420.2000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3186,7 +6910,7 @@
         <v>409.60000000000008</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D17">
         <f>SUM(D2:D8)</f>
         <v>539.5</v>
@@ -3194,6 +6918,12 @@
       <c r="F17">
         <f>SUM(F2:F8)</f>
         <v>420.2000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>B16/E16</f>
+        <v>1.0356108859293571</v>
       </c>
     </row>
   </sheetData>
@@ -3204,14 +6934,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8219BB0E-3807-45E0-A80F-E0B818C19BC8}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -3222,16 +6953,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -3241,10 +6972,19 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>517.1</v>
+      </c>
+      <c r="C2">
+        <v>517.1</v>
+      </c>
       <c r="D2">
         <v>517.1</v>
       </c>
       <c r="E2">
+        <v>517.1</v>
+      </c>
+      <c r="F2">
         <v>517.1</v>
       </c>
     </row>
@@ -3252,10 +6992,19 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>140.1</v>
+      </c>
+      <c r="C3">
+        <v>133.29999999999899</v>
+      </c>
       <c r="D3">
         <v>133.29999999999899</v>
       </c>
       <c r="E3">
+        <v>140.1</v>
+      </c>
+      <c r="F3">
         <v>140.1</v>
       </c>
     </row>
@@ -3263,43 +7012,79 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>118.1</v>
+      </c>
+      <c r="C4">
+        <v>111.399999999999</v>
+      </c>
       <c r="D4">
         <v>87.299999999999898</v>
       </c>
       <c r="E4">
         <v>133.30000000000001</v>
+      </c>
+      <c r="F4">
+        <v>118.19999999999899</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>96.2</v>
+      </c>
+      <c r="C5">
+        <v>87.299999999999898</v>
+      </c>
       <c r="D5">
         <v>65.3</v>
       </c>
       <c r="E5">
         <v>87.3</v>
+      </c>
+      <c r="F5">
+        <v>96.2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>65.3</v>
+      </c>
+      <c r="C6">
+        <v>65.3</v>
+      </c>
       <c r="D6">
         <v>65.3</v>
       </c>
       <c r="E6">
         <v>65.3</v>
+      </c>
+      <c r="F6">
+        <v>87.299999999999898</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>65.3</v>
+      </c>
+      <c r="C7">
+        <v>52.3</v>
+      </c>
       <c r="D7">
         <v>38.799999999999997</v>
       </c>
       <c r="E7">
+        <v>65.3</v>
+      </c>
+      <c r="F7">
         <v>65.3</v>
       </c>
     </row>
@@ -3334,6 +7119,352 @@
       </c>
       <c r="E10">
         <v>24.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" ref="B11:E11" si="0">SUM(B2:B7)</f>
+        <v>1002.1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>966.69999999999777</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>907.09999999999877</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1008.3999999999999</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F7)</f>
+        <v>1024.1999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B361CE4-9FB9-4968-BD88-72584EBD2BB8}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>221.69999999999899</v>
+      </c>
+      <c r="C2">
+        <v>221.69999999999899</v>
+      </c>
+      <c r="D2">
+        <v>221.7</v>
+      </c>
+      <c r="E2">
+        <v>221.69999999999899</v>
+      </c>
+      <c r="F2">
+        <v>221.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>104.7</v>
+      </c>
+      <c r="C3">
+        <v>104.7</v>
+      </c>
+      <c r="D3">
+        <v>221.69999999999899</v>
+      </c>
+      <c r="E3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F3">
+        <v>221.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>83.8</v>
+      </c>
+      <c r="C4">
+        <v>83.8</v>
+      </c>
+      <c r="D4">
+        <v>83.8</v>
+      </c>
+      <c r="E4">
+        <v>49.099999999999902</v>
+      </c>
+      <c r="F4">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60.5</v>
+      </c>
+      <c r="C5">
+        <v>74.8</v>
+      </c>
+      <c r="D5">
+        <v>60.5</v>
+      </c>
+      <c r="E5">
+        <v>39.599999999999902</v>
+      </c>
+      <c r="F5">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>49.099999999999902</v>
+      </c>
+      <c r="C6">
+        <v>74.8</v>
+      </c>
+      <c r="D6">
+        <v>49.099999999999902</v>
+      </c>
+      <c r="E6">
+        <v>30.6</v>
+      </c>
+      <c r="F6">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>39.599999999999902</v>
+      </c>
+      <c r="C7">
+        <v>74.8</v>
+      </c>
+      <c r="D7">
+        <v>39.599999999999902</v>
+      </c>
+      <c r="E7">
+        <v>27.4</v>
+      </c>
+      <c r="F7">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>559.39999999999884</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:F8" si="0">SUM(C2:C7)</f>
+        <v>634.599999999999</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>676.39999999999873</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>443.99999999999881</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>635.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBE892F-7ACA-4E49-8EEA-B80ED9C43321}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>221.69999999999899</v>
+      </c>
+      <c r="C2">
+        <v>221.69999999999899</v>
+      </c>
+      <c r="D2">
+        <v>221.69999999999899</v>
+      </c>
+      <c r="E2">
+        <v>221.69999999999899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="C3">
+        <v>104.7</v>
+      </c>
+      <c r="D3">
+        <v>92.500003976943304</v>
+      </c>
+      <c r="E3">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="C4">
+        <v>83.8</v>
+      </c>
+      <c r="D4">
+        <v>83.799992687555701</v>
+      </c>
+      <c r="E4">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>34.999994945919099</v>
+      </c>
+      <c r="C5">
+        <v>60.5</v>
+      </c>
+      <c r="D5">
+        <v>60.499992687555697</v>
+      </c>
+      <c r="E5">
+        <v>60.499819331823701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>23.599998993564501</v>
+      </c>
+      <c r="C6">
+        <v>49.099999999999902</v>
+      </c>
+      <c r="D6">
+        <v>49.099994227017604</v>
+      </c>
+      <c r="E6">
+        <v>49.099999999999902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>14.899999052022</v>
+      </c>
+      <c r="C7">
+        <v>39.599999999999902</v>
+      </c>
+      <c r="D7">
+        <v>39.599994227017604</v>
+      </c>
+      <c r="E7">
+        <v>40.1</v>
       </c>
     </row>
   </sheetData>

--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1B5C1F-66C4-4E04-AAC8-AA6F1503A1B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8528205-3A07-4703-8E13-2BFE460515DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="33495" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>timestep</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>tightened line limits</t>
+  </si>
+  <si>
+    <t>With Resilience</t>
   </si>
 </sst>
 </file>
@@ -6586,10 +6589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FEBF82-81C8-4A41-8184-BAB1DED90955}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6910,7 +6913,7 @@
         <v>409.60000000000008</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17">
         <f>SUM(D2:D8)</f>
         <v>539.5</v>
@@ -6920,10 +6923,48 @@
         <v>420.2000000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>93.5</v>
+      </c>
       <c r="C20">
         <f>B16/E16</f>
         <v>1.0356108859293571</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>69.899999999999906</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>37.699999999999903</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7151,15 +7192,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B361CE4-9FB9-4968-BD88-72584EBD2BB8}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
@@ -7329,6 +7370,41 @@
         <v>635.1</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>221.69999999999899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>40.099999999999902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7338,7 +7414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBE892F-7ACA-4E49-8EEA-B80ED9C43321}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>

--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8528205-3A07-4703-8E13-2BFE460515DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BBE01-25BA-45E9-A9DF-A13076C44E8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33495" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>timestep</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>With Resilience</t>
+  </si>
+  <si>
+    <t>Baseline Case</t>
+  </si>
+  <si>
+    <t>Baseline with Resilience</t>
+  </si>
+  <si>
+    <t>Rand Case 1</t>
+  </si>
+  <si>
+    <t>Rand Case 2</t>
+  </si>
+  <si>
+    <t>Rand Case 3</t>
   </si>
 </sst>
 </file>
@@ -6591,7 +6606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FEBF82-81C8-4A41-8184-BAB1DED90955}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -7192,10 +7207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B361CE4-9FB9-4968-BD88-72584EBD2BB8}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7206,9 +7221,10 @@
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7228,7 +7244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7248,7 +7264,7 @@
         <v>221.7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7268,7 +7284,7 @@
         <v>221.7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7288,7 +7304,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7308,7 +7324,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7328,7 +7344,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7348,7 +7364,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>SUM(B2:B7)</f>
         <v>559.39999999999884</v>
@@ -7370,39 +7386,167 @@
         <v>635.1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>221.69999999999899</v>
       </c>
+      <c r="E12">
+        <v>221.69999999999899</v>
+      </c>
+      <c r="F12">
+        <v>253.39999999999901</v>
+      </c>
+      <c r="G12">
+        <v>253.39999999999901</v>
+      </c>
+      <c r="H12">
+        <v>283.39999999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>90</v>
       </c>
+      <c r="E13">
+        <v>90</v>
+      </c>
+      <c r="F13">
+        <v>219.69999999999899</v>
+      </c>
+      <c r="G13">
+        <v>231.69999999999899</v>
+      </c>
+      <c r="H13">
+        <v>262.2</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>81</v>
       </c>
+      <c r="E14">
+        <v>66.7</v>
+      </c>
+      <c r="F14">
+        <v>81</v>
+      </c>
+      <c r="G14">
+        <v>90.1</v>
+      </c>
+      <c r="H14">
+        <v>123.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>57.7</v>
       </c>
+      <c r="E15">
+        <v>60.5</v>
+      </c>
+      <c r="F15">
+        <v>60.2</v>
+      </c>
+      <c r="G15">
+        <v>73</v>
+      </c>
+      <c r="H15">
+        <v>93.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>51.5</v>
       </c>
+      <c r="E16">
+        <v>49.099999999999902</v>
+      </c>
+      <c r="F16">
+        <v>42.7</v>
+      </c>
+      <c r="G16">
+        <v>46.8</v>
+      </c>
+      <c r="H16">
+        <v>64.2</v>
+      </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>40.099999999999902</v>
+      </c>
+      <c r="E17">
+        <v>39.599999999999902</v>
+      </c>
+      <c r="F17">
+        <v>25.2</v>
+      </c>
+      <c r="G17">
+        <v>40.599999999999902</v>
+      </c>
+      <c r="H17">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>221.69999999999899</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>49.099999999999902</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>39.599999999999902</v>
       </c>
     </row>
   </sheetData>

--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BBE01-25BA-45E9-A9DF-A13076C44E8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D581272-2E38-4ACC-B591-18607A1EBA7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
     <sheet name="Bus57--With Limits" sheetId="3" r:id="rId2"/>
     <sheet name="Bus 30 Scenario 2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Resilience1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>timestep</t>
   </si>
@@ -100,6 +101,12 @@
   </si>
   <si>
     <t>Rand Case 3</t>
+  </si>
+  <si>
+    <t>"optimal" resilience for 1 node and 3 edges</t>
+  </si>
+  <si>
+    <t>Time Steps</t>
   </si>
 </sst>
 </file>
@@ -7209,7 +7216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B361CE4-9FB9-4968-BD88-72584EBD2BB8}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
@@ -7690,4 +7697,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B5923C-FB1B-462C-A67F-839D1BF542D0}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>231.69999999999899</v>
+      </c>
+      <c r="C3">
+        <v>231.69999999999899</v>
+      </c>
+      <c r="D3">
+        <v>261.69999999999902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>104.7</v>
+      </c>
+      <c r="C4">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>35.4</v>
+      </c>
+      <c r="C5">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="D5">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>35.4</v>
+      </c>
+      <c r="C6">
+        <v>40.099999999999902</v>
+      </c>
+      <c r="D6">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>35.4</v>
+      </c>
+      <c r="C7">
+        <v>24.2</v>
+      </c>
+      <c r="D7">
+        <v>38.199999999999903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>35.4</v>
+      </c>
+      <c r="C8">
+        <v>24.2</v>
+      </c>
+      <c r="D8">
+        <v>25.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D581272-2E38-4ACC-B591-18607A1EBA7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBC4B62-C83D-499A-AEEE-E57F01757641}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="34875" yWindow="3285" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Bus 30 Scenario 2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
     <sheet name="Resilience1" sheetId="6" r:id="rId5"/>
+    <sheet name="Resilience12" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>timestep</t>
   </si>
@@ -107,6 +108,15 @@
   </si>
   <si>
     <t>Time Steps</t>
+  </si>
+  <si>
+    <t>Random Resilience on same data</t>
+  </si>
+  <si>
+    <t>Optimal Resilience</t>
+  </si>
+  <si>
+    <t>Random Resilience</t>
   </si>
 </sst>
 </file>
@@ -7701,15 +7711,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B5923C-FB1B-462C-A67F-839D1BF542D0}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7721,80 +7731,515 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>231.69999999999899</v>
       </c>
       <c r="C3">
-        <v>231.69999999999899</v>
+        <v>253.39999999999901</v>
       </c>
       <c r="D3">
-        <v>261.69999999999902</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>104.7</v>
+        <v>124.1</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>129.9</v>
       </c>
       <c r="D4">
-        <v>134.69999999999999</v>
+        <v>53.099999999999902</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>35.4</v>
+        <v>18.7</v>
       </c>
       <c r="C5">
-        <v>75.099999999999994</v>
+        <v>129.9</v>
       </c>
       <c r="D5">
-        <v>93.7</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>35.4</v>
+        <v>15.2</v>
       </c>
       <c r="C6">
-        <v>40.099999999999902</v>
+        <v>124.1</v>
       </c>
       <c r="D6">
-        <v>63.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>35.4</v>
+        <v>15.2</v>
       </c>
       <c r="C7">
-        <v>24.2</v>
+        <v>124.1</v>
       </c>
       <c r="D7">
-        <v>38.199999999999903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>35.4</v>
+        <v>15.2</v>
       </c>
       <c r="C8">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>25.5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>231.69999999999899</v>
+      </c>
+      <c r="C11">
+        <v>253.39999999999901</v>
+      </c>
+      <c r="D11">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>124.1</v>
+      </c>
+      <c r="C12">
+        <v>253.39999999999901</v>
+      </c>
+      <c r="D12">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>16.3</v>
+      </c>
+      <c r="C13">
+        <v>253.39999999999901</v>
+      </c>
+      <c r="D13">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12.8</v>
+      </c>
+      <c r="C14">
+        <v>38.699999999999903</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12.8</v>
+      </c>
+      <c r="C15">
+        <v>2.4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12.8</v>
+      </c>
+      <c r="C16">
+        <v>2.4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946CCB79-A94E-4848-8DCC-31F38FA0F6DB}">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>250.99999999999901</v>
+      </c>
+      <c r="C2">
+        <v>283.39999999999998</v>
+      </c>
+      <c r="D2">
+        <v>107.1</v>
+      </c>
+      <c r="E2">
+        <v>283.39999999999998</v>
+      </c>
+      <c r="F2">
+        <v>259.29999999999899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>55.8</v>
+      </c>
+      <c r="C3">
+        <v>137</v>
+      </c>
+      <c r="D3">
+        <v>37.6</v>
+      </c>
+      <c r="E3">
+        <v>99.2</v>
+      </c>
+      <c r="F3">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>14.1</v>
+      </c>
+      <c r="C4">
+        <v>84.2</v>
+      </c>
+      <c r="D4">
+        <v>22.4</v>
+      </c>
+      <c r="E4">
+        <v>60.5</v>
+      </c>
+      <c r="F4">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>39.599999999999902</v>
+      </c>
+      <c r="F5">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>26.299999999999901</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>18.7</v>
+      </c>
+      <c r="F6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>12.8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>SUM(A2:A8)</f>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:Q9" si="0">SUM(B2:B8)</f>
+        <v>320.89999999999901</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>588.89999999999986</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>174.1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>516.39999999999986</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>391.69999999999891</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>250.99999999999901</v>
+      </c>
+      <c r="C12">
+        <v>283.39999999999998</v>
+      </c>
+      <c r="D12">
+        <v>137.5</v>
+      </c>
+      <c r="E12">
+        <v>283.39999999999998</v>
+      </c>
+      <c r="F12">
+        <v>261.69999999999902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>74.8</v>
+      </c>
+      <c r="C13">
+        <v>137</v>
+      </c>
+      <c r="D13">
+        <v>31.6999999999999</v>
+      </c>
+      <c r="E13">
+        <v>99.2</v>
+      </c>
+      <c r="F13">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10.6</v>
+      </c>
+      <c r="C14">
+        <v>84.2</v>
+      </c>
+      <c r="D14">
+        <v>16.5</v>
+      </c>
+      <c r="E14">
+        <v>60.5</v>
+      </c>
+      <c r="F14">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>3.5</v>
+      </c>
+      <c r="E15">
+        <v>39.599999999999902</v>
+      </c>
+      <c r="F15">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>26.299999999999901</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>18.7</v>
+      </c>
+      <c r="F16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>12.8</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>SUM(A11:A17)</f>
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B11:B18)</f>
+        <v>336.39999999999901</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C11:C18)</f>
+        <v>588.89999999999986</v>
+      </c>
+      <c r="D19">
+        <f>SUM(D11:D18)</f>
+        <v>189.1999999999999</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E11:E18)</f>
+        <v>516.39999999999986</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19" si="1">SUM(F11:F17)</f>
+        <v>426.19999999999897</v>
       </c>
     </row>
   </sheetData>

--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBC4B62-C83D-499A-AEEE-E57F01757641}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{500A55C8-4975-4B91-8B0C-3BBF194FF666}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34875" yWindow="3285" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" firstSheet="2" activeTab="7" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,11 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
     <sheet name="Resilience1" sheetId="6" r:id="rId5"/>
     <sheet name="Resilience12" sheetId="7" r:id="rId6"/>
+    <sheet name="MST vs Routing" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="182">
   <si>
     <t>timestep</t>
   </si>
@@ -117,6 +120,471 @@
   </si>
   <si>
     <t>Random Resilience</t>
+  </si>
+  <si>
+    <t>Routing on Geographic</t>
+  </si>
+  <si>
+    <t>Runtime: 639 sec to 3% gap</t>
+  </si>
+  <si>
+    <t>['L', 18, 0]</t>
+  </si>
+  <si>
+    <t>['L', 23, 0]</t>
+  </si>
+  <si>
+    <t>['L', 32, 1]</t>
+  </si>
+  <si>
+    <t>['L', 17, 2]</t>
+  </si>
+  <si>
+    <t>['L', 29, 2]</t>
+  </si>
+  <si>
+    <t>['L', 34, 2]</t>
+  </si>
+  <si>
+    <t>['L', 36, 2]</t>
+  </si>
+  <si>
+    <t>['L', 39, 2]</t>
+  </si>
+  <si>
+    <t>['N', 17, 3]</t>
+  </si>
+  <si>
+    <t>['N', 18, 3]</t>
+  </si>
+  <si>
+    <t>['N', 2, 4]</t>
+  </si>
+  <si>
+    <t>['N', 19, 4]</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>['N', 4, 0]</t>
+  </si>
+  <si>
+    <t>['N', 9, 1]</t>
+  </si>
+  <si>
+    <t>['L', 18, 1]</t>
+  </si>
+  <si>
+    <t>['L', 26, 1]</t>
+  </si>
+  <si>
+    <t>['N', 20, 2]</t>
+  </si>
+  <si>
+    <t>['L', 24, 2]</t>
+  </si>
+  <si>
+    <t>['L', 32, 2]</t>
+  </si>
+  <si>
+    <t>['N', 14, 3]</t>
+  </si>
+  <si>
+    <t>['N', 29, 3]</t>
+  </si>
+  <si>
+    <t>['N', 21, 4]</t>
+  </si>
+  <si>
+    <t>['L', 2, 4]</t>
+  </si>
+  <si>
+    <t>Random Scenario</t>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>15s to 3% gap</t>
+  </si>
+  <si>
+    <t>488s to 3% gap</t>
+  </si>
+  <si>
+    <t>['L', 3, 0]</t>
+  </si>
+  <si>
+    <t>['N', 15, 1]</t>
+  </si>
+  <si>
+    <t>['L', 17, 1]</t>
+  </si>
+  <si>
+    <t>['L', 24, 1]</t>
+  </si>
+  <si>
+    <t>['N', 7, 2]</t>
+  </si>
+  <si>
+    <t>['N', 23, 3]</t>
+  </si>
+  <si>
+    <t>['N', 24, 4]</t>
+  </si>
+  <si>
+    <t>['L', 20, 4]</t>
+  </si>
+  <si>
+    <t>['L', 35, 4]</t>
+  </si>
+  <si>
+    <t>['L', 24, 0]</t>
+  </si>
+  <si>
+    <t>['N', 7, 1]</t>
+  </si>
+  <si>
+    <t>['L', 8, 1]</t>
+  </si>
+  <si>
+    <t>['L', 35, 1]</t>
+  </si>
+  <si>
+    <t>['N', 23, 2]</t>
+  </si>
+  <si>
+    <t>['L', 30, 2]</t>
+  </si>
+  <si>
+    <t>['N', 15, 4]</t>
+  </si>
+  <si>
+    <t>['L', 30, 0]</t>
+  </si>
+  <si>
+    <t>['N', 18, 2]</t>
+  </si>
+  <si>
+    <t>['N', 24, 3]</t>
+  </si>
+  <si>
+    <t>['N', 14, 1]</t>
+  </si>
+  <si>
+    <t>['L', 29, 1]</t>
+  </si>
+  <si>
+    <t>['N', 9, 2]</t>
+  </si>
+  <si>
+    <t>['N', 21, 3]</t>
+  </si>
+  <si>
+    <t>['L', 26, 3]</t>
+  </si>
+  <si>
+    <t>['N', 29, 4]</t>
+  </si>
+  <si>
+    <t>['L', 25, 4]</t>
+  </si>
+  <si>
+    <t>25s to 3% gap</t>
+  </si>
+  <si>
+    <t>57 Bus Scenario</t>
+  </si>
+  <si>
+    <t>['N', 7, 0]</t>
+  </si>
+  <si>
+    <t>['L', 1, 0]</t>
+  </si>
+  <si>
+    <t>['L', 2, 0]</t>
+  </si>
+  <si>
+    <t>['L', 48, 0]</t>
+  </si>
+  <si>
+    <t>['L', 58, 0]</t>
+  </si>
+  <si>
+    <t>['L', 60, 0]</t>
+  </si>
+  <si>
+    <t>['N', 35, 1]</t>
+  </si>
+  <si>
+    <t>['L', 3, 1]</t>
+  </si>
+  <si>
+    <t>['L', 4, 1]</t>
+  </si>
+  <si>
+    <t>['L', 77, 1]</t>
+  </si>
+  <si>
+    <t>['N', 15, 2]</t>
+  </si>
+  <si>
+    <t>['L', 26, 2]</t>
+  </si>
+  <si>
+    <t>['L', 44, 2]</t>
+  </si>
+  <si>
+    <t>['L', 45, 2]</t>
+  </si>
+  <si>
+    <t>['L', 74, 2]</t>
+  </si>
+  <si>
+    <t>['N', 39, 3]</t>
+  </si>
+  <si>
+    <t>['N', 55, 3]</t>
+  </si>
+  <si>
+    <t>['L', 54, 3]</t>
+  </si>
+  <si>
+    <t>['N', 17, 4]</t>
+  </si>
+  <si>
+    <t>['L', 9, 4]</t>
+  </si>
+  <si>
+    <t>['N', 38, 5]</t>
+  </si>
+  <si>
+    <t>[35, 55, 1.0]</t>
+  </si>
+  <si>
+    <t>[39, 34, 1.0]</t>
+  </si>
+  <si>
+    <t>4328s to 3%</t>
+  </si>
+  <si>
+    <t>Scenario 1 (geographic)</t>
+  </si>
+  <si>
+    <t>['N', 9, 0]</t>
+  </si>
+  <si>
+    <t>['L', 23, 1]</t>
+  </si>
+  <si>
+    <t>['L', 2, 2]</t>
+  </si>
+  <si>
+    <t>['L', 8, 2]</t>
+  </si>
+  <si>
+    <t>['L', 30, 3]</t>
+  </si>
+  <si>
+    <t>Road First</t>
+  </si>
+  <si>
+    <t>No Road Damage</t>
+  </si>
+  <si>
+    <t>No Road Repair</t>
+  </si>
+  <si>
+    <t>['N', 29, 2]</t>
+  </si>
+  <si>
+    <t>['L', 32, 3]</t>
+  </si>
+  <si>
+    <t>['L', 8, 4]</t>
+  </si>
+  <si>
+    <t>['L', 2, 3]</t>
+  </si>
+  <si>
+    <t>['L', 8, 3]</t>
+  </si>
+  <si>
+    <t>['L', 18, 3]</t>
+  </si>
+  <si>
+    <t>Scenario 2(Random)</t>
+  </si>
+  <si>
+    <t>Scenario 3(IISE)</t>
+  </si>
+  <si>
+    <t>['L', 17, 0]</t>
+  </si>
+  <si>
+    <t>['N', 23, 1]</t>
+  </si>
+  <si>
+    <t>['N', 24, 1]</t>
+  </si>
+  <si>
+    <t>['L', 20, 2]</t>
+  </si>
+  <si>
+    <t>['N', 15, 3]</t>
+  </si>
+  <si>
+    <t>['L', 14, 3]</t>
+  </si>
+  <si>
+    <t>no travel time</t>
+  </si>
+  <si>
+    <t>no travel</t>
+  </si>
+  <si>
+    <t>no roads</t>
+  </si>
+  <si>
+    <t>Damaged Roads</t>
+  </si>
+  <si>
+    <t>no road repair</t>
+  </si>
+  <si>
+    <t>Scenario4 (57 bus)</t>
+  </si>
+  <si>
+    <t>no road damage</t>
+  </si>
+  <si>
+    <t>damaged roads</t>
+  </si>
+  <si>
+    <t>['N', 14, 0]</t>
+  </si>
+  <si>
+    <t>['N', 20, 1]</t>
+  </si>
+  <si>
+    <t>['N', 21, 2]</t>
+  </si>
+  <si>
+    <t>['L', 25, 3]</t>
+  </si>
+  <si>
+    <t>N,4,0</t>
+  </si>
+  <si>
+    <t>L,23,0</t>
+  </si>
+  <si>
+    <t>L,24,0</t>
+  </si>
+  <si>
+    <t>Post Processed</t>
+  </si>
+  <si>
+    <t>N,20,1</t>
+  </si>
+  <si>
+    <t>L,29,1</t>
+  </si>
+  <si>
+    <t>L,26,1</t>
+  </si>
+  <si>
+    <t>N,14,2</t>
+  </si>
+  <si>
+    <t>N,21,3</t>
+  </si>
+  <si>
+    <t>L,32,3</t>
+  </si>
+  <si>
+    <t>L,2,3</t>
+  </si>
+  <si>
+    <t>N,29,4</t>
+  </si>
+  <si>
+    <t>L,25,4</t>
+  </si>
+  <si>
+    <t>L,18,4</t>
+  </si>
+  <si>
+    <t>N,9,5</t>
+  </si>
+  <si>
+    <t>L,8,5</t>
+  </si>
+  <si>
+    <t>['L', 2, 1]</t>
+  </si>
+  <si>
+    <t>['L', 30, 1]</t>
+  </si>
+  <si>
+    <t>['L', 35, 3]</t>
+  </si>
+  <si>
+    <t>['N', 24, 2]</t>
+  </si>
+  <si>
+    <t>['L', 17, 3]</t>
+  </si>
+  <si>
+    <t>['L', 24, 3]</t>
+  </si>
+  <si>
+    <t>N-7-0</t>
+  </si>
+  <si>
+    <t>L-17-0</t>
+  </si>
+  <si>
+    <t>L-3-0</t>
+  </si>
+  <si>
+    <t>N-4-1</t>
+  </si>
+  <si>
+    <t>L-35-1</t>
+  </si>
+  <si>
+    <t>N-24-2</t>
+  </si>
+  <si>
+    <t>L-30-3</t>
+  </si>
+  <si>
+    <t>N-23-2</t>
+  </si>
+  <si>
+    <t>N-18-3</t>
+  </si>
+  <si>
+    <t>L-2-3</t>
+  </si>
+  <si>
+    <t>L-8-3</t>
+  </si>
+  <si>
+    <t>L-20-3</t>
+  </si>
+  <si>
+    <t>N-15-4</t>
+  </si>
+  <si>
+    <t>L-24-4</t>
+  </si>
+  <si>
+    <t>L-14-3</t>
   </si>
 </sst>
 </file>
@@ -152,8 +620,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6804,19 +7273,19 @@
         <v>181.5</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:F11" si="0">SUM(C2)</f>
+        <f>SUM(C2)</f>
         <v>181.5</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>SUM(D2)</f>
         <v>181.5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>SUM(E2)</f>
         <v>181.5</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f>SUM(F2)</f>
         <v>181.5</v>
       </c>
     </row>
@@ -6829,19 +7298,19 @@
         <v>256</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:F12" si="1">SUM(C2:C3)</f>
+        <f>SUM(C2:C3)</f>
         <v>324.7</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f>SUM(D2:D3)</f>
         <v>363</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f>SUM(E2:E3)</f>
         <v>256.3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f>SUM(F2:F3)</f>
         <v>256.3</v>
       </c>
     </row>
@@ -6854,19 +7323,19 @@
         <v>305</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:F13" si="2">SUM(C2:C4)</f>
+        <f>SUM(C2:C4)</f>
         <v>450.4</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f>SUM(D2:D4)</f>
         <v>437.8</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f>SUM(E2:E4)</f>
         <v>296.10000000000002</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f>SUM(F2:F4)</f>
         <v>331.1</v>
       </c>
     </row>
@@ -6879,19 +7348,19 @@
         <v>336.5</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:F14" si="3">SUM(C2:C5)</f>
+        <f>SUM(C2:C5)</f>
         <v>576.1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f>SUM(D2:D5)</f>
         <v>486.8</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f>SUM(E2:E5)</f>
         <v>324.20000000000005</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f>SUM(F2:F5)</f>
         <v>370.90000000000003</v>
       </c>
     </row>
@@ -6904,19 +7373,19 @@
         <v>347.1</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:F15" si="4">SUM(C2:C6)</f>
+        <f>SUM(C2:C6)</f>
         <v>680.9</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f>SUM(D2:D6)</f>
         <v>518.29999999999995</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f>SUM(E2:E6)</f>
         <v>334.80000000000007</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f>SUM(F2:F6)</f>
         <v>399.00000000000006</v>
       </c>
     </row>
@@ -6929,19 +7398,19 @@
         <v>357.70000000000005</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:F16" si="5">SUM(C2:C7)</f>
+        <f>SUM(C2:C7)</f>
         <v>785.69999999999993</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f>SUM(D2:D7)</f>
         <v>528.9</v>
       </c>
       <c r="E16">
-        <f t="shared" si="5"/>
+        <f>SUM(E2:E7)</f>
         <v>345.40000000000009</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
+        <f>SUM(F2:F7)</f>
         <v>409.60000000000008</v>
       </c>
     </row>
@@ -7196,19 +7665,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" ref="B11:E11" si="0">SUM(B2:B7)</f>
+        <f>SUM(B2:B7)</f>
         <v>1002.1</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>SUM(C2:C7)</f>
         <v>966.69999999999777</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>SUM(D2:D7)</f>
         <v>907.09999999999877</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>SUM(E2:E7)</f>
         <v>1008.3999999999999</v>
       </c>
       <c r="F11">
@@ -7387,7 +7856,7 @@
         <v>559.39999999999884</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:F8" si="0">SUM(C2:C7)</f>
+        <f>SUM(C2:C7)</f>
         <v>634.599999999999</v>
       </c>
       <c r="D8">
@@ -7395,11 +7864,11 @@
         <v>676.39999999999873</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>SUM(E2:E7)</f>
         <v>443.99999999999881</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f>SUM(F2:F7)</f>
         <v>635.1</v>
       </c>
     </row>
@@ -7889,7 +8358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946CCB79-A94E-4848-8DCC-31F38FA0F6DB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -8238,8 +8707,1985 @@
         <v>516.39999999999986</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19" si="1">SUM(F11:F17)</f>
+        <f>SUM(F11:F17)</f>
         <v>426.19999999999897</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA80CB-66C0-401E-9850-C46E94BA8684}">
+  <dimension ref="A4:K58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>187.69999999999899</v>
+      </c>
+      <c r="B5">
+        <v>187.69999999999899</v>
+      </c>
+      <c r="F5">
+        <v>219.7</v>
+      </c>
+      <c r="G5">
+        <v>219.7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>87.3</v>
+      </c>
+      <c r="B6">
+        <v>74.8</v>
+      </c>
+      <c r="F6">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G6">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="K6">
+        <v>777.79999999999905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>52.5</v>
+      </c>
+      <c r="B7">
+        <v>48.8</v>
+      </c>
+      <c r="F7">
+        <v>64.7</v>
+      </c>
+      <c r="G7">
+        <v>40.4</v>
+      </c>
+      <c r="K7">
+        <v>627.79999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>31.5</v>
+      </c>
+      <c r="B8">
+        <v>23.299999999999901</v>
+      </c>
+      <c r="F8">
+        <v>34.699999999999903</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>389.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10.6</v>
+      </c>
+      <c r="B9">
+        <v>10.6</v>
+      </c>
+      <c r="F9">
+        <v>16.5</v>
+      </c>
+      <c r="G9">
+        <v>3.5</v>
+      </c>
+      <c r="K9">
+        <v>328.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>3.5</v>
+      </c>
+      <c r="K10">
+        <v>314.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>SUM(A5:A10)</f>
+        <v>369.599999999999</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B5:B10)</f>
+        <v>345.19999999999891</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F5:F10)</f>
+        <v>405.99999999999989</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G5:G10)</f>
+        <v>357.5</v>
+      </c>
+      <c r="K11">
+        <v>309.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K6:K11)</f>
+        <v>2747.9999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F860931-E7EC-4A58-BCA4-59BD69D58A1B}">
+  <dimension ref="A11:X57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" t="s">
+        <v>126</v>
+      </c>
+      <c r="V11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>148</v>
+      </c>
+      <c r="P12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>135</v>
+      </c>
+      <c r="R12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S12" t="s">
+        <v>136</v>
+      </c>
+      <c r="V12" t="s">
+        <v>116</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>187.69999999999899</v>
+      </c>
+      <c r="C13">
+        <v>187.69999999999899</v>
+      </c>
+      <c r="D13">
+        <v>187.69999999999899</v>
+      </c>
+      <c r="E13">
+        <v>187.7</v>
+      </c>
+      <c r="H13">
+        <v>219.69999999999399</v>
+      </c>
+      <c r="J13">
+        <v>219.7</v>
+      </c>
+      <c r="K13">
+        <v>219.69999999999399</v>
+      </c>
+      <c r="L13">
+        <v>219.7</v>
+      </c>
+      <c r="P13">
+        <v>181.70000000000101</v>
+      </c>
+      <c r="R13">
+        <v>181.69999999998899</v>
+      </c>
+      <c r="S13">
+        <v>181.69999999998899</v>
+      </c>
+      <c r="V13">
+        <v>647.99999999999898</v>
+      </c>
+      <c r="W13">
+        <v>647.99999999999898</v>
+      </c>
+      <c r="X13">
+        <v>647.99999999999898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>69.899999999999906</v>
+      </c>
+      <c r="B14">
+        <v>187.69999999999899</v>
+      </c>
+      <c r="C14">
+        <v>69.899999999999906</v>
+      </c>
+      <c r="D14">
+        <v>48.8</v>
+      </c>
+      <c r="E14">
+        <v>74.8</v>
+      </c>
+      <c r="H14">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I14">
+        <v>219.69999999999399</v>
+      </c>
+      <c r="J14">
+        <v>38.199999999999903</v>
+      </c>
+      <c r="K14">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="L14">
+        <v>132.4</v>
+      </c>
+      <c r="P14">
+        <v>98.700000004751899</v>
+      </c>
+      <c r="Q14">
+        <v>181.69999999998899</v>
+      </c>
+      <c r="R14">
+        <v>60.5</v>
+      </c>
+      <c r="S14">
+        <v>98.7</v>
+      </c>
+      <c r="V14">
+        <v>140.09999999984501</v>
+      </c>
+      <c r="W14">
+        <v>140.1</v>
+      </c>
+      <c r="X14">
+        <v>140.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>28.1</v>
+      </c>
+      <c r="B15">
+        <v>69.899999999999906</v>
+      </c>
+      <c r="C15">
+        <v>28.1</v>
+      </c>
+      <c r="D15">
+        <v>10.6</v>
+      </c>
+      <c r="E15">
+        <v>36.4</v>
+      </c>
+      <c r="H15">
+        <v>40.4</v>
+      </c>
+      <c r="I15">
+        <v>68.2</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>40.4</v>
+      </c>
+      <c r="L15">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="P15">
+        <v>66.700000006996902</v>
+      </c>
+      <c r="Q15">
+        <v>83.8</v>
+      </c>
+      <c r="R15">
+        <v>40.099999999999902</v>
+      </c>
+      <c r="S15">
+        <v>66.699998449999995</v>
+      </c>
+      <c r="V15">
+        <v>72.349999999999895</v>
+      </c>
+      <c r="W15">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="X15">
+        <v>72.349999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="B16">
+        <v>28.1</v>
+      </c>
+      <c r="C16">
+        <v>5.9999999999999902</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>36.4</v>
+      </c>
+      <c r="H16">
+        <v>15.2</v>
+      </c>
+      <c r="I16">
+        <v>29.5</v>
+      </c>
+      <c r="J16">
+        <v>3.5</v>
+      </c>
+      <c r="K16">
+        <v>25.2</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>51.500000008780901</v>
+      </c>
+      <c r="Q16">
+        <v>51.5</v>
+      </c>
+      <c r="R16">
+        <v>28.1999999999999</v>
+      </c>
+      <c r="S16">
+        <v>51.5</v>
+      </c>
+      <c r="V16">
+        <v>45.099999999999902</v>
+      </c>
+      <c r="W16">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="X16">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>32.5</v>
+      </c>
+      <c r="H17">
+        <v>3.4999999999999898</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>16.5</v>
+      </c>
+      <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="P17">
+        <v>30.600000011239</v>
+      </c>
+      <c r="Q17">
+        <v>30.6</v>
+      </c>
+      <c r="R17">
+        <v>15.2</v>
+      </c>
+      <c r="S17">
+        <v>36.899999724637603</v>
+      </c>
+      <c r="V17">
+        <v>25.799999999999901</v>
+      </c>
+      <c r="W17">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="X17">
+        <v>25.799999999999901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>18.700000013065999</v>
+      </c>
+      <c r="Q18">
+        <v>18.6999992068125</v>
+      </c>
+      <c r="R18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S18">
+        <v>18.7</v>
+      </c>
+      <c r="V18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>16.400000105479901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>SUM(A13:A18)</f>
+        <v>291.69999999999891</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B13:B18)</f>
+        <v>291.69999999999891</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.2</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>4.9999957123654504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" t="s">
+        <v>161</v>
+      </c>
+      <c r="L33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>128</v>
+      </c>
+      <c r="K35" t="s">
+        <v>61</v>
+      </c>
+      <c r="L35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>164</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" t="s">
+        <v>75</v>
+      </c>
+      <c r="L41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" t="s">
+        <v>114</v>
+      </c>
+      <c r="K45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" t="s">
+        <v>156</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>166</v>
+      </c>
+      <c r="J51" t="s">
+        <v>72</v>
+      </c>
+      <c r="K51" t="s">
+        <v>163</v>
+      </c>
+      <c r="L51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" t="s">
+        <v>159</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{500A55C8-4975-4B91-8B0C-3BBF194FF666}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F2B118-02B9-4244-B1C1-004EEE70AB40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10890" firstSheet="2" activeTab="7" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="200">
   <si>
     <t>timestep</t>
   </si>
@@ -585,6 +584,60 @@
   </si>
   <si>
     <t>L-14-3</t>
+  </si>
+  <si>
+    <t>Scenario5, Permuted Roads</t>
+  </si>
+  <si>
+    <t>Analogous Base Case Roads</t>
+  </si>
+  <si>
+    <t>No Roads</t>
+  </si>
+  <si>
+    <t>PostProcessed</t>
+  </si>
+  <si>
+    <t>['L', 20, 0]</t>
+  </si>
+  <si>
+    <t>['N', 14, 2]</t>
+  </si>
+  <si>
+    <t>['L', 23, 2]</t>
+  </si>
+  <si>
+    <t>['L', 29, 3]</t>
+  </si>
+  <si>
+    <t>['L', 32, 4]</t>
+  </si>
+  <si>
+    <t>[[[4, 0, 'node']], [[3, 0, 'edge']], [[20, 0, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[7, 0, 'node']], [[17, 1, 'edge']], [[18, 1, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[9, 1, 'node']], [[14, 2, 'node']]]</t>
+  </si>
+  <si>
+    <t>[[[23, 2, 'node']], [[26, 2, 'edge']], [[23, 2, 'edge']], [[29, 3, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[24, 3, 'node']], [[29, 4, 'node']]]</t>
+  </si>
+  <si>
+    <t>[[[21, 4, 'node']], [[32, 4, 'edge']], [[25, 4, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[14, 2, 'node']], [[29, 3, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[24, 3, 'node']], [[25, 4, 'edge']], [[32, 4, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[9, 1, 'node']], [[23, 2, 'edge']], [[26, 2, 'edge']]]</t>
   </si>
 </sst>
 </file>
@@ -9468,10 +9521,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F860931-E7EC-4A58-BCA4-59BD69D58A1B}">
-  <dimension ref="A11:X57"/>
+  <dimension ref="A11:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9487,9 +9540,11 @@
     <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -9502,8 +9557,11 @@
       <c r="V11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -9555,8 +9613,23 @@
       <c r="X12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>187.69999999999899</v>
       </c>
@@ -9599,8 +9672,26 @@
       <c r="X13">
         <v>647.99999999999898</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AB13">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AC13">
+        <v>240.5</v>
+      </c>
+      <c r="AD13">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AE13">
+        <v>240.5</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>69.899999999999906</v>
       </c>
@@ -9652,8 +9743,26 @@
       <c r="X14">
         <v>140.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <v>211.49999999999901</v>
+      </c>
+      <c r="AB14">
+        <v>211.49999999999901</v>
+      </c>
+      <c r="AC14">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AD14">
+        <v>93.5</v>
+      </c>
+      <c r="AE14">
+        <v>123.5</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28.1</v>
       </c>
@@ -9705,8 +9814,26 @@
       <c r="X15">
         <v>72.349999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <v>117.3</v>
+      </c>
+      <c r="AB15">
+        <v>117.3</v>
+      </c>
+      <c r="AC15">
+        <v>117.3</v>
+      </c>
+      <c r="AD15">
+        <v>55.8</v>
+      </c>
+      <c r="AE15">
+        <v>93.5</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.9999999999999902</v>
       </c>
@@ -9758,8 +9885,26 @@
       <c r="X16">
         <v>45.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <v>87.3</v>
+      </c>
+      <c r="AB16">
+        <v>87.300000000002896</v>
+      </c>
+      <c r="AC16">
+        <v>72.5</v>
+      </c>
+      <c r="AD16">
+        <v>29.5</v>
+      </c>
+      <c r="AE16">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -9811,8 +9956,26 @@
       <c r="X17">
         <v>25.799999999999901</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <v>69.299994199999901</v>
+      </c>
+      <c r="AB17">
+        <v>72.5</v>
+      </c>
+      <c r="AC17">
+        <v>40.399999457019597</v>
+      </c>
+      <c r="AD17">
+        <v>14.399999999999901</v>
+      </c>
+      <c r="AE17">
+        <v>55.7</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -9864,8 +10027,23 @@
       <c r="X18">
         <v>16.400000105479901</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <v>46.099994199999998</v>
+      </c>
+      <c r="AB18">
+        <v>55</v>
+      </c>
+      <c r="AC18">
+        <v>28.6999999999999</v>
+      </c>
+      <c r="AD18">
+        <v>3.4999999999999898</v>
+      </c>
+      <c r="AE18">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>SUM(A13:A18)</f>
         <v>291.69999999999891</v>
@@ -9889,8 +10067,11 @@
       <c r="X19">
         <v>4.9999957123654504</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC19">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="V20">
         <v>0</v>
       </c>
@@ -9901,7 +10082,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AB22">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AC22">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AD22">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AE22">
+        <v>240.5</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <v>187.69999999999899</v>
+      </c>
+      <c r="AB23">
+        <v>167.7</v>
+      </c>
+      <c r="AC23">
+        <v>117.30000000000599</v>
+      </c>
+      <c r="AD23">
+        <v>93.5</v>
+      </c>
+      <c r="AE23">
+        <v>123.5</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <v>93.5</v>
+      </c>
+      <c r="AB24">
+        <v>111</v>
+      </c>
+      <c r="AC24">
+        <v>72.499999563346805</v>
+      </c>
+      <c r="AD24">
+        <v>55.8</v>
+      </c>
+      <c r="AE24">
+        <v>93.5</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <v>73</v>
+      </c>
+      <c r="AB25">
+        <v>80.999999999999901</v>
+      </c>
+      <c r="AC25">
+        <v>40.4</v>
+      </c>
+      <c r="AD25">
+        <v>29.5</v>
+      </c>
+      <c r="AE25">
+        <v>75.5</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -9914,8 +10189,26 @@
       <c r="E26" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <v>49.3</v>
+      </c>
+      <c r="AB26">
+        <v>55.499999999999901</v>
+      </c>
+      <c r="AC26">
+        <v>26</v>
+      </c>
+      <c r="AD26">
+        <v>14.399999999999901</v>
+      </c>
+      <c r="AE26">
+        <v>49.2</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -9940,8 +10233,26 @@
       <c r="L27" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <v>37.9</v>
+      </c>
+      <c r="AB27">
+        <v>46.8</v>
+      </c>
+      <c r="AC27">
+        <v>16.499999563346801</v>
+      </c>
+      <c r="AD27">
+        <v>3.4999999999999898</v>
+      </c>
+      <c r="AE27">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -9967,7 +10278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -9993,7 +10304,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -10018,8 +10329,11 @@
       <c r="L30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -10044,8 +10358,11 @@
       <c r="L31" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AD31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -10070,8 +10387,11 @@
       <c r="L32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -10096,8 +10416,11 @@
       <c r="L33" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -10122,8 +10445,11 @@
       <c r="L34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -10148,8 +10474,11 @@
       <c r="L35" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -10174,8 +10503,11 @@
       <c r="L36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -10200,8 +10532,11 @@
       <c r="L37" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -10226,8 +10561,11 @@
       <c r="L38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -10252,8 +10590,11 @@
       <c r="L39" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -10278,8 +10619,11 @@
       <c r="L40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -10304,8 +10648,11 @@
       <c r="L41" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -10330,8 +10677,11 @@
       <c r="L42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -10356,8 +10706,11 @@
       <c r="L43" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -10382,8 +10735,11 @@
       <c r="L44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -10408,8 +10764,11 @@
       <c r="L45" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -10434,8 +10793,11 @@
       <c r="L46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -10460,8 +10822,11 @@
       <c r="L47" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -10486,8 +10851,11 @@
       <c r="L48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -10512,8 +10880,11 @@
       <c r="L49" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>120</v>
       </c>
@@ -10538,8 +10909,11 @@
       <c r="L50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -10564,8 +10938,11 @@
       <c r="L51" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -10590,8 +10967,11 @@
       <c r="L52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -10616,8 +10996,11 @@
       <c r="L53" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -10642,8 +11025,11 @@
       <c r="L54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -10662,8 +11048,11 @@
       <c r="L55" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -10679,12 +11068,78 @@
       <c r="L56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AD56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD69">
         <v>1</v>
       </c>
     </row>

--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F2B118-02B9-4244-B1C1-004EEE70AB40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D02809-DE8C-4D5D-82E4-562D590D1895}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Resilience12" sheetId="7" r:id="rId6"/>
     <sheet name="MST vs Routing" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="223">
   <si>
     <t>timestep</t>
   </si>
@@ -118,9 +119,6 @@
     <t>Optimal Resilience</t>
   </si>
   <si>
-    <t>Random Resilience</t>
-  </si>
-  <si>
     <t>Routing on Geographic</t>
   </si>
   <si>
@@ -638,6 +636,78 @@
   </si>
   <si>
     <t>[[[9, 1, 'node']], [[23, 2, 'edge']], [[26, 2, 'edge']]]</t>
+  </si>
+  <si>
+    <t>No Travel Time</t>
+  </si>
+  <si>
+    <t>['N', 11, 0]</t>
+  </si>
+  <si>
+    <t>['L', 31, 0]</t>
+  </si>
+  <si>
+    <t>['L', 40, 0]</t>
+  </si>
+  <si>
+    <t>['N', 4, 1]</t>
+  </si>
+  <si>
+    <t>['N', 28, 1]</t>
+  </si>
+  <si>
+    <t>['L', 7, 1]</t>
+  </si>
+  <si>
+    <t>['L', 12, 1]</t>
+  </si>
+  <si>
+    <t>['L', 41, 2]</t>
+  </si>
+  <si>
+    <t>['L', 42, 2]</t>
+  </si>
+  <si>
+    <t>['N', 31, 3]</t>
+  </si>
+  <si>
+    <t>['L', 44, 3]</t>
+  </si>
+  <si>
+    <t>['L', 52, 3]</t>
+  </si>
+  <si>
+    <t>['N', 9, 4]</t>
+  </si>
+  <si>
+    <t>['L', 18, 4]</t>
+  </si>
+  <si>
+    <t>['L', 63, 5]</t>
+  </si>
+  <si>
+    <t>[[[14, 0, 'node']], [[40, 0, 'edge']], [[31, 0, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[11, 0, 'node']], [[12, 1, 'edge']], [[7, 1, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[28, 1, 'node']], [[21, 2, 'node']]]</t>
+  </si>
+  <si>
+    <t>[[[20, 2, 'node']], [[42, 2, 'edge']], [[41, 2, 'edge']], [[44, 3, 'edge']], [[52, 3, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[31, 3, 'node']], [[20, 4, 'edge']], [[18, 4, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[29, 3, 'node']], [[63, 5, 'edge']]]</t>
+  </si>
+  <si>
+    <t>Heuristic Resilience</t>
+  </si>
+  <si>
+    <t>No Resilience</t>
   </si>
 </sst>
 </file>
@@ -8409,10 +8479,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946CCB79-A94E-4848-8DCC-31F38FA0F6DB}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8427,87 +8497,72 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>250.99999999999901</v>
+        <v>123.4</v>
       </c>
       <c r="C2">
-        <v>283.39999999999998</v>
+        <v>221.7</v>
       </c>
       <c r="D2">
-        <v>107.1</v>
+        <v>174.1</v>
       </c>
       <c r="E2">
-        <v>283.39999999999998</v>
-      </c>
-      <c r="F2">
-        <v>259.29999999999899</v>
+        <v>179.3</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>55.8</v>
+        <v>67.2</v>
       </c>
       <c r="C3">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D3">
-        <v>37.6</v>
+        <v>104.7</v>
       </c>
       <c r="E3">
-        <v>99.2</v>
-      </c>
-      <c r="F3">
-        <v>73.599999999999994</v>
+        <v>75.900000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>14.1</v>
+        <v>43.7</v>
       </c>
       <c r="C4">
-        <v>84.2</v>
+        <v>51.7</v>
       </c>
       <c r="D4">
-        <v>22.4</v>
+        <v>60.7</v>
       </c>
       <c r="E4">
-        <v>60.5</v>
-      </c>
-      <c r="F4">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>16.2</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>22.2</v>
       </c>
       <c r="E5">
-        <v>39.599999999999902</v>
-      </c>
-      <c r="F5">
-        <v>14.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6">
+        <v>2.4</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>26.299999999999901</v>
-      </c>
       <c r="D6">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="E6">
-        <v>18.7</v>
-      </c>
-      <c r="F6">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -8518,12 +8573,9 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="E7">
-        <v>12.8</v>
-      </c>
-      <c r="F7">
         <v>0</v>
       </c>
     </row>
@@ -8538,9 +8590,6 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -8551,23 +8600,23 @@
       </c>
       <c r="B9">
         <f t="shared" ref="B9:Q9" si="0">SUM(B2:B8)</f>
-        <v>320.89999999999901</v>
+        <v>253.4</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>588.89999999999986</v>
+        <v>437.59999999999997</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>174.1</v>
+        <v>375.7</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>516.39999999999986</v>
+        <v>322.60000000000002</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>391.69999999999891</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -8616,92 +8665,77 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>250.99999999999901</v>
+        <v>123.4</v>
       </c>
       <c r="C12">
-        <v>283.39999999999998</v>
+        <v>181.7</v>
       </c>
       <c r="D12">
-        <v>137.5</v>
+        <v>174.1</v>
       </c>
       <c r="E12">
-        <v>283.39999999999998</v>
-      </c>
-      <c r="F12">
-        <v>261.69999999999902</v>
+        <v>179.3</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>74.8</v>
+        <v>93.5</v>
       </c>
       <c r="C13">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="D13">
-        <v>31.6999999999999</v>
+        <v>104.7</v>
       </c>
       <c r="E13">
-        <v>99.2</v>
-      </c>
-      <c r="F13">
-        <v>104.7</v>
+        <v>75.900000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>10.6</v>
+        <v>43.7</v>
       </c>
       <c r="C14">
-        <v>84.2</v>
+        <v>51.7</v>
       </c>
       <c r="D14">
-        <v>16.5</v>
+        <v>54.5</v>
       </c>
       <c r="E14">
-        <v>60.5</v>
-      </c>
-      <c r="F14">
         <v>41.4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="C15">
-        <v>58</v>
+        <v>16.2</v>
       </c>
       <c r="D15">
-        <v>3.5</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>39.599999999999902</v>
-      </c>
-      <c r="F15">
-        <v>14.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>26.299999999999901</v>
-      </c>
       <c r="D16">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E16">
-        <v>18.7</v>
-      </c>
-      <c r="F16">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8715,9 +8749,6 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.8</v>
-      </c>
-      <c r="F17">
         <v>0</v>
       </c>
     </row>
@@ -8732,9 +8763,6 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F18">
         <v>0</v>
       </c>
     </row>
@@ -8745,27 +8773,157 @@
       </c>
       <c r="B19">
         <f>SUM(B11:B18)</f>
-        <v>336.39999999999901</v>
+        <v>283.3</v>
       </c>
       <c r="C19">
         <f>SUM(C11:C18)</f>
-        <v>588.89999999999986</v>
+        <v>330.59999999999997</v>
       </c>
       <c r="D19">
         <f>SUM(D11:D18)</f>
-        <v>189.1999999999999</v>
+        <v>379.90000000000003</v>
       </c>
       <c r="E19">
         <f>SUM(E11:E18)</f>
-        <v>516.39999999999986</v>
+        <v>322.60000000000002</v>
       </c>
       <c r="F19">
         <f>SUM(F11:F17)</f>
-        <v>426.19999999999897</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>123.4</v>
+      </c>
+      <c r="C22">
+        <v>231.7</v>
+      </c>
+      <c r="D22">
+        <v>174.1</v>
+      </c>
+      <c r="E22">
+        <v>179.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>82.1</v>
+      </c>
+      <c r="C23">
+        <v>127.5</v>
+      </c>
+      <c r="D23">
+        <v>104.7</v>
+      </c>
+      <c r="E23">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>58.5</v>
+      </c>
+      <c r="C24">
+        <v>74.8</v>
+      </c>
+      <c r="D24">
+        <v>63.2</v>
+      </c>
+      <c r="E24">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>26.2</v>
+      </c>
+      <c r="C25">
+        <v>40.6</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>9.5</v>
+      </c>
+      <c r="C26">
+        <v>16.2</v>
+      </c>
+      <c r="D26">
+        <v>18.7</v>
+      </c>
+      <c r="E26">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2.4</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E27">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>SUM(A21:A27)</f>
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B21:B28)</f>
+        <v>302.09999999999997</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C21:C28)</f>
+        <v>490.8</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D21:D28)</f>
+        <v>404.9</v>
+      </c>
+      <c r="E29">
+        <f>SUM(E21:E28)</f>
+        <v>338</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F21:F27)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8786,19 +8944,19 @@
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8815,7 +8973,7 @@
         <v>219.7</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8926,16 +9084,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <f>SUM(K6:K11)</f>
@@ -8944,29 +9102,29 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -8986,21 +9144,21 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -9020,21 +9178,21 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -9054,21 +9212,21 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
         <v>67</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9088,21 +9246,21 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9122,21 +9280,21 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -9156,21 +9314,21 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9190,21 +9348,21 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -9224,21 +9382,21 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -9258,21 +9416,21 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -9292,21 +9450,21 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -9326,15 +9484,15 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -9348,15 +9506,15 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -9370,12 +9528,12 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -9386,12 +9544,12 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -9402,12 +9560,12 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -9418,12 +9576,12 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -9434,12 +9592,12 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -9450,12 +9608,12 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -9466,12 +9624,12 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -9482,12 +9640,12 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -9498,15 +9656,15 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -9521,10 +9679,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F860931-E7EC-4A58-BCA4-59BD69D58A1B}">
-  <dimension ref="A11:AG69"/>
+  <dimension ref="A11:AJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9539,97 +9697,108 @@
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" t="s">
         <v>125</v>
       </c>
-      <c r="P11" t="s">
-        <v>126</v>
-      </c>
       <c r="V11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" t="s">
+        <v>135</v>
+      </c>
+      <c r="V12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W12" t="s">
         <v>138</v>
       </c>
-      <c r="AA11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12" t="s">
-        <v>148</v>
-      </c>
-      <c r="P12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE12" t="s">
         <v>135</v>
       </c>
-      <c r="R12" t="s">
-        <v>133</v>
-      </c>
-      <c r="S12" t="s">
-        <v>136</v>
-      </c>
-      <c r="V12" t="s">
-        <v>116</v>
-      </c>
-      <c r="W12" t="s">
-        <v>139</v>
-      </c>
-      <c r="X12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AF12" t="s">
         <v>2</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AG12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH12" t="s">
         <v>184</v>
       </c>
-      <c r="AE12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>187.69999999999899</v>
       </c>
@@ -9672,26 +9841,35 @@
       <c r="X13">
         <v>647.99999999999898</v>
       </c>
-      <c r="AA13">
-        <v>240.49999999999901</v>
-      </c>
-      <c r="AB13">
-        <v>240.49999999999901</v>
-      </c>
-      <c r="AC13">
-        <v>240.5</v>
+      <c r="Y13">
+        <v>648</v>
+      </c>
+      <c r="Z13">
+        <v>648</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>215</v>
       </c>
       <c r="AD13">
         <v>240.49999999999901</v>
       </c>
       <c r="AE13">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AF13">
         <v>240.5</v>
       </c>
-      <c r="AG13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG13">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AH13">
+        <v>240.5</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>69.899999999999906</v>
       </c>
@@ -9743,26 +9921,35 @@
       <c r="X14">
         <v>140.1</v>
       </c>
-      <c r="AA14">
+      <c r="Y14">
+        <v>118.1</v>
+      </c>
+      <c r="Z14">
+        <v>543</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD14">
         <v>211.49999999999901</v>
       </c>
-      <c r="AB14">
+      <c r="AE14">
         <v>211.49999999999901</v>
       </c>
-      <c r="AC14">
+      <c r="AF14">
         <v>240.49999999999901</v>
       </c>
-      <c r="AD14">
+      <c r="AG14">
         <v>93.5</v>
       </c>
-      <c r="AE14">
+      <c r="AH14">
         <v>123.5</v>
       </c>
-      <c r="AG14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AJ14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28.1</v>
       </c>
@@ -9814,26 +10001,35 @@
       <c r="X15">
         <v>72.349999999999994</v>
       </c>
-      <c r="AA15">
+      <c r="Y15">
+        <v>52.3</v>
+      </c>
+      <c r="Z15">
+        <v>118.1</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD15">
         <v>117.3</v>
       </c>
-      <c r="AB15">
+      <c r="AE15">
         <v>117.3</v>
       </c>
-      <c r="AC15">
+      <c r="AF15">
         <v>117.3</v>
       </c>
-      <c r="AD15">
+      <c r="AG15">
         <v>55.8</v>
       </c>
-      <c r="AE15">
+      <c r="AH15">
         <v>93.5</v>
       </c>
-      <c r="AG15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AJ15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.9999999999999902</v>
       </c>
@@ -9885,26 +10081,35 @@
       <c r="X16">
         <v>45.1</v>
       </c>
-      <c r="AA16">
+      <c r="Y16">
+        <v>25.799999999999901</v>
+      </c>
+      <c r="Z16">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD16">
         <v>87.3</v>
       </c>
-      <c r="AB16">
+      <c r="AE16">
         <v>87.300000000002896</v>
       </c>
-      <c r="AC16">
+      <c r="AF16">
         <v>72.5</v>
       </c>
-      <c r="AD16">
+      <c r="AG16">
         <v>29.5</v>
       </c>
-      <c r="AE16">
+      <c r="AH16">
         <v>67.099999999999994</v>
       </c>
-      <c r="AG16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AJ16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -9956,26 +10161,35 @@
       <c r="X17">
         <v>25.799999999999901</v>
       </c>
-      <c r="AA17">
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD17">
         <v>69.299994199999901</v>
       </c>
-      <c r="AB17">
+      <c r="AE17">
         <v>72.5</v>
       </c>
-      <c r="AC17">
+      <c r="AF17">
         <v>40.399999457019597</v>
       </c>
-      <c r="AD17">
+      <c r="AG17">
         <v>14.399999999999901</v>
       </c>
-      <c r="AE17">
+      <c r="AH17">
         <v>55.7</v>
       </c>
-      <c r="AG17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AJ17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -10027,23 +10241,32 @@
       <c r="X18">
         <v>16.400000105479901</v>
       </c>
-      <c r="AA18">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD18">
         <v>46.099994199999998</v>
       </c>
-      <c r="AB18">
+      <c r="AE18">
         <v>55</v>
       </c>
-      <c r="AC18">
+      <c r="AF18">
         <v>28.6999999999999</v>
       </c>
-      <c r="AD18">
+      <c r="AG18">
         <v>3.4999999999999898</v>
       </c>
-      <c r="AE18">
+      <c r="AH18">
         <v>55.7</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>SUM(A13:A18)</f>
         <v>291.69999999999891</v>
@@ -10067,11 +10290,17 @@
       <c r="X19">
         <v>4.9999957123654504</v>
       </c>
-      <c r="AC19">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>18</v>
+      </c>
+      <c r="AF19">
         <v>14.1</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="V20">
         <v>0</v>
       </c>
@@ -10081,781 +10310,868 @@
       <c r="X20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA21" t="s">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AD21" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG21" t="s">
         <v>183</v>
       </c>
-      <c r="AC21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA22">
-        <v>240.49999999999901</v>
-      </c>
-      <c r="AB22">
-        <v>240.49999999999901</v>
-      </c>
-      <c r="AC22">
-        <v>240.49999999999901</v>
+      <c r="AH21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Y22" t="s">
+        <v>200</v>
       </c>
       <c r="AD22">
         <v>240.49999999999901</v>
       </c>
       <c r="AE22">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AF22">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AG22">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AH22">
         <v>240.5</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AJ22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>187.69999999999899</v>
+      </c>
+      <c r="AE23">
+        <v>167.7</v>
+      </c>
+      <c r="AF23">
+        <v>117.30000000000599</v>
+      </c>
+      <c r="AG23">
+        <v>93.5</v>
+      </c>
+      <c r="AH23">
+        <v>123.5</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA23">
-        <v>187.69999999999899</v>
-      </c>
-      <c r="AB23">
-        <v>167.7</v>
-      </c>
-      <c r="AC23">
-        <v>117.30000000000599</v>
-      </c>
-      <c r="AD23">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Y24" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD24">
         <v>93.5</v>
       </c>
-      <c r="AE23">
-        <v>123.5</v>
-      </c>
-      <c r="AG23" t="s">
+      <c r="AE24">
+        <v>111</v>
+      </c>
+      <c r="AF24">
+        <v>72.499999563346805</v>
+      </c>
+      <c r="AG24">
+        <v>55.8</v>
+      </c>
+      <c r="AH24">
+        <v>93.5</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA24">
-        <v>93.5</v>
-      </c>
-      <c r="AB24">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>73</v>
+      </c>
+      <c r="AE25">
+        <v>80.999999999999901</v>
+      </c>
+      <c r="AF25">
+        <v>40.4</v>
+      </c>
+      <c r="AG25">
+        <v>29.5</v>
+      </c>
+      <c r="AH25">
+        <v>75.5</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD26">
+        <v>49.3</v>
+      </c>
+      <c r="AE26">
+        <v>55.499999999999901</v>
+      </c>
+      <c r="AF26">
+        <v>26</v>
+      </c>
+      <c r="AG26">
+        <v>14.399999999999901</v>
+      </c>
+      <c r="AH26">
+        <v>49.2</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>37.9</v>
+      </c>
+      <c r="AE27">
+        <v>46.8</v>
+      </c>
+      <c r="AF27">
+        <v>16.499999563346801</v>
+      </c>
+      <c r="AG27">
+        <v>3.4999999999999898</v>
+      </c>
+      <c r="AH27">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
         <v>111</v>
       </c>
-      <c r="AC24">
-        <v>72.499999563346805</v>
-      </c>
-      <c r="AD24">
-        <v>55.8</v>
-      </c>
-      <c r="AE24">
-        <v>93.5</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA25">
-        <v>73</v>
-      </c>
-      <c r="AB25">
-        <v>80.999999999999901</v>
-      </c>
-      <c r="AC25">
-        <v>40.4</v>
-      </c>
-      <c r="AD25">
-        <v>29.5</v>
-      </c>
-      <c r="AE25">
-        <v>75.5</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D34" t="s">
         <v>42</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s">
+        <v>161</v>
+      </c>
+      <c r="L37" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG38" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA26">
-        <v>49.3</v>
-      </c>
-      <c r="AB26">
-        <v>55.499999999999901</v>
-      </c>
-      <c r="AC26">
-        <v>26</v>
-      </c>
-      <c r="AD26">
-        <v>14.399999999999901</v>
-      </c>
-      <c r="AE26">
-        <v>49.2</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA27">
-        <v>37.9</v>
-      </c>
-      <c r="AB27">
-        <v>46.8</v>
-      </c>
-      <c r="AC27">
-        <v>16.499999563346801</v>
-      </c>
-      <c r="AD27">
-        <v>3.4999999999999898</v>
-      </c>
-      <c r="AE27">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG40" t="s">
         <v>141</v>
       </c>
-      <c r="E28" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>88</v>
-      </c>
-      <c r="J29" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" t="s">
-        <v>147</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31" t="s">
-        <v>68</v>
-      </c>
-      <c r="L31" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" t="s">
-        <v>149</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>127</v>
-      </c>
-      <c r="K33" t="s">
-        <v>161</v>
-      </c>
-      <c r="L33" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>163</v>
+      </c>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s">
         <v>112</v>
       </c>
-      <c r="D34" t="s">
+      <c r="K43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG44" t="s">
         <v>43</v>
       </c>
-      <c r="E34" t="s">
-        <v>150</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" t="s">
-        <v>128</v>
-      </c>
-      <c r="K35" t="s">
-        <v>61</v>
-      </c>
-      <c r="L35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
         <v>112</v>
       </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="AD36" t="s">
+      <c r="E46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG46" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47" t="s">
+        <v>129</v>
+      </c>
+      <c r="K47" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG48" t="s">
         <v>70</v>
       </c>
-      <c r="J37" t="s">
-        <v>129</v>
-      </c>
-      <c r="K37" t="s">
-        <v>162</v>
-      </c>
-      <c r="L37" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>71</v>
-      </c>
-      <c r="J39" t="s">
-        <v>70</v>
-      </c>
-      <c r="K39" t="s">
-        <v>96</v>
-      </c>
-      <c r="L39" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" t="s">
-        <v>153</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>164</v>
-      </c>
-      <c r="J41" t="s">
-        <v>75</v>
-      </c>
-      <c r="K41" t="s">
-        <v>75</v>
-      </c>
-      <c r="L41" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" t="s">
-        <v>154</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>72</v>
-      </c>
-      <c r="J43" t="s">
-        <v>113</v>
-      </c>
-      <c r="K43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" t="s">
-        <v>155</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" t="s">
-        <v>114</v>
-      </c>
-      <c r="K45" t="s">
-        <v>63</v>
-      </c>
-      <c r="L45" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" t="s">
-        <v>156</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>132</v>
-      </c>
-      <c r="J47" t="s">
-        <v>130</v>
-      </c>
-      <c r="K47" t="s">
-        <v>123</v>
-      </c>
-      <c r="L47" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" t="s">
-        <v>157</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -10869,150 +11185,165 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
+        <v>164</v>
+      </c>
+      <c r="J49" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" t="s">
+        <v>131</v>
+      </c>
+      <c r="L49" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
         <v>165</v>
       </c>
-      <c r="J49" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49" t="s">
-        <v>132</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="J51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s">
+        <v>162</v>
+      </c>
+      <c r="L51" t="s">
         <v>178</v>
       </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>120</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>122</v>
       </c>
-      <c r="D50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" t="s">
         <v>158</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>166</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
         <v>72</v>
       </c>
-      <c r="K51" t="s">
-        <v>163</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="J53" t="s">
+        <v>130</v>
+      </c>
+      <c r="K53" t="s">
+        <v>63</v>
+      </c>
+      <c r="L53" t="s">
         <v>179</v>
       </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
         <v>123</v>
       </c>
-      <c r="D52" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" t="s">
         <v>159</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>73</v>
-      </c>
-      <c r="J53" t="s">
-        <v>131</v>
-      </c>
-      <c r="K53" t="s">
-        <v>64</v>
-      </c>
-      <c r="L53" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E54" t="s">
-        <v>160</v>
-      </c>
       <c r="H54">
         <v>1</v>
       </c>
@@ -11025,11 +11356,14 @@
       <c r="L54">
         <v>1</v>
       </c>
-      <c r="AD54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y54" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -11040,24 +11374,27 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -11068,82 +11405,112 @@
       <c r="L56">
         <v>1</v>
       </c>
-      <c r="AD56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="AD57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AD58" t="s">
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG68" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AD59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AD60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AD61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AD62" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AD63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AD64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="30:30" x14ac:dyDescent="0.25">
-      <c r="AD65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="30:30" x14ac:dyDescent="0.25">
-      <c r="AD66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="30:30" x14ac:dyDescent="0.25">
-      <c r="AD67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="30:30" x14ac:dyDescent="0.25">
-      <c r="AD68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="30:30" x14ac:dyDescent="0.25">
-      <c r="AD69">
+    <row r="69" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG69">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C815582-E8F1-4E30-AA79-22A6929CBCDF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D02809-DE8C-4D5D-82E4-562D590D1895}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DAC963-AB8B-4CD2-96F2-F7BFC68D3963}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="228">
   <si>
     <t>timestep</t>
   </si>
@@ -708,6 +708,21 @@
   </si>
   <si>
     <t>No Resilience</t>
+  </si>
+  <si>
+    <t>Interdict</t>
+  </si>
+  <si>
+    <t>Heuristic</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>['L', 20, 3]</t>
+  </si>
+  <si>
+    <t>['L', 14, 4]</t>
   </si>
 </sst>
 </file>
@@ -4011,6 +4026,2899 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Loss</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of load by Scenario under Interdiction based Resilience</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>123.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A6B-46D7-988E-EEA7274FD4DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>221.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A6B-46D7-988E-EEA7274FD4DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>174.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A6B-46D7-988E-EEA7274FD4DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>179.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2A6B-46D7-988E-EEA7274FD4DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2A6B-46D7-988E-EEA7274FD4DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2A6B-46D7-988E-EEA7274FD4DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>231.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2A6B-46D7-988E-EEA7274FD4DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>114.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2A6B-46D7-988E-EEA7274FD4DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2A6B-46D7-988E-EEA7274FD4DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2A6B-46D7-988E-EEA7274FD4DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="611928648"/>
+        <c:axId val="611927992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="611928648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611927992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="611927992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611928648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Loss of load by Scenario under Heuristic based Resilience</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>123.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B79E-41D7-AA11-04A55C9D3F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$C$12:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B79E-41D7-AA11-04A55C9D3F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$D$12:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>174.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B79E-41D7-AA11-04A55C9D3F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$E$12:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>179.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B79E-41D7-AA11-04A55C9D3F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$F$12:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B79E-41D7-AA11-04A55C9D3F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$G$12:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B79E-41D7-AA11-04A55C9D3F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$H$12:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B79E-41D7-AA11-04A55C9D3F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$I$12:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>114.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B79E-41D7-AA11-04A55C9D3F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$J$12:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B79E-41D7-AA11-04A55C9D3F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$K$12:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B79E-41D7-AA11-04A55C9D3F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="611928976"/>
+        <c:axId val="611929632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="611928976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611929632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="611929632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611928976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Loss of load by Scenario without resilience</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>123.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C49F-4523-BF3E-D26A719A2F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$C$22:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>231.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C49F-4523-BF3E-D26A719A2F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$D$22:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>174.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C49F-4523-BF3E-D26A719A2F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$E$22:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>179.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C49F-4523-BF3E-D26A719A2F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$F$22:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C49F-4523-BF3E-D26A719A2F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$G$22:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C49F-4523-BF3E-D26A719A2F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$H$22:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>231.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C49F-4523-BF3E-D26A719A2F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$I$22:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>114.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C49F-4523-BF3E-D26A719A2F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$J$22:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C49F-4523-BF3E-D26A719A2F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$K$22:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>211.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C49F-4523-BF3E-D26A719A2F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="483194560"/>
+        <c:axId val="483198496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="483194560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483198496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483198496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483194560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Repair Curves by Resilience Method</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience12!$I$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interdict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$I$34:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>172.75000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.720000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-352E-4294-86AE-1A60BCAED72D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience12!$J$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$J$34:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>163.75000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.990000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-352E-4294-86AE-1A60BCAED72D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience12!$K$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience12!$K$34:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>176.75000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-352E-4294-86AE-1A60BCAED72D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="484775744"/>
+        <c:axId val="484774432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484775744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484774432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484774432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484775744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4211,6 +7119,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -6373,6 +9441,2070 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6908,6 +12040,155 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11ABB6E4-A3DE-48B4-BDB7-42985592ABEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42861</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5868AB4-1599-416C-9CA3-64FBC2ECD2BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87D72B2-844E-45F5-BE5D-D099D832C94D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E726FD-B4C6-4CB3-8BFF-77BDF0FC7B5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8479,10 +13760,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946CCB79-A94E-4848-8DCC-31F38FA0F6DB}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="G23" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8508,6 +13789,24 @@
       <c r="E2">
         <v>179.3</v>
       </c>
+      <c r="F2">
+        <v>181.7</v>
+      </c>
+      <c r="G2">
+        <v>137.5</v>
+      </c>
+      <c r="H2">
+        <v>231.7</v>
+      </c>
+      <c r="I2">
+        <v>114.7</v>
+      </c>
+      <c r="J2">
+        <v>181.7</v>
+      </c>
+      <c r="K2">
+        <v>181.7</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -8522,6 +13821,24 @@
       <c r="E3">
         <v>75.900000000000006</v>
       </c>
+      <c r="F3">
+        <v>76.7</v>
+      </c>
+      <c r="G3">
+        <v>60.3</v>
+      </c>
+      <c r="H3">
+        <v>127.1</v>
+      </c>
+      <c r="I3">
+        <v>62</v>
+      </c>
+      <c r="J3">
+        <v>99.1</v>
+      </c>
+      <c r="K3">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -8536,6 +13853,24 @@
       <c r="E4">
         <v>41.4</v>
       </c>
+      <c r="F4">
+        <v>31.5</v>
+      </c>
+      <c r="G4">
+        <v>20.7</v>
+      </c>
+      <c r="H4">
+        <v>63.1</v>
+      </c>
+      <c r="I4">
+        <v>45.8</v>
+      </c>
+      <c r="J4">
+        <v>51.8</v>
+      </c>
+      <c r="K4">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -8550,6 +13885,24 @@
       <c r="E5">
         <v>19</v>
       </c>
+      <c r="F5">
+        <v>21.1</v>
+      </c>
+      <c r="G5">
+        <v>2.4</v>
+      </c>
+      <c r="H5">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>28.3</v>
+      </c>
+      <c r="J5">
+        <v>22.4</v>
+      </c>
+      <c r="K5">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -8564,6 +13917,24 @@
       <c r="E6">
         <v>7</v>
       </c>
+      <c r="F6">
+        <v>8.4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>9.4</v>
+      </c>
+      <c r="I6">
+        <v>8.4</v>
+      </c>
+      <c r="J6">
+        <v>11.9</v>
+      </c>
+      <c r="K6">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -8578,6 +13949,24 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3.5</v>
+      </c>
+      <c r="I7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J7">
+        <v>3.5</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -8590,6 +13979,24 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
     </row>
@@ -8616,27 +14023,27 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>325.39999999999998</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>220.9</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>461.79999999999995</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>261.39999999999998</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>370.39999999999992</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>355.09999999999997</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -8646,10 +14053,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8681,6 +14084,24 @@
       <c r="E12">
         <v>179.3</v>
       </c>
+      <c r="F12">
+        <v>181.7</v>
+      </c>
+      <c r="G12">
+        <v>137.5</v>
+      </c>
+      <c r="H12">
+        <v>181.7</v>
+      </c>
+      <c r="I12">
+        <v>114.7</v>
+      </c>
+      <c r="J12">
+        <v>181.7</v>
+      </c>
+      <c r="K12">
+        <v>181.7</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -8695,6 +14116,24 @@
       <c r="E13">
         <v>75.900000000000006</v>
       </c>
+      <c r="F13">
+        <v>76.7</v>
+      </c>
+      <c r="G13">
+        <v>70.3</v>
+      </c>
+      <c r="H13">
+        <v>82</v>
+      </c>
+      <c r="I13">
+        <v>62</v>
+      </c>
+      <c r="J13">
+        <v>99.1</v>
+      </c>
+      <c r="K13">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -8709,6 +14148,24 @@
       <c r="E14">
         <v>41.4</v>
       </c>
+      <c r="F14">
+        <v>31.5</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>48.7</v>
+      </c>
+      <c r="I14">
+        <v>45.8</v>
+      </c>
+      <c r="J14">
+        <v>51.8</v>
+      </c>
+      <c r="K14">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -8723,6 +14180,24 @@
       <c r="E15">
         <v>19</v>
       </c>
+      <c r="F15">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G15">
+        <v>5.5</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>28.3</v>
+      </c>
+      <c r="J15">
+        <v>22.4</v>
+      </c>
+      <c r="K15">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -8737,8 +14212,26 @@
       <c r="E16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>7.4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3.5</v>
+      </c>
+      <c r="I16">
+        <v>8.4</v>
+      </c>
+      <c r="J16">
+        <v>11.9</v>
+      </c>
+      <c r="K16">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -8751,8 +14244,26 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J17">
+        <v>3.5</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -8765,39 +14276,77 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2.4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>SUM(A11:A17)</f>
         <v>0</v>
       </c>
       <c r="B19">
-        <f>SUM(B11:B18)</f>
+        <f t="shared" ref="B19:G19" si="1">SUM(B11:B18)</f>
         <v>283.3</v>
       </c>
       <c r="C19">
-        <f>SUM(C11:C18)</f>
+        <f t="shared" si="1"/>
         <v>330.59999999999997</v>
       </c>
       <c r="D19">
-        <f>SUM(D11:D18)</f>
+        <f t="shared" si="1"/>
         <v>379.90000000000003</v>
       </c>
       <c r="E19">
-        <f>SUM(E11:E18)</f>
+        <f t="shared" si="1"/>
         <v>322.60000000000002</v>
       </c>
       <c r="F19">
-        <f>SUM(F11:F17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>325.79999999999995</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>243.3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:K19" si="2">SUM(H11:H18)</f>
+        <v>331.9</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>261.39999999999998</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>370.39999999999992</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>355.09999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>123.4</v>
       </c>
@@ -8810,8 +14359,26 @@
       <c r="E22">
         <v>179.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>181.7</v>
+      </c>
+      <c r="G22">
+        <v>137.5</v>
+      </c>
+      <c r="H22">
+        <v>231.7</v>
+      </c>
+      <c r="I22">
+        <v>114.7</v>
+      </c>
+      <c r="J22">
+        <v>181.7</v>
+      </c>
+      <c r="K22">
+        <v>211.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>82.1</v>
       </c>
@@ -8824,8 +14391,26 @@
       <c r="E23">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>76.7</v>
+      </c>
+      <c r="G23">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H23">
+        <v>127.5</v>
+      </c>
+      <c r="I23">
+        <v>72.8</v>
+      </c>
+      <c r="J23">
+        <v>99.1</v>
+      </c>
+      <c r="K23">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>58.5</v>
       </c>
@@ -8838,8 +14423,26 @@
       <c r="E24">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>45.2</v>
+      </c>
+      <c r="G24">
+        <v>38.4</v>
+      </c>
+      <c r="H24">
+        <v>85.5</v>
+      </c>
+      <c r="I24">
+        <v>49.5</v>
+      </c>
+      <c r="J24">
+        <v>51.8</v>
+      </c>
+      <c r="K24">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>26.2</v>
       </c>
@@ -8852,8 +14455,26 @@
       <c r="E25">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>24.3</v>
+      </c>
+      <c r="G25">
+        <v>2.4</v>
+      </c>
+      <c r="H25">
+        <v>34.4</v>
+      </c>
+      <c r="I25">
+        <v>30.3</v>
+      </c>
+      <c r="J25">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="K25">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>9.5</v>
       </c>
@@ -8866,8 +14487,26 @@
       <c r="E26">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>9.4</v>
+      </c>
+      <c r="I26">
+        <v>8.4</v>
+      </c>
+      <c r="J26">
+        <v>16.5</v>
+      </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2.4</v>
       </c>
@@ -8880,8 +14519,26 @@
       <c r="E27">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>2.4</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>2.4</v>
+      </c>
+      <c r="I27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J27">
+        <v>5.9</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0</v>
       </c>
@@ -8894,36 +14551,198 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>SUM(A21:A27)</f>
         <v>0</v>
       </c>
       <c r="B29">
-        <f>SUM(B21:B28)</f>
+        <f t="shared" ref="B29:G29" si="3">SUM(B21:B28)</f>
         <v>302.09999999999997</v>
       </c>
       <c r="C29">
-        <f>SUM(C21:C28)</f>
+        <f t="shared" si="3"/>
         <v>490.8</v>
       </c>
       <c r="D29">
-        <f>SUM(D21:D28)</f>
+        <f t="shared" si="3"/>
         <v>404.9</v>
       </c>
       <c r="E29">
-        <f>SUM(E21:E28)</f>
+        <f t="shared" si="3"/>
         <v>338</v>
       </c>
       <c r="F29">
-        <f>SUM(F21:F27)</f>
+        <f t="shared" si="3"/>
+        <v>334.9</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>253.4</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:K29" si="4">SUM(H21:H28)</f>
+        <v>490.89999999999992</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>277.89999999999998</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>389.29999999999995</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>482.69999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>223</v>
+      </c>
+      <c r="J33" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" ref="I34:I41" si="5">AVERAGE(B2:L2)</f>
+        <v>172.75000000000003</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J41" si="6">AVERAGE(B12:L12)</f>
+        <v>163.75000000000003</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:K41" si="7">AVERAGE(B22:L22)</f>
+        <v>176.75000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>92.570000000000007</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="6"/>
+        <v>84.990000000000009</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>96.89</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>46.720000000000006</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="6"/>
+        <v>45.59</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="7"/>
+        <v>59.489999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>18.48</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="6"/>
+        <v>19.57</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="7"/>
+        <v>29.990000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>5.7999999999999989</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="6"/>
+        <v>5.1199999999999992</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="7"/>
+        <v>10.780000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>2.1100000000000003</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="6"/>
+        <v>1.17</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="6"/>
+        <v>0.24</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>307.66363636363644</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="6"/>
+        <v>320.43</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>376.48999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8931,7 +14750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA80CB-66C0-401E-9850-C46E94BA8684}">
   <dimension ref="A4:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -9681,8 +15500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F860931-E7EC-4A58-BCA4-59BD69D58A1B}">
   <dimension ref="A11:AJ69"/>
   <sheetViews>
-    <sheetView topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10275,8 +16094,25 @@
         <f>SUM(B13:B18)</f>
         <v>291.69999999999891</v>
       </c>
-      <c r="I19" s="1">
-        <v>0</v>
+      <c r="H19">
+        <f>SUM(H13:H18)</f>
+        <v>349.19999999999396</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:L19" si="0">SUM(I13:I18)</f>
+        <v>324.39999999999401</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>274.39999999999986</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>372.19999999999396</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>406.8</v>
       </c>
       <c r="Q19">
         <v>15.2</v>
@@ -10474,6 +16310,9 @@
       <c r="H27" t="s">
         <v>41</v>
       </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
       <c r="J27" t="s">
         <v>41</v>
       </c>
@@ -10521,6 +16360,9 @@
       <c r="H28">
         <v>1</v>
       </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="J28">
         <v>1</v>
       </c>
@@ -10548,6 +16390,9 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" t="s">
         <v>87</v>
       </c>
       <c r="J29" t="s">
@@ -10579,6 +16424,9 @@
       <c r="H30">
         <v>1</v>
       </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
       <c r="J30">
         <v>1</v>
       </c>
@@ -10609,6 +16457,9 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" t="s">
         <v>57</v>
       </c>
       <c r="J31" t="s">
@@ -10643,6 +16494,9 @@
       <c r="H32">
         <v>1</v>
       </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
       <c r="J32">
         <v>1</v>
       </c>
@@ -10674,6 +16528,9 @@
       </c>
       <c r="H33" t="s">
         <v>67</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
       </c>
       <c r="J33" t="s">
         <v>126</v>
@@ -10707,6 +16564,9 @@
       <c r="H34">
         <v>1</v>
       </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
       <c r="J34">
         <v>1</v>
       </c>
@@ -10738,6 +16598,9 @@
       </c>
       <c r="H35" t="s">
         <v>68</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
       </c>
       <c r="J35" t="s">
         <v>127</v>
@@ -10771,6 +16634,9 @@
       <c r="H36">
         <v>1</v>
       </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
       <c r="J36">
         <v>1</v>
       </c>
@@ -10802,6 +16668,9 @@
       </c>
       <c r="H37" t="s">
         <v>69</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
       </c>
       <c r="J37" t="s">
         <v>128</v>
@@ -10835,6 +16704,9 @@
       <c r="H38">
         <v>1</v>
       </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
       <c r="J38">
         <v>1</v>
       </c>
@@ -10866,6 +16738,9 @@
       </c>
       <c r="H39" t="s">
         <v>70</v>
+      </c>
+      <c r="I39" t="s">
+        <v>127</v>
       </c>
       <c r="J39" t="s">
         <v>69</v>
@@ -10899,6 +16774,9 @@
       <c r="H40">
         <v>1</v>
       </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
       <c r="J40">
         <v>1</v>
       </c>
@@ -10930,6 +16808,9 @@
       </c>
       <c r="H41" t="s">
         <v>163</v>
+      </c>
+      <c r="I41" t="s">
+        <v>74</v>
       </c>
       <c r="J41" t="s">
         <v>74</v>
@@ -10963,6 +16844,9 @@
       <c r="H42">
         <v>1</v>
       </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
       <c r="J42">
         <v>1</v>
       </c>
@@ -10994,6 +16878,9 @@
       </c>
       <c r="H43" t="s">
         <v>71</v>
+      </c>
+      <c r="I43" t="s">
+        <v>163</v>
       </c>
       <c r="J43" t="s">
         <v>112</v>
@@ -11027,6 +16914,9 @@
       <c r="H44">
         <v>1</v>
       </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
       <c r="J44">
         <v>1</v>
       </c>
@@ -11058,6 +16948,9 @@
       </c>
       <c r="H45" t="s">
         <v>37</v>
+      </c>
+      <c r="I45" t="s">
+        <v>130</v>
       </c>
       <c r="J45" t="s">
         <v>113</v>
@@ -11091,6 +16984,9 @@
       <c r="H46">
         <v>1</v>
       </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
       <c r="J46">
         <v>1</v>
       </c>
@@ -11122,6 +17018,9 @@
       </c>
       <c r="H47" t="s">
         <v>131</v>
+      </c>
+      <c r="I47" t="s">
+        <v>226</v>
       </c>
       <c r="J47" t="s">
         <v>129</v>
@@ -11155,6 +17054,9 @@
       <c r="H48">
         <v>1</v>
       </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
       <c r="J48">
         <v>1</v>
       </c>
@@ -11186,6 +17088,9 @@
       </c>
       <c r="H49" t="s">
         <v>164</v>
+      </c>
+      <c r="I49" t="s">
+        <v>114</v>
       </c>
       <c r="J49" t="s">
         <v>46</v>
@@ -11219,6 +17124,9 @@
       <c r="H50">
         <v>1</v>
       </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
       <c r="J50">
         <v>1</v>
       </c>
@@ -11250,6 +17158,9 @@
       </c>
       <c r="H51" t="s">
         <v>165</v>
+      </c>
+      <c r="I51" t="s">
+        <v>162</v>
       </c>
       <c r="J51" t="s">
         <v>71</v>
@@ -11283,6 +17194,9 @@
       <c r="H52">
         <v>1</v>
       </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
       <c r="J52">
         <v>1</v>
       </c>
@@ -11314,6 +17228,9 @@
       </c>
       <c r="H53" t="s">
         <v>72</v>
+      </c>
+      <c r="I53" t="s">
+        <v>120</v>
       </c>
       <c r="J53" t="s">
         <v>130</v>
@@ -11347,6 +17264,9 @@
       <c r="H54">
         <v>1</v>
       </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
       <c r="J54">
         <v>1</v>
       </c>
@@ -11375,6 +17295,9 @@
       </c>
       <c r="H55" t="s">
         <v>64</v>
+      </c>
+      <c r="I55" t="s">
+        <v>227</v>
       </c>
       <c r="J55" t="s">
         <v>131</v>
@@ -11397,6 +17320,9 @@
         <v>82</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
       <c r="J56">

--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DAC963-AB8B-4CD2-96F2-F7BFC68D3963}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775F1098-E32D-4E43-8831-73A6589E3902}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Bus 30 Scenario 2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
     <sheet name="Resilience1" sheetId="6" r:id="rId5"/>
-    <sheet name="Resilience12" sheetId="7" r:id="rId6"/>
-    <sheet name="MST vs Routing" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
+    <sheet name="Resilience13" sheetId="11" r:id="rId6"/>
+    <sheet name="Resilience24" sheetId="7" r:id="rId7"/>
+    <sheet name="MST vs Routing" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="231">
   <si>
     <t>timestep</t>
   </si>
@@ -581,9 +582,6 @@
     <t>L-24-4</t>
   </si>
   <si>
-    <t>L-14-3</t>
-  </si>
-  <si>
     <t>Scenario5, Permuted Roads</t>
   </si>
   <si>
@@ -723,6 +721,18 @@
   </si>
   <si>
     <t>['L', 14, 4]</t>
+  </si>
+  <si>
+    <t>L-14-4</t>
+  </si>
+  <si>
+    <t>Interdiction based fortification</t>
+  </si>
+  <si>
+    <t>Heuristic based fortification</t>
+  </si>
+  <si>
+    <t>No fortification</t>
   </si>
 </sst>
 </file>
@@ -1450,6 +1460,476 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="555188128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Repair Curves by Resilience Method</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience24!$I$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interdict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience24!$I$34:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>172.75000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.720000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-352E-4294-86AE-1A60BCAED72D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience24!$J$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience24!$J$34:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>163.75000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.690000000000012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-352E-4294-86AE-1A60BCAED72D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience24!$K$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience24!$K$34:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>176.75000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-352E-4294-86AE-1A60BCAED72D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="484775744"/>
+        <c:axId val="484774432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484775744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484774432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484774432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484775744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4040,6 +4520,531 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience13!$F$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interdiction based fortification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience13!$F$35:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>190.60999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.820000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B6E-4D0C-A7BE-1CCB3D535251}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience13!$G$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic based fortification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience13!$G$35:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.550000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1900000000000013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B6E-4D0C-A7BE-1CCB3D535251}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience13!$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No fortification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience13!$H$35:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>201.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2B6E-4D0C-A7BE-1CCB3D535251}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="565423688"/>
+        <c:axId val="565425984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="565423688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shifts after the start of repair</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565425984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="565425984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Megawatts</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of unsatisfied Demand</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565423688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -4122,7 +5127,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$B$2:$B$8</c:f>
+              <c:f>Resilience24!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4174,7 +5179,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$C$2:$C$8</c:f>
+              <c:f>Resilience24!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4182,7 +5187,7 @@
                   <c:v>221.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51.7</c:v>
@@ -4226,7 +5231,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$D$2:$D$8</c:f>
+              <c:f>Resilience24!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4278,7 +5283,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$E$2:$E$8</c:f>
+              <c:f>Resilience24!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4330,7 +5335,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$F$2:$F$8</c:f>
+              <c:f>Resilience24!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4382,7 +5387,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$G$2:$G$8</c:f>
+              <c:f>Resilience24!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4436,7 +5441,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$H$2:$H$8</c:f>
+              <c:f>Resilience24!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4490,7 +5495,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$I$2:$I$8</c:f>
+              <c:f>Resilience24!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4544,7 +5549,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$J$2:$J$8</c:f>
+              <c:f>Resilience24!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4598,7 +5603,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$K$2:$K$8</c:f>
+              <c:f>Resilience24!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4834,7 +5839,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4931,7 +5936,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$B$12:$B$18</c:f>
+              <c:f>Resilience24!$B$12:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4983,7 +5988,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$C$12:$C$18</c:f>
+              <c:f>Resilience24!$C$12:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4991,7 +5996,7 @@
                   <c:v>181.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51.7</c:v>
@@ -5035,7 +6040,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$D$12:$D$18</c:f>
+              <c:f>Resilience24!$D$12:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5087,7 +6092,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$E$12:$E$18</c:f>
+              <c:f>Resilience24!$E$12:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5139,7 +6144,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$F$12:$F$18</c:f>
+              <c:f>Resilience24!$F$12:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5191,7 +6196,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$G$12:$G$18</c:f>
+              <c:f>Resilience24!$G$12:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5245,7 +6250,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$H$12:$H$18</c:f>
+              <c:f>Resilience24!$H$12:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5299,7 +6304,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$I$12:$I$18</c:f>
+              <c:f>Resilience24!$I$12:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5353,7 +6358,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$J$12:$J$18</c:f>
+              <c:f>Resilience24!$J$12:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5407,7 +6412,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$K$12:$K$18</c:f>
+              <c:f>Resilience24!$K$12:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5643,7 +6648,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5737,7 +6742,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$B$22:$B$28</c:f>
+              <c:f>Resilience24!$B$22:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5789,7 +6794,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$C$22:$C$28</c:f>
+              <c:f>Resilience24!$C$22:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5841,7 +6846,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$D$22:$D$28</c:f>
+              <c:f>Resilience24!$D$22:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5893,7 +6898,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$E$22:$E$28</c:f>
+              <c:f>Resilience24!$E$22:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5945,7 +6950,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$F$22:$F$28</c:f>
+              <c:f>Resilience24!$F$22:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5997,7 +7002,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$G$22:$G$28</c:f>
+              <c:f>Resilience24!$G$22:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6051,7 +7056,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$H$22:$H$28</c:f>
+              <c:f>Resilience24!$H$22:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6105,7 +7110,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$I$22:$I$28</c:f>
+              <c:f>Resilience24!$I$22:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6159,7 +7164,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$J$22:$J$28</c:f>
+              <c:f>Resilience24!$J$22:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6213,7 +7218,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience12!$K$22:$K$28</c:f>
+              <c:f>Resilience24!$K$22:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6449,477 +7454,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Repair Curves by Resilience Method</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resilience12!$I$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Interdict</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience12!$I$34:$I$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>172.75000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92.570000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46.720000000000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-352E-4294-86AE-1A60BCAED72D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resilience12!$J$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience12!$J$34:$J$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>163.75000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>84.990000000000009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-352E-4294-86AE-1A60BCAED72D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resilience12!$K$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience12!$K$34:$K$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>176.75000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.990000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.780000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-352E-4294-86AE-1A60BCAED72D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="484775744"/>
-        <c:axId val="484774432"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="484775744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="484774432"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="484774432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="484775744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7782,6 +8357,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -12049,6 +13140,47 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA0CB43-2BA9-446D-A159-9FCCFC825D76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12878,6 +14010,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C815582-E8F1-4E30-AA79-22A6929CBCDF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8219BB0E-3807-45E0-A80F-E0B818C19BC8}">
   <dimension ref="A1:F11"/>
@@ -13759,11 +14903,978 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD064C1-A619-4065-AA98-647D5AAE5057}">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>231.7</v>
+      </c>
+      <c r="C2">
+        <v>231.7</v>
+      </c>
+      <c r="D2">
+        <v>181.7</v>
+      </c>
+      <c r="E2">
+        <v>83.8</v>
+      </c>
+      <c r="F2">
+        <v>118.7</v>
+      </c>
+      <c r="G2">
+        <v>179.3</v>
+      </c>
+      <c r="H2">
+        <v>231.7</v>
+      </c>
+      <c r="I2">
+        <v>261.7</v>
+      </c>
+      <c r="J2">
+        <v>211.7</v>
+      </c>
+      <c r="K2">
+        <v>174.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>46.3</v>
+      </c>
+      <c r="C3">
+        <v>81.5</v>
+      </c>
+      <c r="D3">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E3">
+        <v>50.7</v>
+      </c>
+      <c r="F3">
+        <v>66.7</v>
+      </c>
+      <c r="G3">
+        <v>97.7</v>
+      </c>
+      <c r="H3">
+        <v>129.9</v>
+      </c>
+      <c r="I3">
+        <v>123.4</v>
+      </c>
+      <c r="J3">
+        <v>107.1</v>
+      </c>
+      <c r="K3">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>27.1</v>
+      </c>
+      <c r="C4">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>37.4</v>
+      </c>
+      <c r="E4">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F4">
+        <v>47.5</v>
+      </c>
+      <c r="G4">
+        <v>67.3</v>
+      </c>
+      <c r="H4">
+        <v>89.1</v>
+      </c>
+      <c r="I4">
+        <v>80</v>
+      </c>
+      <c r="J4">
+        <v>92.4</v>
+      </c>
+      <c r="K4">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>14.4</v>
+      </c>
+      <c r="C5">
+        <v>22.4</v>
+      </c>
+      <c r="D5">
+        <v>18.2</v>
+      </c>
+      <c r="E5">
+        <v>15.2</v>
+      </c>
+      <c r="F5">
+        <v>11.6</v>
+      </c>
+      <c r="G5">
+        <v>25.5</v>
+      </c>
+      <c r="H5">
+        <v>37.4</v>
+      </c>
+      <c r="I5">
+        <v>12.3</v>
+      </c>
+      <c r="J5">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="K5">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>15.4</v>
+      </c>
+      <c r="D6">
+        <v>3.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>8.1</v>
+      </c>
+      <c r="G6">
+        <v>10.6</v>
+      </c>
+      <c r="H6">
+        <v>28.2</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>15.4</v>
+      </c>
+      <c r="K6">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2.4</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>SUM(A2:A8)</f>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:K9" si="0">SUM(B2:B8)</f>
+        <v>325.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>399.39999999999992</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>313.2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>185.89999999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>259.39999999999998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>380.40000000000003</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>516.30000000000007</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>483.40000000000003</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>467.69999999999987</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>326.79999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>203.4</v>
+      </c>
+      <c r="C12">
+        <v>181.7</v>
+      </c>
+      <c r="D12">
+        <v>181.7</v>
+      </c>
+      <c r="E12">
+        <v>123.4</v>
+      </c>
+      <c r="F12">
+        <v>137.5</v>
+      </c>
+      <c r="G12">
+        <v>181.7</v>
+      </c>
+      <c r="H12">
+        <v>181.7</v>
+      </c>
+      <c r="I12">
+        <v>211.7</v>
+      </c>
+      <c r="J12">
+        <v>211.7</v>
+      </c>
+      <c r="K12">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C13">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>60.7</v>
+      </c>
+      <c r="E13">
+        <v>50.7</v>
+      </c>
+      <c r="F13">
+        <v>116.3</v>
+      </c>
+      <c r="G13">
+        <v>109.6</v>
+      </c>
+      <c r="H13">
+        <v>129.9</v>
+      </c>
+      <c r="I13">
+        <v>127.5</v>
+      </c>
+      <c r="J13">
+        <v>107.1</v>
+      </c>
+      <c r="K13">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>34.4</v>
+      </c>
+      <c r="C14">
+        <v>42.5</v>
+      </c>
+      <c r="D14">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E14">
+        <v>38.5</v>
+      </c>
+      <c r="F14">
+        <v>48.4</v>
+      </c>
+      <c r="G14">
+        <v>79.2</v>
+      </c>
+      <c r="H14">
+        <v>93</v>
+      </c>
+      <c r="I14">
+        <v>55.7</v>
+      </c>
+      <c r="J14">
+        <v>92.4</v>
+      </c>
+      <c r="K14">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14.4</v>
+      </c>
+      <c r="C15">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>15.2</v>
+      </c>
+      <c r="F15">
+        <v>22.2</v>
+      </c>
+      <c r="G15">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="H15">
+        <v>37.4</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="K15">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>8.4</v>
+      </c>
+      <c r="C16">
+        <v>7.4</v>
+      </c>
+      <c r="D16">
+        <v>3.5</v>
+      </c>
+      <c r="E16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F16">
+        <v>8.1</v>
+      </c>
+      <c r="G16">
+        <v>25.2</v>
+      </c>
+      <c r="H16">
+        <v>13.3</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>15.4</v>
+      </c>
+      <c r="K16">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2.4</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>SUM(A11:A17)</f>
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:K19" si="1">SUM(B11:B18)</f>
+        <v>343.39999999999992</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>319.49999999999994</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>295.09999999999997</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>339.3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>429.89999999999992</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>455.3</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>413.9</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>467.7999999999999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>428.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>253.4</v>
+      </c>
+      <c r="C22">
+        <v>231.7</v>
+      </c>
+      <c r="D22">
+        <v>181.7</v>
+      </c>
+      <c r="E22">
+        <v>123.4</v>
+      </c>
+      <c r="F22">
+        <v>137.5</v>
+      </c>
+      <c r="G22">
+        <v>181.7</v>
+      </c>
+      <c r="H22">
+        <v>231.7</v>
+      </c>
+      <c r="I22">
+        <v>261.7</v>
+      </c>
+      <c r="J22">
+        <v>211.7</v>
+      </c>
+      <c r="K22">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>166.9</v>
+      </c>
+      <c r="C23">
+        <v>104.3</v>
+      </c>
+      <c r="D23">
+        <v>60.7</v>
+      </c>
+      <c r="E23">
+        <v>50.7</v>
+      </c>
+      <c r="F23">
+        <v>101.9</v>
+      </c>
+      <c r="G23">
+        <v>109.6</v>
+      </c>
+      <c r="H23">
+        <v>181.7</v>
+      </c>
+      <c r="I23">
+        <v>123.4</v>
+      </c>
+      <c r="J23">
+        <v>107.1</v>
+      </c>
+      <c r="K23">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>46.3</v>
+      </c>
+      <c r="C24">
+        <v>62.6</v>
+      </c>
+      <c r="D24">
+        <v>37.4</v>
+      </c>
+      <c r="E24">
+        <v>38.5</v>
+      </c>
+      <c r="F24">
+        <v>57.9</v>
+      </c>
+      <c r="G24">
+        <v>83.6</v>
+      </c>
+      <c r="H24">
+        <v>123.4</v>
+      </c>
+      <c r="I24">
+        <v>104.7</v>
+      </c>
+      <c r="J24">
+        <v>92.4</v>
+      </c>
+      <c r="K24">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>43.4</v>
+      </c>
+      <c r="C25">
+        <v>27.6</v>
+      </c>
+      <c r="D25">
+        <v>26.3</v>
+      </c>
+      <c r="E25">
+        <v>15.2</v>
+      </c>
+      <c r="F25">
+        <v>29.2</v>
+      </c>
+      <c r="G25">
+        <v>46.9</v>
+      </c>
+      <c r="H25">
+        <v>42.8</v>
+      </c>
+      <c r="I25">
+        <v>16.5</v>
+      </c>
+      <c r="J25">
+        <v>50.9</v>
+      </c>
+      <c r="K25">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>15.5</v>
+      </c>
+      <c r="C26">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D26">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F26">
+        <v>8.1</v>
+      </c>
+      <c r="G26">
+        <v>16.5</v>
+      </c>
+      <c r="H26">
+        <v>16.5</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>15.4</v>
+      </c>
+      <c r="K26">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C27">
+        <v>2.4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2.4</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>SUM(A21:A27)</f>
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:K29" si="2">SUM(B21:B28)</f>
+        <v>527.70000000000005</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>447.5</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>315.29999999999995</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>341.40000000000003</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>438.29999999999995</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>609.09999999999991</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>512.29999999999995</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>479.89999999999986</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>455.70000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" ref="F35:F42" si="3">AVERAGE(B2:K2)</f>
+        <v>190.60999999999999</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G42" si="4">AVERAGE(B12:K12)</f>
+        <v>181.79000000000002</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H42" si="5">AVERAGE(B22:K22)</f>
+        <v>201.79000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>86.19</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>97.47999999999999</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>112.97</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>56.820000000000007</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>59.550000000000011</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>73.300000000000011</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>21.46</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>23.12</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>32.989999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>9.56</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>9.1900000000000013</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>0.22000000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>365.8</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>372.26999999999992</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>435.71999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946CCB79-A94E-4848-8DCC-31F38FA0F6DB}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="G23" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13813,7 +15924,7 @@
         <v>67.2</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>104.7</v>
@@ -14011,7 +16122,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>437.59999999999997</v>
+        <v>370.59999999999997</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -14045,14 +16156,6 @@
         <f t="shared" si="0"/>
         <v>355.09999999999997</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="O9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14068,7 +16171,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -14108,7 +16211,7 @@
         <v>93.5</v>
       </c>
       <c r="C13">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="D13">
         <v>104.7</v>
@@ -14306,7 +16409,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>330.59999999999997</v>
+        <v>397.59999999999997</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
@@ -14343,7 +16446,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -14618,13 +16721,13 @@
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" t="s">
         <v>223</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>224</v>
-      </c>
-      <c r="K33" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.25">
@@ -14644,11 +16747,11 @@
     <row r="35" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I35">
         <f t="shared" si="5"/>
-        <v>92.570000000000007</v>
+        <v>85.87</v>
       </c>
       <c r="J35">
         <f t="shared" si="6"/>
-        <v>84.990000000000009</v>
+        <v>91.690000000000012</v>
       </c>
       <c r="K35">
         <f t="shared" si="7"/>
@@ -14727,12 +16830,12 @@
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I41">
-        <f t="shared" si="5"/>
-        <v>307.66363636363644</v>
+        <f>AVERAGE(B9:L9)</f>
+        <v>331.73000000000008</v>
       </c>
       <c r="J41">
         <f t="shared" si="6"/>
-        <v>320.43</v>
+        <v>327.13</v>
       </c>
       <c r="K41">
         <f t="shared" si="7"/>
@@ -14746,7 +16849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA80CB-66C0-401E-9850-C46E94BA8684}">
   <dimension ref="A4:K58"/>
   <sheetViews>
@@ -15496,12 +17599,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F860931-E7EC-4A58-BCA4-59BD69D58A1B}">
   <dimension ref="A11:AJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15540,7 +17643,7 @@
         <v>137</v>
       </c>
       <c r="AD11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -15596,7 +17699,7 @@
         <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z12" t="s">
         <v>147</v>
@@ -15611,10 +17714,10 @@
         <v>2</v>
       </c>
       <c r="AG12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH12" t="s">
         <v>183</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
@@ -15667,7 +17770,7 @@
         <v>648</v>
       </c>
       <c r="AA13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AD13">
         <v>240.49999999999901</v>
@@ -15685,7 +17788,7 @@
         <v>240.5</v>
       </c>
       <c r="AJ13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -15747,7 +17850,7 @@
         <v>543</v>
       </c>
       <c r="AA14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD14">
         <v>211.49999999999901</v>
@@ -15765,7 +17868,7 @@
         <v>123.5</v>
       </c>
       <c r="AJ14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -15827,7 +17930,7 @@
         <v>118.1</v>
       </c>
       <c r="AA15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD15">
         <v>117.3</v>
@@ -15845,7 +17948,7 @@
         <v>93.5</v>
       </c>
       <c r="AJ15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -15907,7 +18010,7 @@
         <v>72.400000000000006</v>
       </c>
       <c r="AA16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD16">
         <v>87.3</v>
@@ -15925,7 +18028,7 @@
         <v>67.099999999999994</v>
       </c>
       <c r="AJ16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
@@ -15987,7 +18090,7 @@
         <v>38.799999999999997</v>
       </c>
       <c r="AA17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AD17">
         <v>69.299994199999901</v>
@@ -16005,7 +18108,7 @@
         <v>55.7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
@@ -16067,7 +18170,7 @@
         <v>38.799999999999997</v>
       </c>
       <c r="AA18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD18">
         <v>46.099994199999998</v>
@@ -16155,13 +18258,13 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AD21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s">
         <v>2</v>
       </c>
       <c r="AG21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH21" t="s">
         <v>147</v>
@@ -16169,7 +18272,7 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AD22">
         <v>240.49999999999901</v>
@@ -16187,7 +18290,7 @@
         <v>240.5</v>
       </c>
       <c r="AJ22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
@@ -16210,7 +18313,7 @@
         <v>123.5</v>
       </c>
       <c r="AJ23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
@@ -16233,7 +18336,7 @@
         <v>93.5</v>
       </c>
       <c r="AJ24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
@@ -16256,7 +18359,7 @@
         <v>75.5</v>
       </c>
       <c r="AJ25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
@@ -16273,7 +18376,7 @@
         <v>144</v>
       </c>
       <c r="Y26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AD26">
         <v>49.3</v>
@@ -16291,7 +18394,7 @@
         <v>49.2</v>
       </c>
       <c r="AJ26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -16341,7 +18444,7 @@
         <v>38.700000000000003</v>
       </c>
       <c r="AJ27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -16373,7 +18476,7 @@
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -16437,7 +18540,7 @@
         <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG30" t="s">
         <v>41</v>
@@ -16507,7 +18610,7 @@
         <v>1</v>
       </c>
       <c r="Y32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG32" t="s">
         <v>85</v>
@@ -16577,7 +18680,7 @@
         <v>1</v>
       </c>
       <c r="Y34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG34" t="s">
         <v>57</v>
@@ -16647,10 +18750,10 @@
         <v>1</v>
       </c>
       <c r="Y36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
@@ -16857,7 +18960,7 @@
         <v>1</v>
       </c>
       <c r="Y42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG42" t="s">
         <v>59</v>
@@ -16927,7 +19030,7 @@
         <v>1</v>
       </c>
       <c r="Y44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG44" t="s">
         <v>43</v>
@@ -17000,7 +19103,7 @@
         <v>49</v>
       </c>
       <c r="AG46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
@@ -17020,7 +19123,7 @@
         <v>131</v>
       </c>
       <c r="I47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J47" t="s">
         <v>129</v>
@@ -17067,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="Y48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG48" t="s">
         <v>70</v>
@@ -17137,10 +19240,10 @@
         <v>1</v>
       </c>
       <c r="Y50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
@@ -17207,7 +19310,7 @@
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG52" t="s">
         <v>96</v>
@@ -17277,7 +19380,7 @@
         <v>1</v>
       </c>
       <c r="Y54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG54" t="s">
         <v>37</v>
@@ -17297,13 +19400,13 @@
         <v>64</v>
       </c>
       <c r="I55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J55" t="s">
         <v>131</v>
       </c>
       <c r="L55" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -17332,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="Y56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG56" t="s">
         <v>75</v>
@@ -17357,7 +19460,7 @@
         <v>64</v>
       </c>
       <c r="AG58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
@@ -17370,7 +19473,7 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Y60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG60" t="s">
         <v>162</v>
@@ -17416,7 +19519,7 @@
     </row>
     <row r="68" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="33:33" x14ac:dyDescent="0.25">
@@ -17427,16 +19530,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C815582-E8F1-4E30-AA79-22A6929CBCDF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775F1098-E32D-4E43-8831-73A6589E3902}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E64BC6-832C-45C9-8DB8-53507D5F768B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="235">
   <si>
     <t>timestep</t>
   </si>
@@ -733,6 +733,18 @@
   </si>
   <si>
     <t>No fortification</t>
+  </si>
+  <si>
+    <t>With PI</t>
+  </si>
+  <si>
+    <t>Cheaty PI</t>
+  </si>
+  <si>
+    <t>Perfect Information</t>
+  </si>
+  <si>
+    <t>VOPI</t>
   </si>
 </sst>
 </file>
@@ -1460,476 +1472,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="555188128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Repair Curves by Resilience Method</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resilience24!$I$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Interdict</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$I$34:$I$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>172.75000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85.87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46.720000000000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-352E-4294-86AE-1A60BCAED72D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resilience24!$J$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$J$34:$J$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>163.75000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.690000000000012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-352E-4294-86AE-1A60BCAED72D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resilience24!$K$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$K$34:$K$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>176.75000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.990000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.780000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-352E-4294-86AE-1A60BCAED72D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="484775744"/>
-        <c:axId val="484774432"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="484775744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="484774432"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="484774432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="484775744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4520,531 +4062,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resilience13!$F$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Interdiction based fortification</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience13!$F$35:$F$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>190.60999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>86.19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.820000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22000000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B6E-4D0C-A7BE-1CCB3D535251}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resilience13!$G$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heuristic based fortification</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience13!$G$35:$G$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>181.79000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.47999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59.550000000000011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.1900000000000013</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22000000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B6E-4D0C-A7BE-1CCB3D535251}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resilience13!$H$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No fortification</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience13!$H$35:$H$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>201.79000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>112.97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.300000000000011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.989999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.46</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22000000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2B6E-4D0C-A7BE-1CCB3D535251}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="565423688"/>
-        <c:axId val="565425984"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="565423688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Shifts after the start of repair</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="565425984"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="565425984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Megawatts</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of unsatisfied Demand</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="565423688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -5066,12 +4083,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Loss</a:t>
+              <a:t>Average</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of load by Scenario under Interdiction based Resilience</a:t>
+              <a:t> Repair Curves by Resilience Method</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5113,6 +4131,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience24!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interdict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5127,27 +4156,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience24!$B$2:$B$8</c:f>
+              <c:f>Resilience24!$G$33:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>123.4</c:v>
+                  <c:v>168.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.2</c:v>
+                  <c:v>74.674999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.7</c:v>
+                  <c:v>41.105000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.7</c:v>
+                  <c:v>14.824999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4</c:v>
+                  <c:v>4.3250000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.2949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5158,13 +4187,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A6B-46D7-988E-EEA7274FD4DC}"/>
+              <c16:uniqueId val="{00000000-352E-4294-86AE-1A60BCAED72D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience24!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5179,30 +4219,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience24!$C$2:$C$8</c:f>
+              <c:f>Resilience24!$H$33:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>221.7</c:v>
+                  <c:v>171.50500000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>92.095000000000013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.7</c:v>
+                  <c:v>43.285000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.2</c:v>
+                  <c:v>18.254999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.1050000000000013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5210,13 +4250,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A6B-46D7-988E-EEA7274FD4DC}"/>
+              <c16:uniqueId val="{00000001-352E-4294-86AE-1A60BCAED72D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience24!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5231,27 +4282,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Resilience24!$D$2:$D$8</c:f>
+              <c:f>Resilience24!$I$33:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>174.1</c:v>
+                  <c:v>187.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104.7</c:v>
+                  <c:v>100.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.7</c:v>
+                  <c:v>53.090000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.2</c:v>
+                  <c:v>28.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1</c:v>
+                  <c:v>9.5100000000000016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5262,379 +4313,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2A6B-46D7-988E-EEA7274FD4DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>179.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2A6B-46D7-988E-EEA7274FD4DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>181.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2A6B-46D7-988E-EEA7274FD4DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$G$2:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>137.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2A6B-46D7-988E-EEA7274FD4DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$H$2:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>231.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2A6B-46D7-988E-EEA7274FD4DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$I$2:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>114.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-2A6B-46D7-988E-EEA7274FD4DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$J$2:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>181.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-2A6B-46D7-988E-EEA7274FD4DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$K$2:$K$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>181.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>104.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-2A6B-46D7-988E-EEA7274FD4DC}"/>
+              <c16:uniqueId val="{00000002-352E-4294-86AE-1A60BCAED72D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5647,11 +4326,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="611928648"/>
-        <c:axId val="611927992"/>
+        <c:axId val="484775744"/>
+        <c:axId val="484774432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="611928648"/>
+        <c:axId val="484775744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5693,7 +4372,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611927992"/>
+        <c:crossAx val="484774432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5701,7 +4380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="611927992"/>
+        <c:axId val="484774432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5752,1622 +4431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611928648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Loss of load by Scenario under Heuristic based Resilience</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$B$12:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>123.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B79E-41D7-AA11-04A55C9D3F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$C$12:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>181.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B79E-41D7-AA11-04A55C9D3F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$D$12:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>174.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>104.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B79E-41D7-AA11-04A55C9D3F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$E$12:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>179.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B79E-41D7-AA11-04A55C9D3F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$F$12:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>181.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B79E-41D7-AA11-04A55C9D3F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$G$12:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>137.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B79E-41D7-AA11-04A55C9D3F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$H$12:$H$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>181.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B79E-41D7-AA11-04A55C9D3F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$I$12:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>114.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B79E-41D7-AA11-04A55C9D3F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$J$12:$J$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>181.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B79E-41D7-AA11-04A55C9D3F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$K$12:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>181.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>104.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-B79E-41D7-AA11-04A55C9D3F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="611928976"/>
-        <c:axId val="611929632"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="611928976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="611929632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="611929632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="611928976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Loss of load by Scenario without resilience</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$B$22:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>123.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C49F-4523-BF3E-D26A719A2F93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$C$22:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>231.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C49F-4523-BF3E-D26A719A2F93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$D$22:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>174.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>104.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C49F-4523-BF3E-D26A719A2F93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$E$22:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>179.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C49F-4523-BF3E-D26A719A2F93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$F$22:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>181.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C49F-4523-BF3E-D26A719A2F93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$G$22:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>137.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C49F-4523-BF3E-D26A719A2F93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$H$22:$H$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>231.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C49F-4523-BF3E-D26A719A2F93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$I$22:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>114.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C49F-4523-BF3E-D26A719A2F93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$J$22:$J$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>181.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-C49F-4523-BF3E-D26A719A2F93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Resilience24!$K$22:$K$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>211.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-C49F-4523-BF3E-D26A719A2F93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="483194560"/>
-        <c:axId val="483198496"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="483194560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="483198496"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="483198496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="483194560"/>
+        <c:crossAx val="484775744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7455,46 +4519,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7734,126 +4758,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -8357,8 +5261,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8466,11 +5370,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8481,11 +5380,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8517,9 +5411,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8873,7 +5764,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9376,7 +6267,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9879,7 +6770,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10382,2058 +7273,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13143,155 +7983,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA0CB43-2BA9-446D-A159-9FCCFC825D76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11ABB6E4-A3DE-48B4-BDB7-42985592ABEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>42861</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5868AB4-1599-416C-9CA3-64FBC2ECD2BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>33336</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87D72B2-844E-45F5-BE5D-D099D832C94D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>33336</xdr:colOff>
       <xdr:row>78</xdr:row>
@@ -13320,7 +8011,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14904,23 +9595,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD064C1-A619-4065-AA98-647D5AAE5057}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>231.7</v>
       </c>
@@ -14951,8 +9643,41 @@
       <c r="K2">
         <v>174.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>201.7</v>
+      </c>
+      <c r="M2">
+        <v>211.7</v>
+      </c>
+      <c r="N2">
+        <v>167.5</v>
+      </c>
+      <c r="O2">
+        <v>231.7</v>
+      </c>
+      <c r="P2">
+        <v>181.7</v>
+      </c>
+      <c r="Q2">
+        <v>181.7</v>
+      </c>
+      <c r="R2">
+        <v>231.7</v>
+      </c>
+      <c r="S2">
+        <v>181.7</v>
+      </c>
+      <c r="T2">
+        <v>206.5</v>
+      </c>
+      <c r="U2">
+        <v>153.4</v>
+      </c>
+      <c r="V2">
+        <v>181.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>46.3</v>
       </c>
@@ -14983,8 +9708,41 @@
       <c r="K3">
         <v>86.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>81</v>
+      </c>
+      <c r="M3">
+        <v>137.5</v>
+      </c>
+      <c r="N3">
+        <v>127.5</v>
+      </c>
+      <c r="O3">
+        <v>114.7</v>
+      </c>
+      <c r="P3">
+        <v>107.1</v>
+      </c>
+      <c r="Q3">
+        <v>99.9</v>
+      </c>
+      <c r="R3">
+        <v>137.5</v>
+      </c>
+      <c r="S3">
+        <v>118.7</v>
+      </c>
+      <c r="T3">
+        <v>80</v>
+      </c>
+      <c r="U3">
+        <v>123.4</v>
+      </c>
+      <c r="V3">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>27.1</v>
       </c>
@@ -15015,8 +9773,41 @@
       <c r="K4">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>42.6</v>
+      </c>
+      <c r="M4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="N4">
+        <v>77.5</v>
+      </c>
+      <c r="O4">
+        <v>74.8</v>
+      </c>
+      <c r="P4">
+        <v>74.8</v>
+      </c>
+      <c r="Q4">
+        <v>65.7</v>
+      </c>
+      <c r="R4">
+        <v>95.9</v>
+      </c>
+      <c r="S4">
+        <v>45.1</v>
+      </c>
+      <c r="T4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="U4">
+        <v>104.7</v>
+      </c>
+      <c r="V4">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>14.4</v>
       </c>
@@ -15047,8 +9838,41 @@
       <c r="K5">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>10.8</v>
+      </c>
+      <c r="M5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N5">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="O5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P5">
+        <v>43</v>
+      </c>
+      <c r="Q5">
+        <v>13.2</v>
+      </c>
+      <c r="R5">
+        <v>78.3</v>
+      </c>
+      <c r="S5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="T5">
+        <v>18.7</v>
+      </c>
+      <c r="U5">
+        <v>49</v>
+      </c>
+      <c r="V5">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>6</v>
       </c>
@@ -15079,8 +9903,41 @@
       <c r="K6">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M6">
+        <v>5.9</v>
+      </c>
+      <c r="N6">
+        <v>37.4</v>
+      </c>
+      <c r="O6">
+        <v>4.8</v>
+      </c>
+      <c r="P6">
+        <v>15.4</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>34</v>
+      </c>
+      <c r="S6">
+        <v>2.4</v>
+      </c>
+      <c r="T6">
+        <v>2.4</v>
+      </c>
+      <c r="U6">
+        <v>36.4</v>
+      </c>
+      <c r="V6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -15111,8 +9968,41 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
+        <v>3.5</v>
+      </c>
+      <c r="O7">
+        <v>2.4</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R7">
+        <v>13</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>3.5</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -15143,14 +10033,47 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2.4</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>SUM(A2:A8)</f>
         <v>0</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:K9" si="0">SUM(B2:B8)</f>
+        <f t="shared" ref="B9:V9" si="0">SUM(B2:B8)</f>
         <v>325.5</v>
       </c>
       <c r="C9">
@@ -15189,13 +10112,57 @@
         <f t="shared" si="0"/>
         <v>326.79999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>338.3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>442.79999999999995</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>453.2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>436.7</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>421.99999999999994</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>374.5</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>590.4</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>366.79999999999995</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>342.9</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>470.4</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>203.4</v>
       </c>
@@ -15226,8 +10193,41 @@
       <c r="K12">
         <v>203.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>201.7</v>
+      </c>
+      <c r="M12">
+        <v>211.7</v>
+      </c>
+      <c r="N12">
+        <v>167.5</v>
+      </c>
+      <c r="O12">
+        <v>181.7</v>
+      </c>
+      <c r="P12">
+        <v>181.7</v>
+      </c>
+      <c r="Q12">
+        <v>181.7</v>
+      </c>
+      <c r="R12">
+        <v>181.7</v>
+      </c>
+      <c r="S12">
+        <v>181.7</v>
+      </c>
+      <c r="T12">
+        <v>179.3</v>
+      </c>
+      <c r="U12">
+        <v>211.7</v>
+      </c>
+      <c r="V12">
+        <v>181.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>80.599999999999994</v>
       </c>
@@ -15258,8 +10258,41 @@
       <c r="K13">
         <v>123.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>93.5</v>
+      </c>
+      <c r="M13">
+        <v>126.7</v>
+      </c>
+      <c r="N13">
+        <v>127.5</v>
+      </c>
+      <c r="O13">
+        <v>107.1</v>
+      </c>
+      <c r="P13">
+        <v>107.1</v>
+      </c>
+      <c r="Q13">
+        <v>76.3</v>
+      </c>
+      <c r="R13">
+        <v>94.6</v>
+      </c>
+      <c r="S13">
+        <v>123.4</v>
+      </c>
+      <c r="T13">
+        <v>57.7</v>
+      </c>
+      <c r="U13">
+        <v>153.4</v>
+      </c>
+      <c r="V13">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>34.4</v>
       </c>
@@ -15290,8 +10323,41 @@
       <c r="K14">
         <v>77.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>50.4</v>
+      </c>
+      <c r="M14">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="N14">
+        <v>77.5</v>
+      </c>
+      <c r="O14">
+        <v>57.7</v>
+      </c>
+      <c r="P14">
+        <v>74.8</v>
+      </c>
+      <c r="Q14">
+        <v>59.4</v>
+      </c>
+      <c r="R14">
+        <v>57.1</v>
+      </c>
+      <c r="S14">
+        <v>58.1</v>
+      </c>
+      <c r="T14">
+        <v>18</v>
+      </c>
+      <c r="U14">
+        <v>107.1</v>
+      </c>
+      <c r="V14">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14.4</v>
       </c>
@@ -15322,8 +10388,41 @@
       <c r="K15">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>10.8</v>
+      </c>
+      <c r="M15">
+        <v>29.5</v>
+      </c>
+      <c r="N15">
+        <v>60.2</v>
+      </c>
+      <c r="O15">
+        <v>5.9</v>
+      </c>
+      <c r="P15">
+        <v>43</v>
+      </c>
+      <c r="Q15">
+        <v>10.5</v>
+      </c>
+      <c r="R15">
+        <v>29.4</v>
+      </c>
+      <c r="S15">
+        <v>27.6</v>
+      </c>
+      <c r="T15">
+        <v>11.9</v>
+      </c>
+      <c r="U15">
+        <v>49.2</v>
+      </c>
+      <c r="V15">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>8.4</v>
       </c>
@@ -15354,8 +10453,41 @@
       <c r="K16">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M16">
+        <v>5.9</v>
+      </c>
+      <c r="N16">
+        <v>37.4</v>
+      </c>
+      <c r="O16">
+        <v>2.4</v>
+      </c>
+      <c r="P16">
+        <v>15.4</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>8.4</v>
+      </c>
+      <c r="S16">
+        <v>8.4</v>
+      </c>
+      <c r="T16">
+        <v>2.4</v>
+      </c>
+      <c r="U16">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="V16">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2.2000000000000002</v>
       </c>
@@ -15386,8 +10518,41 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2.4</v>
+      </c>
+      <c r="N17">
+        <v>3.5</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>5.9</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -15418,14 +10583,47 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>2.4</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>SUM(A11:A17)</f>
         <v>0</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:K19" si="1">SUM(B11:B18)</f>
+        <f t="shared" ref="B19:V19" si="1">SUM(B11:B18)</f>
         <v>343.39999999999992</v>
       </c>
       <c r="C19">
@@ -15464,13 +10662,57 @@
         <f t="shared" si="1"/>
         <v>428.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>358.59999999999997</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>450.09999999999991</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>473.59999999999997</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>354.7999999999999</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>421.99999999999994</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>341.9</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>371.19999999999993</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>399.20000000000005</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>269.29999999999995</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>566.1</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>253.4</v>
       </c>
@@ -15501,8 +10743,41 @@
       <c r="K22">
         <v>203.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>201.7</v>
+      </c>
+      <c r="M22">
+        <v>211.7</v>
+      </c>
+      <c r="N22">
+        <v>167.5</v>
+      </c>
+      <c r="O22">
+        <v>231.7</v>
+      </c>
+      <c r="P22">
+        <v>181.7</v>
+      </c>
+      <c r="Q22">
+        <v>181.7</v>
+      </c>
+      <c r="R22">
+        <v>231.7</v>
+      </c>
+      <c r="S22">
+        <v>181.7</v>
+      </c>
+      <c r="T22">
+        <v>229.3</v>
+      </c>
+      <c r="U22">
+        <v>211.7</v>
+      </c>
+      <c r="V22">
+        <v>181.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>166.9</v>
       </c>
@@ -15533,8 +10808,41 @@
       <c r="K23">
         <v>123.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>93.5</v>
+      </c>
+      <c r="M23">
+        <v>135.1</v>
+      </c>
+      <c r="N23">
+        <v>127.5</v>
+      </c>
+      <c r="O23">
+        <v>137.5</v>
+      </c>
+      <c r="P23">
+        <v>107.1</v>
+      </c>
+      <c r="Q23">
+        <v>99.9</v>
+      </c>
+      <c r="R23">
+        <v>137.5</v>
+      </c>
+      <c r="S23">
+        <v>123.4</v>
+      </c>
+      <c r="T23">
+        <v>112.3</v>
+      </c>
+      <c r="U23">
+        <v>153.4</v>
+      </c>
+      <c r="V23">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>46.3</v>
       </c>
@@ -15565,8 +10873,41 @@
       <c r="K24">
         <v>86.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>50.4</v>
+      </c>
+      <c r="M24">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="N24">
+        <v>103.8</v>
+      </c>
+      <c r="O24">
+        <v>84.3</v>
+      </c>
+      <c r="P24">
+        <v>74.8</v>
+      </c>
+      <c r="Q24">
+        <v>65.7</v>
+      </c>
+      <c r="R24">
+        <v>95.9</v>
+      </c>
+      <c r="S24">
+        <v>58.1</v>
+      </c>
+      <c r="T24">
+        <v>45.8</v>
+      </c>
+      <c r="U24">
+        <v>107.1</v>
+      </c>
+      <c r="V24">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>43.4</v>
       </c>
@@ -15597,8 +10938,41 @@
       <c r="K25">
         <v>31.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>10.8</v>
+      </c>
+      <c r="M25">
+        <v>42.8</v>
+      </c>
+      <c r="N25">
+        <v>62.6</v>
+      </c>
+      <c r="O25">
+        <v>34.9</v>
+      </c>
+      <c r="P25">
+        <v>43</v>
+      </c>
+      <c r="Q25">
+        <v>13.2</v>
+      </c>
+      <c r="R25">
+        <v>78.3</v>
+      </c>
+      <c r="S25">
+        <v>27.6</v>
+      </c>
+      <c r="T25">
+        <v>18.7</v>
+      </c>
+      <c r="U25">
+        <v>51.4</v>
+      </c>
+      <c r="V25">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>15.5</v>
       </c>
@@ -15629,8 +11003,41 @@
       <c r="K26">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M26">
+        <v>6.6</v>
+      </c>
+      <c r="N26">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="O26">
+        <v>5.9</v>
+      </c>
+      <c r="P26">
+        <v>15.4</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+      <c r="R26">
+        <v>34</v>
+      </c>
+      <c r="S26">
+        <v>8.4</v>
+      </c>
+      <c r="T26">
+        <v>2.4</v>
+      </c>
+      <c r="U26">
+        <v>22.1</v>
+      </c>
+      <c r="V26">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2.2000000000000002</v>
       </c>
@@ -15661,8 +11068,41 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>2.4</v>
+      </c>
+      <c r="N27">
+        <v>5.9</v>
+      </c>
+      <c r="O27">
+        <v>2.4</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R27">
+        <v>13</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>2.4</v>
+      </c>
+      <c r="V27">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0</v>
       </c>
@@ -15693,14 +11133,47 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>2.4</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>2.4</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>SUM(A21:A27)</f>
         <v>0</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:K29" si="2">SUM(B21:B28)</f>
+        <f t="shared" ref="B29:V29" si="2">SUM(B21:B28)</f>
         <v>527.70000000000005</v>
       </c>
       <c r="C29">
@@ -15739,8 +11212,57 @@
         <f t="shared" si="2"/>
         <v>455.70000000000005</v>
       </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>358.59999999999997</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>473.7</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>507.1</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>496.69999999999993</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>421.99999999999994</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>374.5</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>590.4</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>399.20000000000005</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>408.5</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>550.5</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>460.3</v>
+      </c>
+    </row>
+    <row r="33" spans="6:30" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>228</v>
       </c>
@@ -15750,131 +11272,447 @@
       <c r="H34" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>233</v>
+      </c>
+      <c r="M34">
+        <v>151</v>
+      </c>
+      <c r="N34">
+        <v>127.5</v>
+      </c>
+      <c r="O34">
+        <v>123.4</v>
+      </c>
+      <c r="P34">
+        <v>123.4</v>
+      </c>
+      <c r="Q34">
+        <v>123.4</v>
+      </c>
+      <c r="R34">
+        <v>123.4</v>
+      </c>
+      <c r="S34">
+        <v>123.4</v>
+      </c>
+      <c r="T34">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="U34">
+        <v>123.4</v>
+      </c>
+      <c r="V34">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="35" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F35">
-        <f t="shared" ref="F35:F42" si="3">AVERAGE(B2:K2)</f>
-        <v>190.60999999999999</v>
+        <f t="shared" ref="F35:F42" si="3">AVERAGE(B2:Y2)</f>
+        <v>192.24285714285708</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G42" si="4">AVERAGE(B12:K12)</f>
-        <v>181.79000000000002</v>
+        <f>AVERAGE(B12:Y12)</f>
+        <v>184.76190476190473</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H42" si="5">AVERAGE(B22:K22)</f>
-        <v>201.79000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B22:Y22)</f>
+        <v>201.42857142857139</v>
+      </c>
+      <c r="I35">
+        <f>AVERAGE(M34:V34)</f>
+        <v>127.55</v>
+      </c>
+      <c r="M35">
+        <v>116.3</v>
+      </c>
+      <c r="N35">
+        <v>113.7</v>
+      </c>
+      <c r="O35">
+        <v>76.3</v>
+      </c>
+      <c r="P35">
+        <v>65.8</v>
+      </c>
+      <c r="Q35">
+        <v>57.5</v>
+      </c>
+      <c r="R35">
+        <v>72</v>
+      </c>
+      <c r="S35">
+        <v>87.9</v>
+      </c>
+      <c r="T35">
+        <v>45.8</v>
+      </c>
+      <c r="U35">
+        <v>107.1</v>
+      </c>
+      <c r="V35">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="36" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>86.19</v>
+        <v>100.60000000000002</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
-        <v>97.47999999999999</v>
+        <f>AVERAGE(B13:Y13)</f>
+        <v>103.11904761904762</v>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
-        <v>112.97</v>
-      </c>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H36:H42" si="4">AVERAGE(B23:Y23)</f>
+        <v>118.10952380952382</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I41" si="5">AVERAGE(M35:V35)</f>
+        <v>82.9</v>
+      </c>
+      <c r="M36">
+        <v>78.58</v>
+      </c>
+      <c r="N36">
+        <v>62.5</v>
+      </c>
+      <c r="O36">
+        <v>24.7</v>
+      </c>
+      <c r="P36">
+        <v>42.5</v>
+      </c>
+      <c r="Q36">
+        <v>16.7</v>
+      </c>
+      <c r="R36">
+        <v>39.9</v>
+      </c>
+      <c r="S36">
+        <v>27.6</v>
+      </c>
+      <c r="T36">
+        <v>15.1</v>
+      </c>
+      <c r="U36">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="V36">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>56.820000000000007</v>
+        <v>64.671428571428564</v>
       </c>
       <c r="G37">
+        <f t="shared" ref="G37:G42" si="6">AVERAGE(B14:Y14)</f>
+        <v>61.838095238095221</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="4"/>
-        <v>59.550000000000011</v>
-      </c>
-      <c r="H37">
+        <v>75.966666666666669</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="5"/>
-        <v>73.300000000000011</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+        <v>43.027999999999999</v>
+      </c>
+      <c r="M37">
+        <v>10.5</v>
+      </c>
+      <c r="N37">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="O37">
+        <v>4.8</v>
+      </c>
+      <c r="P37">
+        <v>23.3</v>
+      </c>
+      <c r="Q37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R37">
+        <v>22.4</v>
+      </c>
+      <c r="S37">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="T37">
+        <v>11.9</v>
+      </c>
+      <c r="U37">
+        <v>43</v>
+      </c>
+      <c r="V37">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="38" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>21.46</v>
+        <v>25.614285714285714</v>
       </c>
       <c r="G38">
+        <f t="shared" si="6"/>
+        <v>25.409523809523805</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="4"/>
-        <v>23.12</v>
-      </c>
-      <c r="H38">
+        <v>35.704761904761909</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="5"/>
-        <v>32.989999999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+        <v>19.46</v>
+      </c>
+      <c r="M38">
+        <v>2.4</v>
+      </c>
+      <c r="N38">
+        <v>16.5</v>
+      </c>
+      <c r="O38">
+        <v>2.4</v>
+      </c>
+      <c r="P38">
+        <v>2.4</v>
+      </c>
+      <c r="Q38">
+        <v>2.4</v>
+      </c>
+      <c r="R38">
+        <v>2.4</v>
+      </c>
+      <c r="S38">
+        <v>2.4</v>
+      </c>
+      <c r="T38">
+        <v>2.4</v>
+      </c>
+      <c r="U38">
+        <v>15.7</v>
+      </c>
+      <c r="V38">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="39" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F39">
         <f t="shared" si="3"/>
-        <v>9.56</v>
+        <v>12.138095238095241</v>
       </c>
       <c r="G39">
+        <f t="shared" si="6"/>
+        <v>10.600000000000003</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="4"/>
-        <v>9.1900000000000013</v>
-      </c>
-      <c r="H39">
+        <v>13.266666666666667</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="5"/>
-        <v>11.99</v>
-      </c>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+        <v>5.1399999999999988</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>3.5</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>2.4</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>2.4</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F40">
         <f t="shared" si="3"/>
-        <v>0.94000000000000006</v>
+        <v>1.8476190476190475</v>
       </c>
       <c r="G40">
+        <f t="shared" si="6"/>
+        <v>1.2190476190476192</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="4"/>
-        <v>0.91999999999999993</v>
-      </c>
-      <c r="H40">
+        <v>2.7476190476190476</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="5"/>
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>0.22000000000000003</v>
+        <v>0.21904761904761902</v>
       </c>
       <c r="G41">
+        <f t="shared" si="6"/>
+        <v>0.21904761904761902</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="4"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="H41">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="5"/>
-        <v>0.22000000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41:AD41" si="7">SUM(M34:M40)</f>
+        <v>358.78</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>363.5</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>231.6</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="7"/>
+        <v>257.39999999999998</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="7"/>
+        <v>260.09999999999997</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>260.2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="7"/>
+        <v>208.4</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="7"/>
+        <v>369.2</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="7"/>
+        <v>272.89999999999998</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F42">
         <f t="shared" si="3"/>
-        <v>365.8</v>
+        <v>397.33333333333331</v>
       </c>
       <c r="G42">
+        <f t="shared" si="6"/>
+        <v>387.16666666666669</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="4"/>
-        <v>372.26999999999992</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="5"/>
-        <v>435.71999999999991</v>
+        <v>447.55714285714271</v>
+      </c>
+      <c r="I42">
+        <f>SUM(I35:I41)</f>
+        <v>278.90799999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946CCB79-A94E-4848-8DCC-31F38FA0F6DB}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15882,12 +11720,12 @@
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>123.4</v>
       </c>
@@ -15918,8 +11756,38 @@
       <c r="K2">
         <v>181.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>179.3</v>
+      </c>
+      <c r="M2">
+        <v>179.3</v>
+      </c>
+      <c r="N2">
+        <v>179.3</v>
+      </c>
+      <c r="O2">
+        <v>208.9</v>
+      </c>
+      <c r="P2">
+        <v>127.5</v>
+      </c>
+      <c r="Q2">
+        <v>162.9</v>
+      </c>
+      <c r="R2">
+        <v>123.4</v>
+      </c>
+      <c r="S2">
+        <v>181.7</v>
+      </c>
+      <c r="T2">
+        <v>181.7</v>
+      </c>
+      <c r="U2">
+        <v>114.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>67.2</v>
       </c>
@@ -15950,8 +11818,38 @@
       <c r="K3">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>43.9</v>
+      </c>
+      <c r="M3">
+        <v>86.8</v>
+      </c>
+      <c r="N3">
+        <v>86.8</v>
+      </c>
+      <c r="O3">
+        <v>92.4</v>
+      </c>
+      <c r="P3">
+        <v>40.1</v>
+      </c>
+      <c r="Q3">
+        <v>41.7</v>
+      </c>
+      <c r="R3">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="S3">
+        <v>37</v>
+      </c>
+      <c r="T3">
+        <v>63.6</v>
+      </c>
+      <c r="U3">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>43.7</v>
       </c>
@@ -15982,8 +11880,38 @@
       <c r="K4">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>22.2</v>
+      </c>
+      <c r="M4">
+        <v>68</v>
+      </c>
+      <c r="N4">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="O4">
+        <v>46</v>
+      </c>
+      <c r="P4">
+        <v>18.7</v>
+      </c>
+      <c r="Q4">
+        <v>22.2</v>
+      </c>
+      <c r="R4">
+        <v>34.9</v>
+      </c>
+      <c r="S4">
+        <v>25.1</v>
+      </c>
+      <c r="T4">
+        <v>18.7</v>
+      </c>
+      <c r="U4">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>16.7</v>
       </c>
@@ -16014,8 +11942,38 @@
       <c r="K5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>20.3</v>
+      </c>
+      <c r="O5">
+        <v>5.9</v>
+      </c>
+      <c r="P5">
+        <v>5.7</v>
+      </c>
+      <c r="Q5">
+        <v>10.5</v>
+      </c>
+      <c r="R5">
+        <v>12.7</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+      <c r="T5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="U5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2.4</v>
       </c>
@@ -16046,8 +12004,38 @@
       <c r="K6">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>5.9</v>
+      </c>
+      <c r="S6">
+        <v>2.4</v>
+      </c>
+      <c r="T6">
+        <v>2.4</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -16078,8 +12066,38 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>2.4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>2.4</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -16110,14 +12128,44 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>SUM(A2:A8)</f>
         <v>0</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:Q9" si="0">SUM(B2:B8)</f>
+        <f t="shared" ref="B9:U9" si="0">SUM(B2:B8)</f>
         <v>253.4</v>
       </c>
       <c r="C9">
@@ -16156,25 +12204,53 @@
         <f t="shared" si="0"/>
         <v>355.09999999999997</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>260.59999999999997</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>357.6</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>353.2</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>191.99999999999997</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>237.3</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>259.59999999999997</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>274.59999999999997</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>212.49999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>123.4</v>
       </c>
@@ -16205,8 +12281,38 @@
       <c r="K12">
         <v>181.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>179.3</v>
+      </c>
+      <c r="M12">
+        <v>181.7</v>
+      </c>
+      <c r="N12">
+        <v>181.7</v>
+      </c>
+      <c r="O12">
+        <v>123.4</v>
+      </c>
+      <c r="P12">
+        <v>193.4</v>
+      </c>
+      <c r="Q12">
+        <v>162.9</v>
+      </c>
+      <c r="R12">
+        <v>181.7</v>
+      </c>
+      <c r="S12">
+        <v>203.4</v>
+      </c>
+      <c r="T12">
+        <v>181.7</v>
+      </c>
+      <c r="U12">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>93.5</v>
       </c>
@@ -16237,8 +12343,38 @@
       <c r="K13">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>69.5</v>
+      </c>
+      <c r="M13">
+        <v>112.3</v>
+      </c>
+      <c r="N13">
+        <v>109.6</v>
+      </c>
+      <c r="O13">
+        <v>114.7</v>
+      </c>
+      <c r="P13">
+        <v>53.4</v>
+      </c>
+      <c r="Q13">
+        <v>41.7</v>
+      </c>
+      <c r="R13">
+        <v>104.7</v>
+      </c>
+      <c r="S13">
+        <v>123.4</v>
+      </c>
+      <c r="T13">
+        <v>114.7</v>
+      </c>
+      <c r="U13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>43.7</v>
       </c>
@@ -16269,8 +12405,38 @@
       <c r="K14">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>27.7</v>
+      </c>
+      <c r="M14">
+        <v>64.2</v>
+      </c>
+      <c r="N14">
+        <v>72.2</v>
+      </c>
+      <c r="O14">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="P14">
+        <v>27.4</v>
+      </c>
+      <c r="Q14">
+        <v>22.2</v>
+      </c>
+      <c r="R14">
+        <v>52.5</v>
+      </c>
+      <c r="S14">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="T14">
+        <v>24.6</v>
+      </c>
+      <c r="U14">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>16.7</v>
       </c>
@@ -16301,8 +12467,38 @@
       <c r="K15">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M15">
+        <v>23.2</v>
+      </c>
+      <c r="N15">
+        <v>49.4</v>
+      </c>
+      <c r="O15">
+        <v>2.4</v>
+      </c>
+      <c r="P15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q15">
+        <v>19</v>
+      </c>
+      <c r="R15">
+        <v>23.2</v>
+      </c>
+      <c r="S15">
+        <v>14.6</v>
+      </c>
+      <c r="T15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="U15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>6</v>
       </c>
@@ -16333,8 +12529,38 @@
       <c r="K16">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M16">
+        <v>3.5</v>
+      </c>
+      <c r="N16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>5.9</v>
+      </c>
+      <c r="S16">
+        <v>2.4</v>
+      </c>
+      <c r="T16">
+        <v>2.4</v>
+      </c>
+      <c r="U16">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -16365,8 +12591,38 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>2.4</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>3.5</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>2.4</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -16397,8 +12653,38 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>SUM(A11:A17)</f>
         <v>0</v>
@@ -16428,7 +12714,7 @@
         <v>243.3</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:K19" si="2">SUM(H11:H18)</f>
+        <f t="shared" ref="H19:U19" si="2">SUM(H11:H18)</f>
         <v>331.9</v>
       </c>
       <c r="I19">
@@ -16443,13 +12729,53 @@
         <f t="shared" si="2"/>
         <v>355.09999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>291.7</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>384.9</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>426.09999999999991</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>277.2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>282.39999999999998</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>245.8</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>367.99999999999994</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>331.59999999999997</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>348.29999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>123.4</v>
       </c>
@@ -16480,8 +12806,38 @@
       <c r="K22">
         <v>211.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>179.3</v>
+      </c>
+      <c r="M22">
+        <v>181.7</v>
+      </c>
+      <c r="N22">
+        <v>211.7</v>
+      </c>
+      <c r="O22">
+        <v>231.7</v>
+      </c>
+      <c r="P22">
+        <v>193.4</v>
+      </c>
+      <c r="Q22">
+        <v>192.9</v>
+      </c>
+      <c r="R22">
+        <v>181.7</v>
+      </c>
+      <c r="S22">
+        <v>203.4</v>
+      </c>
+      <c r="T22">
+        <v>181.7</v>
+      </c>
+      <c r="U22">
+        <v>233.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>82.1</v>
       </c>
@@ -16512,8 +12868,38 @@
       <c r="K23">
         <v>127.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>70.2</v>
+      </c>
+      <c r="M23">
+        <v>112.3</v>
+      </c>
+      <c r="N23">
+        <v>135.1</v>
+      </c>
+      <c r="O23">
+        <v>114.7</v>
+      </c>
+      <c r="P23">
+        <v>83.6</v>
+      </c>
+      <c r="Q23">
+        <v>71.7</v>
+      </c>
+      <c r="R23">
+        <v>104.7</v>
+      </c>
+      <c r="S23">
+        <v>123.4</v>
+      </c>
+      <c r="T23">
+        <v>123.4</v>
+      </c>
+      <c r="U23">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>58.5</v>
       </c>
@@ -16544,8 +12930,38 @@
       <c r="K24">
         <v>86.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>29.7</v>
+      </c>
+      <c r="M24">
+        <v>64.2</v>
+      </c>
+      <c r="N24">
+        <v>96.7</v>
+      </c>
+      <c r="O24">
+        <v>57.1</v>
+      </c>
+      <c r="P24">
+        <v>27.4</v>
+      </c>
+      <c r="Q24">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="R24">
+        <v>52.5</v>
+      </c>
+      <c r="S24">
+        <v>37</v>
+      </c>
+      <c r="T24">
+        <v>21.1</v>
+      </c>
+      <c r="U24">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>26.2</v>
       </c>
@@ -16576,8 +12992,38 @@
       <c r="K25">
         <v>35.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>11.4</v>
+      </c>
+      <c r="M25">
+        <v>31.9</v>
+      </c>
+      <c r="N25">
+        <v>66.3</v>
+      </c>
+      <c r="O25">
+        <v>16.5</v>
+      </c>
+      <c r="P25">
+        <v>18.7</v>
+      </c>
+      <c r="Q25">
+        <v>22.2</v>
+      </c>
+      <c r="R25">
+        <v>23.2</v>
+      </c>
+      <c r="S25">
+        <v>30.8</v>
+      </c>
+      <c r="T25">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="U25">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>9.5</v>
       </c>
@@ -16608,8 +13054,38 @@
       <c r="K26">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M26">
+        <v>12.7</v>
+      </c>
+      <c r="N26">
+        <v>20.3</v>
+      </c>
+      <c r="O26">
+        <v>2.4</v>
+      </c>
+      <c r="P26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q26">
+        <v>10.5</v>
+      </c>
+      <c r="R26">
+        <v>5.9</v>
+      </c>
+      <c r="S26">
+        <v>8.4</v>
+      </c>
+      <c r="T26">
+        <v>2.4</v>
+      </c>
+      <c r="U26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2.4</v>
       </c>
@@ -16640,8 +13116,38 @@
       <c r="K27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>2.4</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0</v>
       </c>
@@ -16672,8 +13178,38 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>SUM(A21:A27)</f>
         <v>0</v>
@@ -16703,7 +13239,7 @@
         <v>253.4</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:K29" si="4">SUM(H21:H28)</f>
+        <f t="shared" ref="H29:U29" si="4">SUM(H21:H28)</f>
         <v>490.89999999999992</v>
       </c>
       <c r="I29">
@@ -16718,128 +13254,458 @@
         <f t="shared" si="4"/>
         <v>482.69999999999993</v>
       </c>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>297.39999999999998</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>402.79999999999995</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>539.79999999999995</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>422.4</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>325.29999999999995</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>370.39999999999992</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>403</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="4"/>
+        <v>336.8</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>442.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
         <v>222</v>
       </c>
-      <c r="J33" t="s">
+      <c r="H32" t="s">
         <v>223</v>
       </c>
-      <c r="K33" t="s">
+      <c r="I32" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="L32">
+        <v>96.7</v>
+      </c>
+      <c r="M32">
+        <v>123.4</v>
+      </c>
+      <c r="N32">
+        <v>133.4</v>
+      </c>
+      <c r="O32">
+        <v>123.4</v>
+      </c>
+      <c r="P32">
+        <v>40.1</v>
+      </c>
+      <c r="Q32">
+        <v>123.4</v>
+      </c>
+      <c r="R32">
+        <v>123.4</v>
+      </c>
+      <c r="S32">
+        <v>123.4</v>
+      </c>
+      <c r="T32">
+        <v>123.4</v>
+      </c>
+      <c r="U32">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="33" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f>AVERAGE(B2:U2)</f>
+        <v>168.31</v>
+      </c>
+      <c r="H33">
+        <f>AVERAGE(B12:U12)</f>
+        <v>171.50500000000002</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE(B22:U22)</f>
+        <v>187.92</v>
+      </c>
+      <c r="J33">
+        <f>AVERAGE(L32:U32)</f>
+        <v>107.4</v>
+      </c>
+      <c r="L33">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="M33">
+        <v>68</v>
+      </c>
+      <c r="N33">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="O33">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="P33">
+        <v>18.7</v>
+      </c>
+      <c r="Q33">
+        <v>40.6</v>
+      </c>
+      <c r="R33">
+        <v>34.9</v>
+      </c>
+      <c r="S33">
+        <v>30.8</v>
+      </c>
+      <c r="T33">
+        <v>18.7</v>
+      </c>
+      <c r="U33">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" ref="G34:G39" si="5">AVERAGE(B3:U3)</f>
+        <v>74.674999999999997</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H39" si="6">AVERAGE(B13:U13)</f>
+        <v>92.095000000000013</v>
+      </c>
       <c r="I34">
-        <f t="shared" ref="I34:I41" si="5">AVERAGE(B2:L2)</f>
-        <v>172.75000000000003</v>
+        <f t="shared" ref="I34:I39" si="7">AVERAGE(B23:U23)</f>
+        <v>100.95</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J41" si="6">AVERAGE(B12:L12)</f>
-        <v>163.75000000000003</v>
-      </c>
-      <c r="K34">
-        <f t="shared" ref="K34:K41" si="7">AVERAGE(B22:L22)</f>
-        <v>176.75000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J34:J40" si="8">AVERAGE(L33:U33)</f>
+        <v>39.880000000000003</v>
+      </c>
+      <c r="L34">
+        <v>13</v>
+      </c>
+      <c r="M34">
+        <v>23.2</v>
+      </c>
+      <c r="N34">
+        <v>32.5</v>
+      </c>
+      <c r="O34">
+        <v>2.4</v>
+      </c>
+      <c r="P34">
+        <v>6</v>
+      </c>
+      <c r="Q34">
+        <v>15.1</v>
+      </c>
+      <c r="R34">
+        <v>20</v>
+      </c>
+      <c r="S34">
+        <v>15.7</v>
+      </c>
+      <c r="T34">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="U34">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="35" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>41.105000000000011</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>43.285000000000011</v>
+      </c>
       <c r="I35">
+        <f t="shared" si="7"/>
+        <v>53.090000000000011</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="8"/>
+        <v>15.26</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <v>9.5</v>
+      </c>
+      <c r="N35">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>9.5</v>
+      </c>
+      <c r="R35">
+        <v>5.9</v>
+      </c>
+      <c r="S35">
+        <v>2.4</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="36" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G36">
         <f t="shared" si="5"/>
-        <v>85.87</v>
-      </c>
-      <c r="J35">
+        <v>14.824999999999999</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="6"/>
-        <v>91.690000000000012</v>
-      </c>
-      <c r="K35">
+        <v>18.254999999999999</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="7"/>
-        <v>96.89</v>
-      </c>
-    </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I36">
+        <v>28.27</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="8"/>
+        <v>4.54</v>
+      </c>
+      <c r="L36">
+        <v>2.4</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G37">
         <f t="shared" si="5"/>
-        <v>46.720000000000006</v>
-      </c>
-      <c r="J36">
+        <v>4.3250000000000011</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="6"/>
-        <v>45.59</v>
-      </c>
-      <c r="K36">
+        <v>4.1050000000000013</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="7"/>
-        <v>59.489999999999995</v>
-      </c>
-    </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I37">
+        <v>9.5100000000000016</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="8"/>
+        <v>0.24</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G38">
         <f t="shared" si="5"/>
-        <v>18.48</v>
-      </c>
-      <c r="J37">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="6"/>
-        <v>19.57</v>
-      </c>
-      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="7"/>
-        <v>29.990000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I38">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G39">
         <f t="shared" si="5"/>
-        <v>5.7999999999999989</v>
-      </c>
-      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="6"/>
-        <v>5.1199999999999992</v>
-      </c>
-      <c r="K38">
+        <v>0.12</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="7"/>
-        <v>10.780000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I39">
-        <f t="shared" si="5"/>
-        <v>2.1100000000000003</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <f t="shared" si="6"/>
-        <v>1.17</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="7"/>
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>SUM(L32:L38)</f>
+        <v>152.80000000000001</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39:U39" si="9">SUM(M32:M38)</f>
+        <v>224.1</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="9"/>
+        <v>249.5</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="9"/>
+        <v>164.50000000000003</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="9"/>
+        <v>64.8</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="9"/>
+        <v>188.6</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="9"/>
+        <v>184.20000000000002</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="9"/>
+        <v>172.3</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="9"/>
+        <v>150.29999999999998</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="9"/>
+        <v>122.1</v>
+      </c>
+    </row>
+    <row r="40" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f>AVERAGE(B9:U9)</f>
+        <v>304.53500000000003</v>
+      </c>
+      <c r="H40">
+        <f>AVERAGE(B19:U19)</f>
+        <v>330.36500000000001</v>
+      </c>
       <c r="I40">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>AVERAGE(B29:U29)</f>
+        <v>381.74999999999994</v>
       </c>
       <c r="J40">
-        <f t="shared" si="6"/>
-        <v>0.24</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I41">
-        <f>AVERAGE(B9:L9)</f>
-        <v>331.73000000000008</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="6"/>
-        <v>327.13</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="7"/>
-        <v>376.48999999999995</v>
+        <f t="shared" si="8"/>
+        <v>167.32</v>
       </c>
     </row>
   </sheetData>

--- a/PowerGridResearch/Code/DCPF-MST/data.xlsx
+++ b/PowerGridResearch/Code/DCPF-MST/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian French\Documents\GitHub\PowerGridResearch\PowerGridResearch\Code\DCPF-MST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E64BC6-832C-45C9-8DB8-53507D5F768B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFFE85-0AE6-43E0-A138-473438F8BB0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
+    <workbookView xWindow="57480" yWindow="-165" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{F89CF7D2-7D69-49DF-9B99-C93E6F5D4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus 30" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Resilience24" sheetId="7" r:id="rId7"/>
     <sheet name="MST vs Routing" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="233">
   <si>
     <t>timestep</t>
   </si>
@@ -390,12 +391,6 @@
     <t>Road First</t>
   </si>
   <si>
-    <t>No Road Damage</t>
-  </si>
-  <si>
-    <t>No Road Repair</t>
-  </si>
-  <si>
     <t>['N', 29, 2]</t>
   </si>
   <si>
@@ -438,21 +433,6 @@
     <t>['L', 14, 3]</t>
   </si>
   <si>
-    <t>no travel time</t>
-  </si>
-  <si>
-    <t>no travel</t>
-  </si>
-  <si>
-    <t>no roads</t>
-  </si>
-  <si>
-    <t>Damaged Roads</t>
-  </si>
-  <si>
-    <t>no road repair</t>
-  </si>
-  <si>
     <t>Scenario4 (57 bus)</t>
   </si>
   <si>
@@ -585,15 +565,6 @@
     <t>Scenario5, Permuted Roads</t>
   </si>
   <si>
-    <t>Analogous Base Case Roads</t>
-  </si>
-  <si>
-    <t>No Roads</t>
-  </si>
-  <si>
-    <t>PostProcessed</t>
-  </si>
-  <si>
     <t>['L', 20, 0]</t>
   </si>
   <si>
@@ -708,15 +679,6 @@
     <t>No Resilience</t>
   </si>
   <si>
-    <t>Interdict</t>
-  </si>
-  <si>
-    <t>Heuristic</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>['L', 20, 3]</t>
   </si>
   <si>
@@ -726,25 +688,58 @@
     <t>L-14-4</t>
   </si>
   <si>
-    <t>Interdiction based fortification</t>
-  </si>
-  <si>
-    <t>Heuristic based fortification</t>
-  </si>
-  <si>
-    <t>No fortification</t>
-  </si>
-  <si>
     <t>With PI</t>
   </si>
   <si>
     <t>Cheaty PI</t>
   </si>
   <si>
-    <t>Perfect Information</t>
-  </si>
-  <si>
-    <t>VOPI</t>
+    <t>Interdiction based resilience</t>
+  </si>
+  <si>
+    <t>Heuristic based resilience</t>
+  </si>
+  <si>
+    <t>Resilience with perfect information</t>
+  </si>
+  <si>
+    <t>No resilience</t>
+  </si>
+  <si>
+    <t>Interdiction Based Resilience</t>
+  </si>
+  <si>
+    <t>Resilience with Perfect Information</t>
+  </si>
+  <si>
+    <t>Solve Road First</t>
+  </si>
+  <si>
+    <t>Uncoordinated Repairs</t>
+  </si>
+  <si>
+    <t>Solve Power First (No Road Damage with Delay)</t>
+  </si>
+  <si>
+    <t>Lower Bound (No Travel Time)</t>
+  </si>
+  <si>
+    <t>Heuristic (Post Processed)</t>
+  </si>
+  <si>
+    <t>[[[5, 0, 'node']], [[12, 0, 'edge']], [[7, 0, 'edge']], [[0, 0, 'edge']], [[4, 0, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[3, 0, 'edge']], [[16, 1, 'node']], [[27, 1, 'edge']], [[23, 0, 'edge']], [[26, 0, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[14, 1, 'node']], [[9, 1, 'edge']], [[35, 2, 'edge']], [[34, 2, 'edge']]]</t>
+  </si>
+  <si>
+    <t>[[[23, 2, 'node']], [[24, 3, 'node']]]</t>
+  </si>
+  <si>
+    <t>[[[18, 3, 'node']], [[29, 3, 'edge']], [[32, 4, 'edge']], [[31, 4, 'edge']]]</t>
   </si>
 </sst>
 </file>
@@ -1472,6 +1467,715 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="555188128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1872044043275083E-2"/>
+          <c:y val="7.6271075123463414E-2"/>
+          <c:w val="0.90511982587542406"/>
+          <c:h val="0.74395972985826486"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AD$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solve Road First</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AD$13:$AD$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>240.49999999999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.49999999999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.299994199999901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.099994199999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-820C-470D-9606-19C4E8E8E08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AE$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solve Power First (No Road Damage with Delay)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AE$13:$AE$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>240.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.49999999999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.399999457019597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.6999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-820C-470D-9606-19C4E8E8E08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AF$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower Bound (No Travel Time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AF$13:$AF$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>240.49999999999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.399999999999901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4999999999999898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-820C-470D-9606-19C4E8E8E08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AG$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uncoordinated Repairs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AG$13:$AG$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>240.49999999999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.49999999999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.300000000002896</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-820C-470D-9606-19C4E8E8E08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AH$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic (Post Processed)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AH$13:$AH$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>240.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-820C-470D-9606-19C4E8E8E08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="718145848"/>
+        <c:axId val="718146504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="718145848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shifts</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> after the start of repair</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718146504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="718146504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Megawatts</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Demand Shed</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718145848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4062,6 +4766,640 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience13!$F$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interdiction Based Resilience</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience13!$F$35:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>192.24285714285708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.671428571428564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.614285714285714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.138095238095241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8476190476190475</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21904761904761902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06AC-4AA5-A40B-1269F3F673D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience13!$G$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic Resilience</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience13!$G$35:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>184.76190476190473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.11904761904762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.838095238095221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.409523809523805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2190476190476192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21904761904761902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06AC-4AA5-A40B-1269F3F673D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience13!$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Resilience</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience13!$H$35:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>201.42857142857139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.10952380952382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.966666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.704761904761909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7476190476190476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06AC-4AA5-A40B-1269F3F673D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience13!$I$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resilience with Perfect Information</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience13!$I$35:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>127.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1399999999999988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06AC-4AA5-A40B-1269F3F673D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="633949616"/>
+        <c:axId val="633944040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633949616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shifts</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> after the start of repairs</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633944040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633944040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of unsatisfied demand</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633949616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -4137,7 +5475,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Interdict</c:v>
+                  <c:v>Interdiction based resilience</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4200,7 +5538,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heuristic</c:v>
+                  <c:v>Heuristic based resilience</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4263,7 +5601,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No</c:v>
+                  <c:v>No resilience</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4518,7 +5856,1275 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience24!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interdiction based resilience</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience24!$G$33:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>168.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.674999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.105000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3250000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B788-4889-8B99-28D5740C43AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience24!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic based resilience</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience24!$H$33:$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>171.50500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.095000000000013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.285000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.254999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1050000000000013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B788-4889-8B99-28D5740C43AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience24!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No resilience</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience24!$I$33:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>187.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.090000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5100000000000016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B788-4889-8B99-28D5740C43AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resilience24!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resilience with perfect information</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience24!$J$33:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>107.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B788-4889-8B99-28D5740C43AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="427120912"/>
+        <c:axId val="427121240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="427120912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shifts after the Start of Repair</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427121240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="427121240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MW of unsatisfied Demand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427120912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Inderdiction Based Resilience</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience24!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>208.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59F6-43E5-BEA3-0DCE1ECB31F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Heuristic Resilience</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience24!$O$12:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>123.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-59F6-43E5-BEA3-0DCE1ECB31F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>No Resilience</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience24!$O$22:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>231.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-59F6-43E5-BEA3-0DCE1ECB31F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Resilience With Perfect Information</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Resilience24!$O$32:$O$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>123.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-59F6-43E5-BEA3-0DCE1ECB31F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="634532408"/>
+        <c:axId val="562619104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="634532408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shifts</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> after the start of repairs</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562619104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562619104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MW</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of unsatisfied demand</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="634532408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4758,6 +7364,123 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5261,8 +7984,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5370,6 +8093,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5380,6 +8108,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5411,6 +8144,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5764,7 +8500,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6267,7 +9003,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6770,7 +9506,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7273,8 +10009,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7382,11 +10118,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7397,11 +10128,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7433,9 +10159,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7784,6 +10507,2175 @@
       <a:ln>
         <a:noFill/>
       </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -7983,6 +12875,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A64CA9-4D01-4A24-AB6F-F0DE23CDE98B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>33336</xdr:colOff>
       <xdr:row>78</xdr:row>
@@ -8000,6 +12933,119 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E726FD-B4C6-4CB3-8BFF-77BDF0FC7B5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36782A86-26DF-4E08-8F10-5F4798431463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDAEF6E-BED4-4E6F-973E-E04191EEEA8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>990599</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D9E4E3-2A33-4EF1-8C8F-F82F75EF8C9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8702,6 +13748,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530A9E4A-9BDC-4EC0-A668-20474C054744}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C815582-E8F1-4E30-AA79-22A6929CBCDF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8718,7 +13776,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9597,8 +14655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD064C1-A619-4065-AA98-647D5AAE5057}">
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10159,7 +15217,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -10709,7 +15767,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -11259,21 +16317,21 @@
     </row>
     <row r="33" spans="6:30" x14ac:dyDescent="0.25">
       <c r="L33" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G34" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="H34" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="I34" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="M34">
         <v>151</v>
@@ -11704,6 +16762,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11711,8 +16770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946CCB79-A94E-4848-8DCC-31F38FA0F6DB}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI41" sqref="AI41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12247,7 +17306,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -12772,7 +17831,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -13297,21 +18356,21 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H32" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="L32">
         <v>96.7</v>
@@ -14469,8 +19528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F860931-E7EC-4A58-BCA4-59BD69D58A1B}">
   <dimension ref="A11:AJ69"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="V16" workbookViewId="0">
+      <selection activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14478,19 +19537,21 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="79" customWidth="1"/>
     <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="74.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -14500,96 +19561,102 @@
         <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AD11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="Q12" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="R12" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="S12" t="s">
-        <v>135</v>
+        <v>224</v>
+      </c>
+      <c r="T12" t="s">
+        <v>227</v>
       </c>
       <c r="V12" t="s">
         <v>115</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="Z12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AD12" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="AE12" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="AF12" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="AG12" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="AH12" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>187.69999999999899</v>
       </c>
+      <c r="B13">
+        <v>187.7</v>
+      </c>
       <c r="C13">
         <v>187.69999999999899</v>
       </c>
@@ -14602,11 +19669,14 @@
       <c r="H13">
         <v>219.69999999999399</v>
       </c>
+      <c r="I13">
+        <v>219.7</v>
+      </c>
       <c r="J13">
+        <v>219.69999999999399</v>
+      </c>
+      <c r="K13">
         <v>219.7</v>
-      </c>
-      <c r="K13">
-        <v>219.69999999999399</v>
       </c>
       <c r="L13">
         <v>219.7</v>
@@ -14614,12 +19684,18 @@
       <c r="P13">
         <v>181.70000000000101</v>
       </c>
+      <c r="Q13">
+        <v>181.7</v>
+      </c>
       <c r="R13">
         <v>181.69999999998899</v>
       </c>
       <c r="S13">
         <v>181.69999999998899</v>
       </c>
+      <c r="T13">
+        <v>181.7</v>
+      </c>
       <c r="V13">
         <v>647.99999999999898</v>
       </c>
@@ -14636,16 +19712,16 @@
         <v>648</v>
       </c>
       <c r="AA13" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AD13">
         <v>240.49999999999901</v>
       </c>
       <c r="AE13">
+        <v>240.5</v>
+      </c>
+      <c r="AF13">
         <v>240.49999999999901</v>
-      </c>
-      <c r="AF13">
-        <v>240.5</v>
       </c>
       <c r="AG13">
         <v>240.49999999999901</v>
@@ -14654,7 +19730,7 @@
         <v>240.5</v>
       </c>
       <c r="AJ13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -14680,10 +19756,10 @@
         <v>219.69999999999399</v>
       </c>
       <c r="J14">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="K14">
         <v>38.199999999999903</v>
-      </c>
-      <c r="K14">
-        <v>70.400000000000006</v>
       </c>
       <c r="L14">
         <v>132.4</v>
@@ -14700,6 +19776,9 @@
       <c r="S14">
         <v>98.7</v>
       </c>
+      <c r="T14">
+        <v>133.69999999999999</v>
+      </c>
       <c r="V14">
         <v>140.09999999984501</v>
       </c>
@@ -14716,25 +19795,25 @@
         <v>543</v>
       </c>
       <c r="AA14" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AD14">
         <v>211.49999999999901</v>
       </c>
       <c r="AE14">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AF14">
+        <v>93.5</v>
+      </c>
+      <c r="AG14">
         <v>211.49999999999901</v>
       </c>
-      <c r="AF14">
-        <v>240.49999999999901</v>
-      </c>
-      <c r="AG14">
-        <v>93.5</v>
-      </c>
       <c r="AH14">
-        <v>123.5</v>
+        <v>211.5</v>
       </c>
       <c r="AJ14" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -14760,10 +19839,10 @@
         <v>68.2</v>
       </c>
       <c r="J15">
+        <v>40.4</v>
+      </c>
+      <c r="K15">
         <v>13</v>
-      </c>
-      <c r="K15">
-        <v>40.4</v>
       </c>
       <c r="L15">
         <v>38.200000000000003</v>
@@ -14780,6 +19859,9 @@
       <c r="S15">
         <v>66.699998449999995</v>
       </c>
+      <c r="T15">
+        <v>51.5</v>
+      </c>
       <c r="V15">
         <v>72.349999999999895</v>
       </c>
@@ -14796,7 +19878,7 @@
         <v>118.1</v>
       </c>
       <c r="AA15" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AD15">
         <v>117.3</v>
@@ -14805,16 +19887,16 @@
         <v>117.3</v>
       </c>
       <c r="AF15">
+        <v>55.8</v>
+      </c>
+      <c r="AG15">
         <v>117.3</v>
       </c>
-      <c r="AG15">
-        <v>55.8</v>
-      </c>
       <c r="AH15">
-        <v>93.5</v>
+        <v>123.5</v>
       </c>
       <c r="AJ15" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -14840,10 +19922,10 @@
         <v>29.5</v>
       </c>
       <c r="J16">
+        <v>25.2</v>
+      </c>
+      <c r="K16">
         <v>3.5</v>
-      </c>
-      <c r="K16">
-        <v>25.2</v>
       </c>
       <c r="L16">
         <v>13</v>
@@ -14860,6 +19942,9 @@
       <c r="S16">
         <v>51.5</v>
       </c>
+      <c r="T16">
+        <v>40.1</v>
+      </c>
       <c r="V16">
         <v>45.099999999999902</v>
       </c>
@@ -14876,25 +19961,25 @@
         <v>72.400000000000006</v>
       </c>
       <c r="AA16" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AD16">
         <v>87.3</v>
       </c>
       <c r="AE16">
+        <v>72.5</v>
+      </c>
+      <c r="AF16">
+        <v>29.5</v>
+      </c>
+      <c r="AG16">
         <v>87.300000000002896</v>
       </c>
-      <c r="AF16">
-        <v>72.5</v>
-      </c>
-      <c r="AG16">
-        <v>29.5</v>
-      </c>
       <c r="AH16">
-        <v>67.099999999999994</v>
+        <v>93.5</v>
       </c>
       <c r="AJ16" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
@@ -14920,10 +20005,10 @@
         <v>7</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="K17">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>3.5</v>
@@ -14940,6 +20025,9 @@
       <c r="S17">
         <v>36.899999724637603</v>
       </c>
+      <c r="T17">
+        <v>40.1</v>
+      </c>
       <c r="V17">
         <v>25.799999999999901</v>
       </c>
@@ -14956,25 +20044,25 @@
         <v>38.799999999999997</v>
       </c>
       <c r="AA17" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AD17">
         <v>69.299994199999901</v>
       </c>
       <c r="AE17">
+        <v>40.399999457019597</v>
+      </c>
+      <c r="AF17">
+        <v>14.399999999999901</v>
+      </c>
+      <c r="AG17">
         <v>72.5</v>
       </c>
-      <c r="AF17">
-        <v>40.399999457019597</v>
-      </c>
-      <c r="AG17">
-        <v>14.399999999999901</v>
-      </c>
       <c r="AH17">
-        <v>55.7</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="AJ17" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
@@ -15020,6 +20108,9 @@
       <c r="S18">
         <v>18.7</v>
       </c>
+      <c r="T18">
+        <v>30.6</v>
+      </c>
       <c r="V18">
         <v>16.399999999999999</v>
       </c>
@@ -15036,19 +20127,19 @@
         <v>38.799999999999997</v>
       </c>
       <c r="AA18" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AD18">
         <v>46.099994199999998</v>
       </c>
       <c r="AE18">
+        <v>28.6999999999999</v>
+      </c>
+      <c r="AF18">
+        <v>3.4999999999999898</v>
+      </c>
+      <c r="AG18">
         <v>55</v>
-      </c>
-      <c r="AF18">
-        <v>28.6999999999999</v>
-      </c>
-      <c r="AG18">
-        <v>3.4999999999999898</v>
       </c>
       <c r="AH18">
         <v>55.7</v>
@@ -15061,30 +20152,59 @@
       </c>
       <c r="B19">
         <f>SUM(B13:B18)</f>
+        <v>479.3999999999989</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:E19" si="0">SUM(C13:C18)</f>
         <v>291.69999999999891</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>247.09999999999897</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>367.79999999999995</v>
       </c>
       <c r="H19">
         <f>SUM(H13:H18)</f>
         <v>349.19999999999396</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:L19" si="0">SUM(I13:I18)</f>
-        <v>324.39999999999401</v>
+        <f t="shared" ref="I19:L19" si="1">SUM(I13:I18)</f>
+        <v>544.099999999994</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f>SUM(J13:J18)</f>
+        <v>372.19999999999396</v>
+      </c>
+      <c r="K19">
+        <f>SUM(K13:K18)</f>
         <v>274.39999999999986</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>372.19999999999396</v>
-      </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>406.8</v>
       </c>
+      <c r="P19">
+        <f>SUM(P13:P18)</f>
+        <v>447.90000004483568</v>
+      </c>
       <c r="Q19">
-        <v>15.2</v>
+        <f t="shared" ref="Q19:T19" si="2">SUM(Q13:Q18)</f>
+        <v>547.99999920680148</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>327.89999999998872</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>454.19999817462661</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>477.70000000000005</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -15101,7 +20221,7 @@
       <c r="Z19">
         <v>18</v>
       </c>
-      <c r="AF19">
+      <c r="AE19">
         <v>14.1</v>
       </c>
     </row>
@@ -15123,28 +20243,37 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>228</v>
+      </c>
       <c r="AD21" t="s">
-        <v>181</v>
+        <v>223</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>225</v>
       </c>
       <c r="AF21" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="AH21" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>229</v>
+      </c>
       <c r="Y22" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="AD22">
         <v>240.49999999999901</v>
       </c>
       <c r="AE22">
-        <v>240.49999999999901</v>
+        <v>240.5</v>
       </c>
       <c r="AF22">
         <v>240.49999999999901</v>
@@ -15156,10 +20285,13 @@
         <v>240.5</v>
       </c>
       <c r="AJ22" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>230</v>
+      </c>
       <c r="Y23">
         <v>1</v>
       </c>
@@ -15167,45 +20299,51 @@
         <v>187.69999999999899</v>
       </c>
       <c r="AE23">
+        <v>240.49999999999901</v>
+      </c>
+      <c r="AF23">
+        <v>93.5</v>
+      </c>
+      <c r="AG23">
         <v>167.7</v>
       </c>
-      <c r="AF23">
-        <v>117.30000000000599</v>
-      </c>
-      <c r="AG23">
-        <v>93.5</v>
-      </c>
       <c r="AH23">
-        <v>123.5</v>
+        <v>211.5</v>
       </c>
       <c r="AJ23" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>231</v>
+      </c>
       <c r="Y24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AD24">
         <v>93.5</v>
       </c>
       <c r="AE24">
+        <v>117.30000000000599</v>
+      </c>
+      <c r="AF24">
+        <v>55.8</v>
+      </c>
+      <c r="AG24">
         <v>111</v>
       </c>
-      <c r="AF24">
-        <v>72.499999563346805</v>
-      </c>
-      <c r="AG24">
-        <v>55.8</v>
-      </c>
       <c r="AH24">
-        <v>93.5</v>
+        <v>123.5</v>
       </c>
       <c r="AJ24" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>232</v>
+      </c>
       <c r="Y25">
         <v>1</v>
       </c>
@@ -15213,19 +20351,19 @@
         <v>73</v>
       </c>
       <c r="AE25">
+        <v>72.499999563346805</v>
+      </c>
+      <c r="AF25">
+        <v>29.5</v>
+      </c>
+      <c r="AG25">
         <v>80.999999999999901</v>
       </c>
-      <c r="AF25">
-        <v>40.4</v>
-      </c>
-      <c r="AG25">
-        <v>29.5</v>
-      </c>
       <c r="AH25">
-        <v>75.5</v>
+        <v>93.5</v>
       </c>
       <c r="AJ25" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
@@ -15239,28 +20377,28 @@
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AD26">
         <v>49.3</v>
       </c>
       <c r="AE26">
+        <v>40.4</v>
+      </c>
+      <c r="AF26">
+        <v>14.399999999999901</v>
+      </c>
+      <c r="AG26">
         <v>55.499999999999901</v>
       </c>
-      <c r="AF26">
-        <v>26</v>
-      </c>
-      <c r="AG26">
-        <v>14.399999999999901</v>
-      </c>
       <c r="AH26">
-        <v>49.2</v>
+        <v>75.5</v>
       </c>
       <c r="AJ26" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
@@ -15289,7 +20427,7 @@
         <v>41</v>
       </c>
       <c r="L27" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="Y27">
         <v>1</v>
@@ -15298,19 +20436,19 @@
         <v>37.9</v>
       </c>
       <c r="AE27">
+        <v>26</v>
+      </c>
+      <c r="AF27">
+        <v>3.4999999999999898</v>
+      </c>
+      <c r="AG27">
         <v>46.8</v>
       </c>
-      <c r="AF27">
-        <v>16.499999563346801</v>
-      </c>
-      <c r="AG27">
-        <v>3.4999999999999898</v>
-      </c>
       <c r="AH27">
-        <v>38.700000000000003</v>
+        <v>49.2</v>
       </c>
       <c r="AJ27" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -15321,10 +20459,10 @@
         <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -15342,7 +20480,10 @@
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>201</v>
+        <v>191</v>
+      </c>
+      <c r="AE28">
+        <v>16.499999563346801</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -15371,7 +20512,7 @@
         <v>57</v>
       </c>
       <c r="L29" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -15388,7 +20529,7 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -15406,7 +20547,7 @@
         <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AG30" t="s">
         <v>41</v>
@@ -15438,7 +20579,7 @@
         <v>67</v>
       </c>
       <c r="L31" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Y31">
         <v>1</v>
@@ -15458,7 +20599,7 @@
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -15476,7 +20617,7 @@
         <v>1</v>
       </c>
       <c r="Y32" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AG32" t="s">
         <v>85</v>
@@ -15499,16 +20640,16 @@
         <v>67</v>
       </c>
       <c r="I33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K33" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="Y33">
         <v>1</v>
@@ -15528,7 +20669,7 @@
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -15546,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="Y34" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AG34" t="s">
         <v>57</v>
@@ -15572,13 +20713,13 @@
         <v>66</v>
       </c>
       <c r="J35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s">
         <v>60</v>
       </c>
       <c r="L35" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Y35">
         <v>1</v>
@@ -15595,10 +20736,10 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -15616,10 +20757,10 @@
         <v>1</v>
       </c>
       <c r="Y36" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AG36" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
@@ -15642,13 +20783,13 @@
         <v>67</v>
       </c>
       <c r="J37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K37" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L37" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -15668,7 +20809,7 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -15709,7 +20850,7 @@
         <v>70</v>
       </c>
       <c r="I39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J39" t="s">
         <v>69</v>
@@ -15718,7 +20859,7 @@
         <v>95</v>
       </c>
       <c r="L39" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="Y39">
         <v>1</v>
@@ -15738,7 +20879,7 @@
         <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -15756,10 +20897,10 @@
         <v>1</v>
       </c>
       <c r="Y40" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AG40" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
@@ -15776,7 +20917,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I41" t="s">
         <v>74</v>
@@ -15788,7 +20929,7 @@
         <v>74</v>
       </c>
       <c r="L41" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Y41">
         <v>1</v>
@@ -15805,10 +20946,10 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -15826,7 +20967,7 @@
         <v>1</v>
       </c>
       <c r="Y42" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AG42" t="s">
         <v>59</v>
@@ -15849,7 +20990,7 @@
         <v>71</v>
       </c>
       <c r="I43" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J43" t="s">
         <v>112</v>
@@ -15858,7 +20999,7 @@
         <v>31</v>
       </c>
       <c r="L43" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -15869,16 +21010,16 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -15896,7 +21037,7 @@
         <v>1</v>
       </c>
       <c r="Y44" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="AG44" t="s">
         <v>43</v>
@@ -15919,7 +21060,7 @@
         <v>37</v>
       </c>
       <c r="I45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J45" t="s">
         <v>113</v>
@@ -15928,7 +21069,7 @@
         <v>62</v>
       </c>
       <c r="L45" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Y45">
         <v>1</v>
@@ -15948,7 +21089,7 @@
         <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -15969,7 +21110,7 @@
         <v>49</v>
       </c>
       <c r="AG46" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
@@ -15986,19 +21127,19 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I47" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L47" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -16018,7 +21159,7 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -16036,7 +21177,7 @@
         <v>1</v>
       </c>
       <c r="Y48" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="AG48" t="s">
         <v>70</v>
@@ -16056,7 +21197,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I49" t="s">
         <v>114</v>
@@ -16065,10 +21206,10 @@
         <v>46</v>
       </c>
       <c r="K49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -16079,16 +21220,16 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
         <v>119</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" t="s">
-        <v>123</v>
-      </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -16106,10 +21247,10 @@
         <v>1</v>
       </c>
       <c r="Y50" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="AG50" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
@@ -16126,19 +21267,19 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I51" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J51" t="s">
         <v>71</v>
       </c>
       <c r="K51" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -16149,16 +21290,16 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
         <v>120</v>
       </c>
-      <c r="B52" t="s">
-        <v>122</v>
-      </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -16176,7 +21317,7 @@
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AG52" t="s">
         <v>96</v>
@@ -16199,16 +21340,16 @@
         <v>72</v>
       </c>
       <c r="I53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s">
         <v>63</v>
       </c>
       <c r="L53" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Y53">
         <v>1</v>
@@ -16222,13 +21363,13 @@
         <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -16246,7 +21387,7 @@
         <v>1</v>
       </c>
       <c r="Y54" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AG54" t="s">
         <v>37</v>
@@ -16266,13 +21407,13 @@
         <v>64</v>
       </c>
       <c r="I55" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L55" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -16301,7 +21442,7 @@
         <v>1</v>
       </c>
       <c r="Y56" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AG56" t="s">
         <v>75</v>
@@ -16326,7 +21467,7 @@
         <v>64</v>
       </c>
       <c r="AG58" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
@@ -16339,10 +21480,10 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Y60" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AG60" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
@@ -16385,7 +21526,7 @@
     </row>
     <row r="68" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG68" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="33:33" x14ac:dyDescent="0.25">
@@ -16395,5 +21536,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>